--- a/public/base.xlsx
+++ b/public/base.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="175">
   <si>
     <t>کارگزاری آینده نگر خوارزمی به مدیریت دکتر ذوقی 09123011311 و 61914000-021 (داخلی 408 الی 411)</t>
   </si>
@@ -566,12 +566,120 @@
   <si>
     <t>*</t>
   </si>
+  <si>
+    <t>مقایسه قیمت پایه محصولات  پلی وینیل کلراید PVC(S)  مورخ تاریخ 1 و تاریخ 2 
+لینک واتساپ⬇️       
+https://chat.whatsapp.com/HBddSsmCnWAGot0Nvdauxs       
+لینک تلگرام⬇️       
+https://t.me/TDI_MDI
+لینک بله⬅️
+ble.ir/join/HLzkvyNxQu</t>
+  </si>
+  <si>
+    <t>مقایسه قیمت پایه محصولات  پلی وینیل کلراید PVC(E)  مورخ تاریخ 1 و تاریخ 2 
+لینک واتساپ⬇️       
+https://chat.whatsapp.com/HBddSsmCnWAGot0Nvdauxs       
+لینک تلگرام⬇️       
+https://t.me/TDI_MDI
+لینک بله⬅️
+ble.ir/join/HLzkvyNxQu</t>
+  </si>
+  <si>
+    <t>مقایسه قیمت پایه محصولات پلی پروپیلن نساجی مورخ تاریخ 1 و تاریخ 2 
+لینک واتساپ⬇️       
+https://chat.whatsapp.com/HBddSsmCnWAGot0Nvdauxs       
+لینک تلگرام⬇️       
+https://t.me/TDI_MDI
+لینک بله⬅️
+ble.ir/join/HLzkvyNxQu</t>
+  </si>
+  <si>
+    <t>مقایسه قیمت پایه محصولات پلی پروپیلن شیمیایی مورخ تاریخ 1 و تاریخ 2 
+لینک واتساپ⬇️       
+https://chat.whatsapp.com/HBddSsmCnWAGot0Nvdauxs       
+لینک تلگرام⬇️       
+https://t.me/TDI_MDI
+لینک بله⬅️
+ble.ir/join/HLzkvyNxQu</t>
+  </si>
+  <si>
+    <t>مقایسه قیمت پایه محصولات پلی اتیلن سنگین مورخ تاریخ 1 و تاریخ 2 
+لینک واتساپ⬇️       
+https://chat.whatsapp.com/HBddSsmCnWAGot0Nvdauxs       
+لینک تلگرام⬇️       
+https://t.me/TDI_MDI
+لینک بله⬅️
+ble.ir/join/HLzkvyNxQu</t>
+  </si>
+  <si>
+    <t>مقایسه قیمت پایه محصولات پلی اتیلن سبک مورخ تاریخ 1 و تاریخ 2 
+لینک واتساپ⬇️       
+https://chat.whatsapp.com/HBddSsmCnWAGot0Nvdauxs       
+لینک تلگرام⬇️       
+https://t.me/TDI_MDI
+لینک بله⬅️
+ble.ir/join/HLzkvyNxQu</t>
+  </si>
+  <si>
+    <t>مقایسه قیمت پایه محصولات پلی اتیلن ترفتالات بطری PET مورخ تاریخ 1 و تاریخ 2 
+لینک واتساپ⬇️       
+https://chat.whatsapp.com/HBddSsmCnWAGot0Nvdauxs       
+لینک تلگرام⬇️       
+https://t.me/TDI_MDI
+لینک بله⬅️
+ble.ir/join/HLzkvyNxQu</t>
+  </si>
+  <si>
+    <t>مقایسه قیمت پایه محصولات MDI &amp; TDI مورخ تاریخ 1 و تاریخ 2 
+لینک واتساپ⬇️       
+https://chat.whatsapp.com/HBddSsmCnWAGot0Nvdauxs       
+لینک تلگرام⬇️       
+https://t.me/TDI_MDI
+لینک بله⬅️
+ble.ir/join/HLzkvyNxQu</t>
+  </si>
+  <si>
+    <t>مقایسه قیمت پایه محصولات شیمیایی مورخ تاریخ 1 و تاریخ 2 
+لینک واتساپ⬇️       
+https://chat.whatsapp.com/HBddSsmCnWAGot0Nvdauxs       
+لینک تلگرام⬇️       
+https://t.me/TDI_MDI
+لینک بله⬅️
+ble.ir/join/HLzkvyNxQu</t>
+  </si>
+  <si>
+    <t>مقایسه قیمت پایه محصولات DEG و MEG وTEG مورخ تاریخ 1 و تاریخ 2 
+لینک واتساپ⬇️       
+https://chat.whatsapp.com/HBddSsmCnWAGot0Nvdauxs       
+لینک تلگرام⬇️       
+https://t.me/TDI_MDI
+لینک بله⬅️
+ble.ir/join/HLzkvyNxQu</t>
+  </si>
+  <si>
+    <t>مقایسه قیمت پایه محصولات پلیمری مورخ تاریخ 1 و تاریخ 2 
+لینک واتساپ⬇️       
+https://chat.whatsapp.com/HBddSsmCnWAGot0Nvdauxs       
+لینک تلگرام⬇️       
+https://t.me/TDI_MDI
+لینک بله⬅️
+ble.ir/join/HLzkvyNxQu</t>
+  </si>
+  <si>
+    <t>مقایسه قیمت پایه محصولات پلی استایرن مورخ تاریخ 1 و تاریخ 2 
+لینک واتساپ⬇️       
+https://chat.whatsapp.com/HBddSsmCnWAGot0Nvdauxs       
+لینک تلگرام⬇️       
+https://t.me/TDI_MDI
+لینک بله⬅️
+ble.ir/join/HLzkvyNxQu</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -712,6 +820,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="B Nazanin"/>
+      <charset val="178"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="B Nazanin"/>
+      <charset val="178"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="B Nazanin"/>
+      <charset val="178"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -763,7 +890,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -884,11 +1011,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -932,9 +1068,6 @@
     <xf numFmtId="10" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -957,9 +1090,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -977,9 +1107,6 @@
     <xf numFmtId="10" fontId="9" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -987,9 +1114,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1047,7 +1171,7 @@
     <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="12" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1056,9 +1180,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1068,7 +1189,13 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1081,6 +1208,67 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="21" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="23" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="21" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="23" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="23" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="22" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="22" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="22" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1244,9 +1432,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>388640</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
+      <xdr:colOff>179090</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1323974</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1277,14 +1465,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1555619</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>38099</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>36215</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1464965</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
+      <xdr:rowOff>1228724</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1315,14 +1503,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1057499</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>238124</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>626765</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>45719</xdr:rowOff>
+      <xdr:colOff>417215</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>398145</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1353,13 +1541,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1030315</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>304799</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>245765</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:colOff>36215</xdr:colOff>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>227075</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1391,14 +1579,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1220815</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>85724</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>436265</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>8000</xdr:rowOff>
+      <xdr:colOff>226715</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>208025</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1429,14 +1617,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1239867</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>38099</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>455316</xdr:colOff>
-      <xdr:row>106</xdr:row>
-      <xdr:rowOff>312800</xdr:rowOff>
+      <xdr:colOff>245766</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>160400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1467,14 +1655,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1173190</xdr:colOff>
-      <xdr:row>110</xdr:row>
+      <xdr:row>124</xdr:row>
       <xdr:rowOff>209549</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>388640</xdr:colOff>
-      <xdr:row>121</xdr:row>
-      <xdr:rowOff>484250</xdr:rowOff>
+      <xdr:colOff>179090</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>1191821</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1505,14 +1693,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1812796</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>139</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>293390</xdr:colOff>
-      <xdr:row>133</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
+      <xdr:colOff>83840</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>698047</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1543,14 +1731,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1360974</xdr:colOff>
-      <xdr:row>142</xdr:row>
+      <xdr:row>160</xdr:row>
       <xdr:rowOff>66674</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>521990</xdr:colOff>
-      <xdr:row>153</xdr:row>
-      <xdr:rowOff>304799</xdr:rowOff>
+      <xdr:colOff>312440</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1581,14 +1769,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1103801</xdr:colOff>
-      <xdr:row>168</xdr:row>
+      <xdr:row>188</xdr:row>
       <xdr:rowOff>95249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>264815</xdr:colOff>
-      <xdr:row>179</xdr:row>
-      <xdr:rowOff>333374</xdr:rowOff>
+      <xdr:colOff>55265</xdr:colOff>
+      <xdr:row>199</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1619,14 +1807,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1008551</xdr:colOff>
-      <xdr:row>220</xdr:row>
+      <xdr:row>244</xdr:row>
       <xdr:rowOff>285749</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>169565</xdr:colOff>
-      <xdr:row>232</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1598315</xdr:colOff>
+      <xdr:row>256</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1657,14 +1845,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1162050</xdr:colOff>
-      <xdr:row>202</xdr:row>
+      <xdr:row>226</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>326286</xdr:colOff>
-      <xdr:row>214</xdr:row>
-      <xdr:rowOff>357</xdr:rowOff>
+      <xdr:colOff>116736</xdr:colOff>
+      <xdr:row>238</xdr:row>
+      <xdr:rowOff>358</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1957,16 +2145,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH234"/>
+  <dimension ref="A1:AH259"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C209" sqref="C209"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A191" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A198" sqref="A198:XFD198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27.95" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.625" style="39" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.375" style="61" customWidth="1"/>
+    <col min="1" max="1" width="7.625" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.125" style="57" customWidth="1"/>
     <col min="3" max="3" width="20.5" customWidth="1"/>
     <col min="4" max="4" width="21.5" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
@@ -1976,94 +2164,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="27.95" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="19">
+      <c r="A1" s="18">
         <v>9</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="20">
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="19">
         <f t="shared" ref="E1" si="0">D1-C1</f>
         <v>0</v>
       </c>
-      <c r="F1" s="21" t="e">
+      <c r="F1" s="20" t="e">
         <f t="shared" ref="F1" si="1">(E1/C1)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
+      <c r="A2" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
     </row>
     <row r="3" spans="1:34" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="77" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="67"/>
-    </row>
-    <row r="4" spans="1:34" s="61" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="62"/>
-      <c r="B4" s="46" t="s">
+      <c r="B3" s="78"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="62"/>
+    </row>
+    <row r="4" spans="1:34" s="57" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="79"/>
+      <c r="B4" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="46" t="s">
+      <c r="D4" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="46" t="s">
+      <c r="E4" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="46" t="s">
+      <c r="F4" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="60"/>
-      <c r="L4" s="60"/>
-      <c r="M4" s="60"/>
-      <c r="N4" s="60"/>
-      <c r="O4" s="60"/>
-      <c r="P4" s="60"/>
-      <c r="Q4" s="60"/>
-      <c r="R4" s="60"/>
-      <c r="S4" s="60"/>
-      <c r="T4" s="60"/>
-      <c r="U4" s="60"/>
-      <c r="V4" s="60"/>
-      <c r="W4" s="60"/>
-      <c r="X4" s="60"/>
-      <c r="Y4" s="60"/>
-      <c r="Z4" s="60"/>
-      <c r="AA4" s="60"/>
-      <c r="AB4" s="60"/>
-      <c r="AC4" s="60"/>
-      <c r="AD4" s="60"/>
-      <c r="AE4" s="60"/>
-      <c r="AF4" s="60"/>
-      <c r="AG4" s="60"/>
-      <c r="AH4" s="60"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="56"/>
+      <c r="Q4" s="56"/>
+      <c r="R4" s="56"/>
+      <c r="S4" s="56"/>
+      <c r="T4" s="56"/>
+      <c r="U4" s="56"/>
+      <c r="V4" s="56"/>
+      <c r="W4" s="56"/>
+      <c r="X4" s="56"/>
+      <c r="Y4" s="56"/>
+      <c r="Z4" s="56"/>
+      <c r="AA4" s="56"/>
+      <c r="AB4" s="56"/>
+      <c r="AC4" s="56"/>
+      <c r="AD4" s="56"/>
+      <c r="AE4" s="56"/>
+      <c r="AF4" s="56"/>
+      <c r="AG4" s="56"/>
+      <c r="AH4" s="56"/>
     </row>
     <row r="5" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="73" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="74" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="10"/>
@@ -2079,7 +2267,7 @@
     </row>
     <row r="6" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14"/>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="43" t="s">
         <v>75</v>
       </c>
       <c r="C6" s="14"/>
@@ -2095,7 +2283,7 @@
     </row>
     <row r="7" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="43" t="s">
         <v>143</v>
       </c>
       <c r="C7" s="14"/>
@@ -2111,7 +2299,7 @@
     </row>
     <row r="8" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14"/>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="44" t="s">
         <v>76</v>
       </c>
       <c r="C8" s="14"/>
@@ -2127,7 +2315,7 @@
     </row>
     <row r="9" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14"/>
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="44" t="s">
         <v>81</v>
       </c>
       <c r="C9" s="14"/>
@@ -2141,196 +2329,182 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:34" s="25" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="42" t="s">
+    <row r="10" spans="1:34" s="24" customFormat="1" ht="24.75" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="B10" s="49"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="24"/>
-    </row>
-    <row r="11" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="64"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
-    </row>
-    <row r="12" spans="1:34" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="65" t="s">
+      <c r="B10" s="45"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="23"/>
+    </row>
+    <row r="11" spans="1:34" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="85" t="s">
+        <v>163</v>
+      </c>
+      <c r="B11" s="89"/>
+      <c r="C11" s="89"/>
+      <c r="D11" s="89"/>
+      <c r="E11" s="89"/>
+      <c r="F11" s="90"/>
+    </row>
+    <row r="12" spans="1:34" s="24" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="38"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="23"/>
+    </row>
+    <row r="13" spans="1:34" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="60"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+    </row>
+    <row r="14" spans="1:34" s="57" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="77" t="s">
         <v>87</v>
       </c>
-      <c r="B12" s="66"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="67"/>
-    </row>
-    <row r="13" spans="1:34" s="61" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="62"/>
-      <c r="B13" s="46" t="s">
+      <c r="B14" s="78"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="56"/>
+      <c r="O14" s="56"/>
+      <c r="P14" s="56"/>
+      <c r="Q14" s="56"/>
+      <c r="R14" s="56"/>
+      <c r="S14" s="56"/>
+      <c r="T14" s="56"/>
+      <c r="U14" s="56"/>
+      <c r="V14" s="56"/>
+      <c r="W14" s="56"/>
+      <c r="X14" s="56"/>
+      <c r="Y14" s="56"/>
+      <c r="Z14" s="56"/>
+      <c r="AA14" s="56"/>
+      <c r="AB14" s="56"/>
+      <c r="AC14" s="56"/>
+      <c r="AD14" s="56"/>
+      <c r="AE14" s="56"/>
+      <c r="AF14" s="56"/>
+      <c r="AG14" s="56"/>
+      <c r="AH14" s="56"/>
+    </row>
+    <row r="15" spans="1:34" s="3" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="79"/>
+      <c r="B15" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="46" t="s">
+      <c r="C15" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="46" t="s">
+      <c r="D15" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="46" t="s">
+      <c r="E15" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="F13" s="46" t="s">
+      <c r="F15" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="G13" s="60"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="60"/>
-      <c r="J13" s="60"/>
-      <c r="K13" s="60"/>
-      <c r="L13" s="60"/>
-      <c r="M13" s="60"/>
-      <c r="N13" s="60"/>
-      <c r="O13" s="60"/>
-      <c r="P13" s="60"/>
-      <c r="Q13" s="60"/>
-      <c r="R13" s="60"/>
-      <c r="S13" s="60"/>
-      <c r="T13" s="60"/>
-      <c r="U13" s="60"/>
-      <c r="V13" s="60"/>
-      <c r="W13" s="60"/>
-      <c r="X13" s="60"/>
-      <c r="Y13" s="60"/>
-      <c r="Z13" s="60"/>
-      <c r="AA13" s="60"/>
-      <c r="AB13" s="60"/>
-      <c r="AC13" s="60"/>
-      <c r="AD13" s="60"/>
-      <c r="AE13" s="60"/>
-      <c r="AF13" s="60"/>
-      <c r="AG13" s="60"/>
-      <c r="AH13" s="60"/>
-    </row>
-    <row r="14" spans="1:34" s="3" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="2"/>
+      <c r="AA15" s="2"/>
+      <c r="AB15" s="2"/>
+      <c r="AC15" s="2"/>
+      <c r="AD15" s="2"/>
+      <c r="AE15" s="2"/>
+      <c r="AF15" s="2"/>
+      <c r="AG15" s="2"/>
+      <c r="AH15" s="2"/>
+    </row>
+    <row r="16" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="73" t="s">
         <v>72</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B16" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11">
-        <f>D14-C14</f>
-        <v>0</v>
-      </c>
-      <c r="F14" s="12" t="e">
-        <f>(E14/C14)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
-      <c r="U14" s="2"/>
-      <c r="V14" s="2"/>
-      <c r="W14" s="2"/>
-      <c r="X14" s="2"/>
-      <c r="Y14" s="2"/>
-      <c r="Z14" s="2"/>
-      <c r="AA14" s="2"/>
-      <c r="AB14" s="2"/>
-      <c r="AC14" s="2"/>
-      <c r="AD14" s="2"/>
-      <c r="AE14" s="2"/>
-      <c r="AF14" s="2"/>
-      <c r="AG14" s="2"/>
-      <c r="AH14" s="2"/>
-    </row>
-    <row r="15" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="50" t="s">
-        <v>88</v>
-      </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="11">
-        <f>D15-C15</f>
-        <v>0</v>
-      </c>
-      <c r="F15" s="12" t="e">
-        <f>(E15/C15)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="16" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="50" t="s">
-        <v>89</v>
-      </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
       <c r="E16" s="11">
-        <f t="shared" ref="E16:E20" si="4">D16-C16</f>
+        <f>D16-C16</f>
         <v>0</v>
       </c>
       <c r="F16" s="12" t="e">
-        <f t="shared" ref="F16:F20" si="5">(E16/C16)</f>
+        <f>(E16/C16)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="17" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
-      <c r="B17" s="50" t="s">
-        <v>90</v>
+      <c r="B17" s="46" t="s">
+        <v>88</v>
       </c>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
       <c r="E17" s="11">
-        <f t="shared" si="4"/>
+        <f>D17-C17</f>
         <v>0</v>
       </c>
       <c r="F17" s="12" t="e">
-        <f t="shared" si="5"/>
+        <f>(E17/C17)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="18" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
-      <c r="B18" s="50" t="s">
-        <v>91</v>
+      <c r="B18" s="46" t="s">
+        <v>89</v>
       </c>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
       <c r="E18" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="E18:E22" si="4">D18-C18</f>
         <v>0</v>
       </c>
       <c r="F18" s="12" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="F18:F22" si="5">(E18/C18)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="19" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
-      <c r="B19" s="51" t="s">
-        <v>10</v>
+      <c r="B19" s="46" t="s">
+        <v>90</v>
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
@@ -2345,8 +2519,8 @@
     </row>
     <row r="20" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
-      <c r="B20" s="50" t="s">
-        <v>92</v>
+      <c r="B20" s="46" t="s">
+        <v>91</v>
       </c>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
@@ -2359,317 +2533,317 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:34" s="25" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="42" t="s">
+    <row r="21" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="14"/>
+      <c r="B21" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="12" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34" s="24" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="14"/>
+      <c r="B22" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F22" s="12" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34" ht="27.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="B21" s="52"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="24"/>
-    </row>
-    <row r="22" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="64"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="64"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="64"/>
-    </row>
-    <row r="23" spans="1:34" s="28" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="65" t="s">
+      <c r="B23" s="48"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="23"/>
+    </row>
+    <row r="24" spans="1:34" s="26" customFormat="1" ht="135.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="85" t="s">
+        <v>164</v>
+      </c>
+      <c r="B24" s="89"/>
+      <c r="C24" s="89"/>
+      <c r="D24" s="89"/>
+      <c r="E24" s="89"/>
+      <c r="F24" s="90"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="25"/>
+      <c r="O24" s="25"/>
+      <c r="P24" s="25"/>
+      <c r="Q24" s="25"/>
+      <c r="R24" s="25"/>
+      <c r="S24" s="25"/>
+      <c r="T24" s="25"/>
+      <c r="U24" s="25"/>
+      <c r="V24" s="25"/>
+      <c r="W24" s="25"/>
+      <c r="X24" s="25"/>
+      <c r="Y24" s="25"/>
+      <c r="Z24" s="25"/>
+      <c r="AA24" s="25"/>
+      <c r="AB24" s="25"/>
+      <c r="AC24" s="25"/>
+      <c r="AD24" s="25"/>
+      <c r="AE24" s="25"/>
+      <c r="AF24" s="25"/>
+      <c r="AG24" s="25"/>
+      <c r="AH24" s="25"/>
+    </row>
+    <row r="25" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="38"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="23"/>
+    </row>
+    <row r="26" spans="1:34" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="60"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="60"/>
+    </row>
+    <row r="27" spans="1:34" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="77" t="s">
         <v>160</v>
       </c>
-      <c r="B23" s="66"/>
-      <c r="C23" s="66"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="66"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="27"/>
-      <c r="N23" s="27"/>
-      <c r="O23" s="27"/>
-      <c r="P23" s="27"/>
-      <c r="Q23" s="27"/>
-      <c r="R23" s="27"/>
-      <c r="S23" s="27"/>
-      <c r="T23" s="27"/>
-      <c r="U23" s="27"/>
-      <c r="V23" s="27"/>
-      <c r="W23" s="27"/>
-      <c r="X23" s="27"/>
-      <c r="Y23" s="27"/>
-      <c r="Z23" s="27"/>
-      <c r="AA23" s="27"/>
-      <c r="AB23" s="27"/>
-      <c r="AC23" s="27"/>
-      <c r="AD23" s="27"/>
-      <c r="AE23" s="27"/>
-      <c r="AF23" s="27"/>
-      <c r="AG23" s="27"/>
-      <c r="AH23" s="27"/>
-    </row>
-    <row r="24" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="34"/>
-      <c r="B24" s="46" t="s">
+      <c r="B27" s="78"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="62"/>
+    </row>
+    <row r="28" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="82"/>
+      <c r="B28" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C28" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D28" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E28" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F28" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
+    <row r="29" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="73" t="s">
         <v>72</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B29" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="15">
-        <f t="shared" ref="E25" si="6">D25-C25</f>
-        <v>0</v>
-      </c>
-      <c r="F25" s="16" t="e">
-        <f t="shared" ref="F25" si="7">(E25/C25)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="26" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
-      <c r="B26" s="53" t="s">
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="15">
+        <f t="shared" ref="E29" si="6">D29-C29</f>
+        <v>0</v>
+      </c>
+      <c r="F29" s="16" t="e">
+        <f t="shared" ref="F29" si="7">(E29/C29)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:34" s="1" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="14"/>
+      <c r="B30" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="11">
-        <f>D26-C26</f>
-        <v>0</v>
-      </c>
-      <c r="F26" s="12" t="e">
-        <f>(E26/C26)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="27" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="18"/>
-      <c r="B27" s="54" t="s">
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="11">
+        <f>D30-C30</f>
+        <v>0</v>
+      </c>
+      <c r="F30" s="12" t="e">
+        <f>(E30/C30)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="31" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="17"/>
+      <c r="B31" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="11">
-        <f t="shared" ref="E27" si="8">D27-C27</f>
-        <v>0</v>
-      </c>
-      <c r="F27" s="12" t="e">
-        <f>(E27/C27)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="28" spans="1:34" s="1" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="43" t="s">
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="11">
+        <f t="shared" ref="E31" si="8">D31-C31</f>
+        <v>0</v>
+      </c>
+      <c r="F31" s="12" t="e">
+        <f>(E31/C31)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="32" spans="1:34" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="39" t="s">
         <v>162</v>
       </c>
-      <c r="B28" s="55"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="31"/>
-    </row>
-    <row r="29" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29" s="64"/>
-      <c r="C29" s="64"/>
-      <c r="D29" s="64"/>
-      <c r="E29" s="64"/>
-      <c r="F29" s="64"/>
-    </row>
-    <row r="30" spans="1:34" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="65" t="s">
+      <c r="B32" s="51"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="29"/>
+    </row>
+    <row r="33" spans="1:34" ht="153.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="83" t="s">
+        <v>165</v>
+      </c>
+      <c r="B33" s="88"/>
+      <c r="C33" s="88"/>
+      <c r="D33" s="88"/>
+      <c r="E33" s="88"/>
+      <c r="F33" s="88"/>
+    </row>
+    <row r="34" spans="1:34" s="80" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="38"/>
+      <c r="B34" s="52"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="24"/>
+      <c r="M34" s="24"/>
+      <c r="N34" s="24"/>
+      <c r="O34" s="24"/>
+      <c r="P34" s="24"/>
+      <c r="Q34" s="24"/>
+      <c r="R34" s="24"/>
+      <c r="S34" s="24"/>
+      <c r="T34" s="24"/>
+      <c r="U34" s="24"/>
+      <c r="V34" s="24"/>
+      <c r="W34" s="24"/>
+      <c r="X34" s="24"/>
+      <c r="Y34" s="24"/>
+      <c r="Z34" s="24"/>
+      <c r="AA34" s="24"/>
+      <c r="AB34" s="24"/>
+      <c r="AC34" s="24"/>
+      <c r="AD34" s="24"/>
+      <c r="AE34" s="24"/>
+      <c r="AF34" s="24"/>
+      <c r="AG34" s="24"/>
+      <c r="AH34" s="24"/>
+    </row>
+    <row r="35" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="60"/>
+      <c r="C35" s="60"/>
+      <c r="D35" s="60"/>
+      <c r="E35" s="60"/>
+      <c r="F35" s="60"/>
+    </row>
+    <row r="36" spans="1:34" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="77" t="s">
         <v>161</v>
       </c>
-      <c r="B30" s="66"/>
-      <c r="C30" s="66"/>
-      <c r="D30" s="66"/>
-      <c r="E30" s="66"/>
-      <c r="F30" s="67"/>
-    </row>
-    <row r="31" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="34"/>
-      <c r="B31" s="46" t="s">
+      <c r="B36" s="78"/>
+      <c r="C36" s="61"/>
+      <c r="D36" s="61"/>
+      <c r="E36" s="61"/>
+      <c r="F36" s="62"/>
+    </row>
+    <row r="37" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="82"/>
+      <c r="B37" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C37" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D37" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E37" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="F37" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
+    <row r="38" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="73" t="s">
         <v>72</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B38" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="15">
-        <f t="shared" ref="E32" si="9">D32-C32</f>
-        <v>0</v>
-      </c>
-      <c r="F32" s="16" t="e">
-        <f t="shared" ref="F32" si="10">(E32/C32)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="35"/>
-      <c r="B33" s="50" t="s">
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="15">
+        <f t="shared" ref="E38" si="9">D38-C38</f>
+        <v>0</v>
+      </c>
+      <c r="F38" s="16" t="e">
+        <f t="shared" ref="F38" si="10">(E38/C38)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="39" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="32"/>
+      <c r="B39" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="15">
-        <f t="shared" ref="E33:E47" si="11">D33-C33</f>
-        <v>0</v>
-      </c>
-      <c r="F33" s="16" t="e">
-        <f t="shared" ref="F33:F47" si="12">(E33/C33)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="35"/>
-      <c r="B34" s="50" t="s">
+      <c r="C39" s="33"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="15">
+        <f t="shared" ref="E39:E53" si="11">D39-C39</f>
+        <v>0</v>
+      </c>
+      <c r="F39" s="16" t="e">
+        <f t="shared" ref="F39:F53" si="12">(E39/C39)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="40" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="32"/>
+      <c r="B40" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="36"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="15">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="F34" s="16" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="35"/>
-      <c r="B35" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="C35" s="36"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="15">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="F35" s="16" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="35"/>
-      <c r="B36" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="C36" s="36"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="15">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="F36" s="16" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="35"/>
-      <c r="B37" s="50" t="s">
-        <v>17</v>
-      </c>
-      <c r="C37" s="36"/>
-      <c r="D37" s="36"/>
-      <c r="E37" s="15">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="F37" s="16" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="35"/>
-      <c r="B38" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="C38" s="36"/>
-      <c r="D38" s="36"/>
-      <c r="E38" s="15">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="F38" s="16" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="35"/>
-      <c r="B39" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="C39" s="36"/>
-      <c r="D39" s="36"/>
-      <c r="E39" s="15">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="F39" s="16" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="35"/>
-      <c r="B40" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="C40" s="36"/>
-      <c r="D40" s="36"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="33"/>
       <c r="E40" s="15">
         <f t="shared" si="11"/>
         <v>0</v>
@@ -2679,13 +2853,13 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="35"/>
-      <c r="B41" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="C41" s="36"/>
-      <c r="D41" s="36"/>
+    <row r="41" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="32"/>
+      <c r="B41" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" s="33"/>
+      <c r="D41" s="33"/>
       <c r="E41" s="15">
         <f t="shared" si="11"/>
         <v>0</v>
@@ -2695,13 +2869,13 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="35"/>
-      <c r="B42" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="C42" s="36"/>
-      <c r="D42" s="36"/>
+    <row r="42" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="32"/>
+      <c r="B42" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" s="33"/>
+      <c r="D42" s="33"/>
       <c r="E42" s="15">
         <f t="shared" si="11"/>
         <v>0</v>
@@ -2711,13 +2885,13 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="35"/>
-      <c r="B43" s="50" t="s">
-        <v>23</v>
-      </c>
-      <c r="C43" s="36"/>
-      <c r="D43" s="36"/>
+    <row r="43" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="32"/>
+      <c r="B43" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43" s="33"/>
+      <c r="D43" s="33"/>
       <c r="E43" s="15">
         <f t="shared" si="11"/>
         <v>0</v>
@@ -2727,13 +2901,13 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="35"/>
-      <c r="B44" s="50" t="s">
-        <v>24</v>
-      </c>
-      <c r="C44" s="36"/>
-      <c r="D44" s="36"/>
+    <row r="44" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="32"/>
+      <c r="B44" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44" s="33"/>
+      <c r="D44" s="33"/>
       <c r="E44" s="15">
         <f t="shared" si="11"/>
         <v>0</v>
@@ -2743,13 +2917,13 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="35"/>
-      <c r="B45" s="50" t="s">
-        <v>25</v>
-      </c>
-      <c r="C45" s="36"/>
-      <c r="D45" s="36"/>
+    <row r="45" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="32"/>
+      <c r="B45" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45" s="33"/>
+      <c r="D45" s="33"/>
       <c r="E45" s="15">
         <f t="shared" si="11"/>
         <v>0</v>
@@ -2759,13 +2933,13 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="35"/>
-      <c r="B46" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="C46" s="36"/>
-      <c r="D46" s="36"/>
+    <row r="46" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="32"/>
+      <c r="B46" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="C46" s="33"/>
+      <c r="D46" s="33"/>
       <c r="E46" s="15">
         <f t="shared" si="11"/>
         <v>0</v>
@@ -2775,13 +2949,13 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="35"/>
-      <c r="B47" s="50" t="s">
-        <v>78</v>
-      </c>
-      <c r="C47" s="36"/>
-      <c r="D47" s="36"/>
+    <row r="47" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="32"/>
+      <c r="B47" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="C47" s="33"/>
+      <c r="D47" s="33"/>
       <c r="E47" s="15">
         <f t="shared" si="11"/>
         <v>0</v>
@@ -2791,622 +2965,594 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="48" spans="1:6" s="25" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="42" t="s">
+    <row r="48" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="32"/>
+      <c r="B48" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="C48" s="33"/>
+      <c r="D48" s="33"/>
+      <c r="E48" s="15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F48" s="16" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="32"/>
+      <c r="B49" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="C49" s="33"/>
+      <c r="D49" s="33"/>
+      <c r="E49" s="15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F49" s="16" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="32"/>
+      <c r="B50" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="C50" s="33"/>
+      <c r="D50" s="33"/>
+      <c r="E50" s="15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F50" s="16" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" s="24" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="32"/>
+      <c r="B51" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="C51" s="33"/>
+      <c r="D51" s="33"/>
+      <c r="E51" s="15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F51" s="16" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" s="1" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="32"/>
+      <c r="B52" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="C52" s="33"/>
+      <c r="D52" s="33"/>
+      <c r="E52" s="15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F52" s="16" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="32"/>
+      <c r="B53" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53" s="33"/>
+      <c r="D53" s="33"/>
+      <c r="E53" s="15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F53" s="16" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" s="1" customFormat="1" ht="27.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="B48" s="56"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="22"/>
-      <c r="E48" s="32"/>
-      <c r="F48" s="33"/>
-    </row>
-    <row r="49" spans="1:6" s="1" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="68" t="s">
-        <v>0</v>
-      </c>
-      <c r="B49" s="68"/>
-      <c r="C49" s="68"/>
-      <c r="D49" s="68"/>
-      <c r="E49" s="68"/>
-      <c r="F49" s="68"/>
-    </row>
-    <row r="50" spans="1:6" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="69" t="s">
+      <c r="B54" s="52"/>
+      <c r="C54" s="21"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="30"/>
+      <c r="F54" s="31"/>
+    </row>
+    <row r="55" spans="1:6" s="1" customFormat="1" ht="149.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="85" t="s">
+        <v>166</v>
+      </c>
+      <c r="B55" s="86"/>
+      <c r="C55" s="86"/>
+      <c r="D55" s="86"/>
+      <c r="E55" s="86"/>
+      <c r="F55" s="87"/>
+    </row>
+    <row r="56" spans="1:6" s="1" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="38"/>
+      <c r="B56" s="52"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="30"/>
+      <c r="F56" s="31"/>
+    </row>
+    <row r="57" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57" s="60"/>
+      <c r="C57" s="60"/>
+      <c r="D57" s="60"/>
+      <c r="E57" s="60"/>
+      <c r="F57" s="60"/>
+    </row>
+    <row r="58" spans="1:6" s="1" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="71" t="s">
         <v>93</v>
       </c>
-      <c r="B50" s="68"/>
-      <c r="C50" s="68"/>
-      <c r="D50" s="68"/>
-      <c r="E50" s="68"/>
-      <c r="F50" s="68"/>
-    </row>
-    <row r="51" spans="1:6" s="1" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="26"/>
-      <c r="B51" s="46" t="s">
+      <c r="B58" s="81"/>
+      <c r="C58" s="63"/>
+      <c r="D58" s="63"/>
+      <c r="E58" s="63"/>
+      <c r="F58" s="63"/>
+    </row>
+    <row r="59" spans="1:6" s="1" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="75"/>
+      <c r="B59" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C59" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D51" s="7" t="s">
+      <c r="D59" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E51" s="7" t="s">
+      <c r="E59" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F51" s="7" t="s">
+      <c r="F59" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:6" s="1" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="8" t="s">
+    <row r="60" spans="1:6" s="1" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="73" t="s">
         <v>72</v>
       </c>
-      <c r="B52" s="17" t="s">
+      <c r="B60" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="15">
-        <f t="shared" ref="E52" si="13">D52-C52</f>
-        <v>0</v>
-      </c>
-      <c r="F52" s="16" t="e">
-        <f t="shared" ref="F52" si="14">(E52/C52)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" s="1" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="35"/>
-      <c r="B53" s="50" t="s">
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="15">
+        <f t="shared" ref="E60" si="13">D60-C60</f>
+        <v>0</v>
+      </c>
+      <c r="F60" s="16" t="e">
+        <f t="shared" ref="F60" si="14">(E60/C60)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" s="1" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="32"/>
+      <c r="B61" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="C53" s="36"/>
-      <c r="D53" s="36"/>
-      <c r="E53" s="15">
-        <f t="shared" ref="E53" si="15">D53-C53</f>
-        <v>0</v>
-      </c>
-      <c r="F53" s="16" t="e">
-        <f t="shared" ref="F53" si="16">(E53/C53)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" s="1" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="35"/>
-      <c r="B54" s="50" t="s">
+      <c r="C61" s="33"/>
+      <c r="D61" s="33"/>
+      <c r="E61" s="15">
+        <f t="shared" ref="E61" si="15">D61-C61</f>
+        <v>0</v>
+      </c>
+      <c r="F61" s="16" t="e">
+        <f t="shared" ref="F61" si="16">(E61/C61)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" s="1" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="32"/>
+      <c r="B62" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="C54" s="36"/>
-      <c r="D54" s="36"/>
-      <c r="E54" s="15">
-        <f t="shared" ref="E54:E62" si="17">D54-C54</f>
-        <v>0</v>
-      </c>
-      <c r="F54" s="16" t="e">
-        <f t="shared" ref="F54:F62" si="18">(E54/C54)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" s="1" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="35"/>
-      <c r="B55" s="50" t="s">
+      <c r="C62" s="33"/>
+      <c r="D62" s="33"/>
+      <c r="E62" s="15">
+        <f t="shared" ref="E62:E70" si="17">D62-C62</f>
+        <v>0</v>
+      </c>
+      <c r="F62" s="16" t="e">
+        <f t="shared" ref="F62:F70" si="18">(E62/C62)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" s="1" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="32"/>
+      <c r="B63" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="C55" s="36"/>
-      <c r="D55" s="36"/>
-      <c r="E55" s="15">
+      <c r="C63" s="33"/>
+      <c r="D63" s="33"/>
+      <c r="E63" s="15">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="F55" s="16" t="e">
+      <c r="F63" s="16" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="56" spans="1:6" s="1" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="35"/>
-      <c r="B56" s="50" t="s">
+    <row r="64" spans="1:6" s="1" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="32"/>
+      <c r="B64" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="C56" s="36"/>
-      <c r="D56" s="36"/>
-      <c r="E56" s="15">
+      <c r="C64" s="33"/>
+      <c r="D64" s="33"/>
+      <c r="E64" s="15">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="F56" s="16" t="e">
+      <c r="F64" s="16" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="57" spans="1:6" s="1" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="35"/>
-      <c r="B57" s="50" t="s">
+    <row r="65" spans="1:6" s="1" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="32"/>
+      <c r="B65" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="C57" s="36"/>
-      <c r="D57" s="36"/>
-      <c r="E57" s="15">
+      <c r="C65" s="33"/>
+      <c r="D65" s="33"/>
+      <c r="E65" s="15">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="F57" s="16" t="e">
+      <c r="F65" s="16" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="58" spans="1:6" s="1" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="35"/>
-      <c r="B58" s="50" t="s">
+    <row r="66" spans="1:6" s="1" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="32"/>
+      <c r="B66" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="C58" s="36"/>
-      <c r="D58" s="36"/>
-      <c r="E58" s="15">
+      <c r="C66" s="33"/>
+      <c r="D66" s="33"/>
+      <c r="E66" s="15">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="F58" s="16" t="e">
+      <c r="F66" s="16" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="59" spans="1:6" s="1" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="35"/>
-      <c r="B59" s="50" t="s">
+    <row r="67" spans="1:6" s="1" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="32"/>
+      <c r="B67" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="C59" s="36"/>
-      <c r="D59" s="36"/>
-      <c r="E59" s="15">
+      <c r="C67" s="33"/>
+      <c r="D67" s="33"/>
+      <c r="E67" s="15">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="F59" s="16" t="e">
+      <c r="F67" s="16" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="60" spans="1:6" s="1" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="35"/>
-      <c r="B60" s="50" t="s">
+    <row r="68" spans="1:6" s="1" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="32"/>
+      <c r="B68" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="C60" s="36"/>
-      <c r="D60" s="36"/>
-      <c r="E60" s="15">
+      <c r="C68" s="33"/>
+      <c r="D68" s="33"/>
+      <c r="E68" s="15">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="F60" s="16" t="e">
+      <c r="F68" s="16" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="61" spans="1:6" s="1" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="35"/>
-      <c r="B61" s="50" t="s">
+    <row r="69" spans="1:6" s="1" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="32"/>
+      <c r="B69" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="C61" s="36"/>
-      <c r="D61" s="36"/>
-      <c r="E61" s="15">
+      <c r="C69" s="33"/>
+      <c r="D69" s="33"/>
+      <c r="E69" s="15">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="F61" s="16" t="e">
+      <c r="F69" s="16" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="62" spans="1:6" s="1" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="35"/>
-      <c r="B62" s="50" t="s">
+    <row r="70" spans="1:6" s="1" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="32"/>
+      <c r="B70" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C62" s="36"/>
-      <c r="D62" s="36"/>
-      <c r="E62" s="15">
+      <c r="C70" s="33"/>
+      <c r="D70" s="33"/>
+      <c r="E70" s="15">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="F62" s="16" t="e">
+      <c r="F70" s="16" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="63" spans="1:6" s="1" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="35"/>
-      <c r="B63" s="50" t="s">
+    <row r="71" spans="1:6" s="1" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="32"/>
+      <c r="B71" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="C63" s="36"/>
-      <c r="D63" s="36"/>
-      <c r="E63" s="15">
-        <f t="shared" ref="E63:E70" si="19">D63-C63</f>
-        <v>0</v>
-      </c>
-      <c r="F63" s="16" t="e">
-        <f t="shared" ref="F63:F70" si="20">(E63/C63)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" s="1" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="35"/>
-      <c r="B64" s="50" t="s">
+      <c r="C71" s="33"/>
+      <c r="D71" s="33"/>
+      <c r="E71" s="15">
+        <f t="shared" ref="E71:E78" si="19">D71-C71</f>
+        <v>0</v>
+      </c>
+      <c r="F71" s="16" t="e">
+        <f t="shared" ref="F71:F78" si="20">(E71/C71)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" s="1" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="32"/>
+      <c r="B72" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="C64" s="36"/>
-      <c r="D64" s="36"/>
-      <c r="E64" s="15">
+      <c r="C72" s="33"/>
+      <c r="D72" s="33"/>
+      <c r="E72" s="15">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="F64" s="16" t="e">
+      <c r="F72" s="16" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="65" spans="1:6" s="1" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="35"/>
-      <c r="B65" s="50" t="s">
+    <row r="73" spans="1:6" s="1" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="32"/>
+      <c r="B73" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="C65" s="36"/>
-      <c r="D65" s="36"/>
-      <c r="E65" s="15">
+      <c r="C73" s="33"/>
+      <c r="D73" s="33"/>
+      <c r="E73" s="15">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="F65" s="16" t="e">
+      <c r="F73" s="16" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="66" spans="1:6" s="1" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="35"/>
-      <c r="B66" s="50" t="s">
+    <row r="74" spans="1:6" s="1" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="32"/>
+      <c r="B74" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="C66" s="36"/>
-      <c r="D66" s="36"/>
-      <c r="E66" s="15">
+      <c r="C74" s="33"/>
+      <c r="D74" s="33"/>
+      <c r="E74" s="15">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="F66" s="16" t="e">
+      <c r="F74" s="16" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="67" spans="1:6" s="1" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="35"/>
-      <c r="B67" s="50" t="s">
+    <row r="75" spans="1:6" s="1" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="32"/>
+      <c r="B75" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="C67" s="36"/>
-      <c r="D67" s="36"/>
-      <c r="E67" s="15">
+      <c r="C75" s="33"/>
+      <c r="D75" s="33"/>
+      <c r="E75" s="15">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="F67" s="16" t="e">
+      <c r="F75" s="16" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="68" spans="1:6" s="1" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="35"/>
-      <c r="B68" s="50" t="s">
+    <row r="76" spans="1:6" s="24" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="32"/>
+      <c r="B76" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="C68" s="36"/>
-      <c r="D68" s="36"/>
-      <c r="E68" s="15">
+      <c r="C76" s="33"/>
+      <c r="D76" s="33"/>
+      <c r="E76" s="15">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="F68" s="16" t="e">
+      <c r="F76" s="16" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="69" spans="1:6" s="1" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="35"/>
-      <c r="B69" s="50" t="s">
+    <row r="77" spans="1:6" s="2" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="32"/>
+      <c r="B77" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="C69" s="36"/>
-      <c r="D69" s="36"/>
-      <c r="E69" s="15">
+      <c r="C77" s="33"/>
+      <c r="D77" s="33"/>
+      <c r="E77" s="15">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="F69" s="16" t="e">
+      <c r="F77" s="16" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="70" spans="1:6" s="1" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="35"/>
-      <c r="B70" s="50" t="s">
+    <row r="78" spans="1:6" s="2" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="32"/>
+      <c r="B78" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="C70" s="36"/>
-      <c r="D70" s="36"/>
-      <c r="E70" s="15">
+      <c r="C78" s="33"/>
+      <c r="D78" s="33"/>
+      <c r="E78" s="15">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="F70" s="16" t="e">
+      <c r="F78" s="16" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="71" spans="1:6" s="25" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="42" t="s">
+    <row r="79" spans="1:6" s="1" customFormat="1" ht="27.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="B71" s="57"/>
-      <c r="C71" s="22"/>
-      <c r="D71" s="22"/>
-      <c r="E71" s="32"/>
-      <c r="F71" s="33"/>
-    </row>
-    <row r="72" spans="1:6" s="2" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="68" t="s">
-        <v>0</v>
-      </c>
-      <c r="B72" s="68"/>
-      <c r="C72" s="68"/>
-      <c r="D72" s="68"/>
-      <c r="E72" s="68"/>
-      <c r="F72" s="68"/>
-    </row>
-    <row r="73" spans="1:6" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="69" t="s">
+      <c r="B79" s="53"/>
+      <c r="C79" s="21"/>
+      <c r="D79" s="21"/>
+      <c r="E79" s="30"/>
+      <c r="F79" s="31"/>
+    </row>
+    <row r="80" spans="1:6" s="1" customFormat="1" ht="152.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="85" t="s">
+        <v>174</v>
+      </c>
+      <c r="B80" s="86"/>
+      <c r="C80" s="86"/>
+      <c r="D80" s="86"/>
+      <c r="E80" s="86"/>
+      <c r="F80" s="87"/>
+    </row>
+    <row r="81" spans="1:6" s="1" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="38"/>
+      <c r="B81" s="53"/>
+      <c r="C81" s="21"/>
+      <c r="D81" s="21"/>
+      <c r="E81" s="30"/>
+      <c r="F81" s="31"/>
+    </row>
+    <row r="82" spans="1:6" s="1" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B82" s="65"/>
+      <c r="C82" s="65"/>
+      <c r="D82" s="65"/>
+      <c r="E82" s="65"/>
+      <c r="F82" s="66"/>
+    </row>
+    <row r="83" spans="1:6" s="1" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="71" t="s">
         <v>94</v>
       </c>
-      <c r="B73" s="70"/>
-      <c r="C73" s="70"/>
-      <c r="D73" s="70"/>
-      <c r="E73" s="70"/>
-      <c r="F73" s="70"/>
-    </row>
-    <row r="74" spans="1:6" s="1" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="26"/>
-      <c r="B74" s="46" t="s">
+      <c r="B83" s="72"/>
+      <c r="C83" s="67"/>
+      <c r="D83" s="67"/>
+      <c r="E83" s="67"/>
+      <c r="F83" s="67"/>
+    </row>
+    <row r="84" spans="1:6" s="1" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="75"/>
+      <c r="B84" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="C74" s="7" t="s">
+      <c r="C84" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D74" s="7" t="s">
+      <c r="D84" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E74" s="7" t="s">
+      <c r="E84" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F74" s="7" t="s">
+      <c r="F84" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:6" s="1" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="8" t="s">
+    <row r="85" spans="1:6" s="1" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="73" t="s">
         <v>72</v>
       </c>
-      <c r="B75" s="17" t="s">
+      <c r="B85" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="C75" s="10"/>
-      <c r="D75" s="10"/>
-      <c r="E75" s="15">
-        <f t="shared" ref="E75" si="21">D75-C75</f>
-        <v>0</v>
-      </c>
-      <c r="F75" s="16" t="e">
-        <f t="shared" ref="F75" si="22">(E75/C75)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" s="1" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="18"/>
-      <c r="B76" s="50" t="s">
+      <c r="C85" s="10"/>
+      <c r="D85" s="10"/>
+      <c r="E85" s="15">
+        <f t="shared" ref="E85" si="21">D85-C85</f>
+        <v>0</v>
+      </c>
+      <c r="F85" s="16" t="e">
+        <f t="shared" ref="F85" si="22">(E85/C85)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" s="1" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="17"/>
+      <c r="B86" s="46" t="s">
         <v>85</v>
-      </c>
-      <c r="C76" s="14"/>
-      <c r="D76" s="14"/>
-      <c r="E76" s="15">
-        <f t="shared" ref="E76" si="23">D76-C76</f>
-        <v>0</v>
-      </c>
-      <c r="F76" s="16" t="e">
-        <f t="shared" ref="F76" si="24">(E76/C76)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" s="1" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="18"/>
-      <c r="B77" s="50" t="s">
-        <v>83</v>
-      </c>
-      <c r="C77" s="14"/>
-      <c r="D77" s="14"/>
-      <c r="E77" s="15">
-        <f t="shared" ref="E77:E88" si="25">D77-C77</f>
-        <v>0</v>
-      </c>
-      <c r="F77" s="16" t="e">
-        <f t="shared" ref="F77:F88" si="26">(E77/C77)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" s="1" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="18"/>
-      <c r="B78" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="C78" s="14"/>
-      <c r="D78" s="14"/>
-      <c r="E78" s="15">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="F78" s="16" t="e">
-        <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" s="1" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="18"/>
-      <c r="B79" s="50" t="s">
-        <v>44</v>
-      </c>
-      <c r="C79" s="14"/>
-      <c r="D79" s="14"/>
-      <c r="E79" s="15">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="F79" s="16" t="e">
-        <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" s="1" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="18"/>
-      <c r="B80" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="C80" s="14"/>
-      <c r="D80" s="14"/>
-      <c r="E80" s="15">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="F80" s="16" t="e">
-        <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="81" spans="1:34" s="1" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="18"/>
-      <c r="B81" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="C81" s="14"/>
-      <c r="D81" s="14"/>
-      <c r="E81" s="15">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="F81" s="16" t="e">
-        <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="82" spans="1:34" s="1" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="18"/>
-      <c r="B82" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="C82" s="14"/>
-      <c r="D82" s="14"/>
-      <c r="E82" s="15">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="F82" s="16" t="e">
-        <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="83" spans="1:34" s="1" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="18"/>
-      <c r="B83" s="50" t="s">
-        <v>48</v>
-      </c>
-      <c r="C83" s="14"/>
-      <c r="D83" s="14"/>
-      <c r="E83" s="15">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="F83" s="16" t="e">
-        <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="84" spans="1:34" s="1" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="18"/>
-      <c r="B84" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="C84" s="14"/>
-      <c r="D84" s="14"/>
-      <c r="E84" s="15">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="F84" s="16" t="e">
-        <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="85" spans="1:34" s="1" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="18"/>
-      <c r="B85" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="C85" s="14"/>
-      <c r="D85" s="14"/>
-      <c r="E85" s="15">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="F85" s="16" t="e">
-        <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="86" spans="1:34" s="1" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="18"/>
-      <c r="B86" s="50" t="s">
-        <v>79</v>
       </c>
       <c r="C86" s="14"/>
       <c r="D86" s="14"/>
       <c r="E86" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" ref="E86" si="23">D86-C86</f>
         <v>0</v>
       </c>
       <c r="F86" s="16" t="e">
-        <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="87" spans="1:34" s="1" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="18"/>
-      <c r="B87" s="50" t="s">
-        <v>80</v>
+        <f t="shared" ref="F86" si="24">(E86/C86)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" s="1" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="17"/>
+      <c r="B87" s="46" t="s">
+        <v>83</v>
       </c>
       <c r="C87" s="14"/>
       <c r="D87" s="14"/>
       <c r="E87" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" ref="E87:E98" si="25">D87-C87</f>
         <v>0</v>
       </c>
       <c r="F87" s="16" t="e">
-        <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="88" spans="1:34" s="1" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="18"/>
-      <c r="B88" s="50" t="s">
-        <v>51</v>
+        <f t="shared" ref="F87:F98" si="26">(E87/C87)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" s="1" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="17"/>
+      <c r="B88" s="46" t="s">
+        <v>43</v>
       </c>
       <c r="C88" s="14"/>
       <c r="D88" s="14"/>
@@ -3419,1142 +3565,1126 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="89" spans="1:34" s="1" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="18"/>
-      <c r="B89" s="50" t="s">
-        <v>52</v>
+    <row r="89" spans="1:6" s="1" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="17"/>
+      <c r="B89" s="46" t="s">
+        <v>44</v>
       </c>
       <c r="C89" s="14"/>
       <c r="D89" s="14"/>
       <c r="E89" s="15">
-        <f t="shared" ref="E89" si="27">D89-C89</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="F89" s="16" t="e">
-        <f t="shared" ref="F89" si="28">(E89/C89)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="90" spans="1:34" s="25" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="42" t="s">
-        <v>162</v>
-      </c>
-      <c r="B90" s="57"/>
-      <c r="C90" s="22"/>
-      <c r="D90" s="22"/>
-      <c r="E90" s="32"/>
-      <c r="F90" s="33"/>
-    </row>
-    <row r="91" spans="1:34" s="3" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="68" t="s">
-        <v>0</v>
-      </c>
-      <c r="B91" s="68"/>
-      <c r="C91" s="68"/>
-      <c r="D91" s="68"/>
-      <c r="E91" s="68"/>
-      <c r="F91" s="68"/>
-      <c r="G91" s="2"/>
-      <c r="H91" s="2"/>
-      <c r="I91" s="2"/>
-      <c r="J91" s="2"/>
-      <c r="K91" s="2"/>
-      <c r="L91" s="2"/>
-      <c r="M91" s="2"/>
-      <c r="N91" s="2"/>
-      <c r="O91" s="2"/>
-      <c r="P91" s="2"/>
-      <c r="Q91" s="2"/>
-      <c r="R91" s="2"/>
-      <c r="S91" s="2"/>
-      <c r="T91" s="2"/>
-      <c r="U91" s="2"/>
-      <c r="V91" s="2"/>
-      <c r="W91" s="2"/>
-      <c r="X91" s="2"/>
-      <c r="Y91" s="2"/>
-      <c r="Z91" s="2"/>
-      <c r="AA91" s="2"/>
-      <c r="AB91" s="2"/>
-      <c r="AC91" s="2"/>
-      <c r="AD91" s="2"/>
-      <c r="AE91" s="2"/>
-      <c r="AF91" s="2"/>
-      <c r="AG91" s="2"/>
-      <c r="AH91" s="2"/>
-    </row>
-    <row r="92" spans="1:34" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="69" t="s">
-        <v>107</v>
-      </c>
-      <c r="B92" s="70"/>
-      <c r="C92" s="70"/>
-      <c r="D92" s="70"/>
-      <c r="E92" s="70"/>
-      <c r="F92" s="70"/>
-    </row>
-    <row r="93" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="26"/>
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" s="1" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="17"/>
+      <c r="B90" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="C90" s="14"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="15">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="F90" s="16" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" s="1" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="17"/>
+      <c r="B91" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C91" s="14"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="15">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="F91" s="16" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" s="1" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="17"/>
+      <c r="B92" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="C92" s="14"/>
+      <c r="D92" s="14"/>
+      <c r="E92" s="15">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="F92" s="16" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" s="1" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="17"/>
       <c r="B93" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="C93" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D93" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E93" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F93" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B94" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C94" s="10"/>
-      <c r="D94" s="10"/>
+        <v>48</v>
+      </c>
+      <c r="C93" s="14"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="15">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="F93" s="16" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" s="1" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="17"/>
+      <c r="B94" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="C94" s="14"/>
+      <c r="D94" s="14"/>
       <c r="E94" s="15">
-        <f t="shared" ref="E94:E95" si="29">D94-C94</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="F94" s="16" t="e">
-        <f t="shared" ref="F94:F95" si="30">(E94/C94)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="95" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="18"/>
-      <c r="B95" s="50" t="s">
-        <v>95</v>
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" s="1" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="17"/>
+      <c r="B95" s="46" t="s">
+        <v>50</v>
       </c>
       <c r="C95" s="14"/>
       <c r="D95" s="14"/>
       <c r="E95" s="15">
-        <f t="shared" si="29"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="F95" s="16" t="e">
-        <f t="shared" si="30"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="96" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="37"/>
-      <c r="B96" s="50" t="s">
-        <v>96</v>
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" s="24" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="17"/>
+      <c r="B96" s="46" t="s">
+        <v>79</v>
       </c>
       <c r="C96" s="14"/>
       <c r="D96" s="14"/>
       <c r="E96" s="15">
-        <f t="shared" ref="E96:E106" si="31">D96-C96</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="F96" s="16" t="e">
-        <f t="shared" ref="F96:F106" si="32">(E96/C96)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="97" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="37"/>
-      <c r="B97" s="50" t="s">
-        <v>97</v>
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="97" spans="1:34" s="3" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="17"/>
+      <c r="B97" s="46" t="s">
+        <v>80</v>
       </c>
       <c r="C97" s="14"/>
       <c r="D97" s="14"/>
       <c r="E97" s="15">
-        <f t="shared" si="31"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="F97" s="16" t="e">
-        <f t="shared" si="32"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="98" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="37"/>
-      <c r="B98" s="50" t="s">
-        <v>98</v>
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G97" s="2"/>
+      <c r="H97" s="2"/>
+      <c r="I97" s="2"/>
+      <c r="J97" s="2"/>
+      <c r="K97" s="2"/>
+      <c r="L97" s="2"/>
+      <c r="M97" s="2"/>
+      <c r="N97" s="2"/>
+      <c r="O97" s="2"/>
+      <c r="P97" s="2"/>
+      <c r="Q97" s="2"/>
+      <c r="R97" s="2"/>
+      <c r="S97" s="2"/>
+      <c r="T97" s="2"/>
+      <c r="U97" s="2"/>
+      <c r="V97" s="2"/>
+      <c r="W97" s="2"/>
+      <c r="X97" s="2"/>
+      <c r="Y97" s="2"/>
+      <c r="Z97" s="2"/>
+      <c r="AA97" s="2"/>
+      <c r="AB97" s="2"/>
+      <c r="AC97" s="2"/>
+      <c r="AD97" s="2"/>
+      <c r="AE97" s="2"/>
+      <c r="AF97" s="2"/>
+      <c r="AG97" s="2"/>
+      <c r="AH97" s="2"/>
+    </row>
+    <row r="98" spans="1:34" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="17"/>
+      <c r="B98" s="46" t="s">
+        <v>51</v>
       </c>
       <c r="C98" s="14"/>
       <c r="D98" s="14"/>
       <c r="E98" s="15">
-        <f t="shared" si="31"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="F98" s="16" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="99" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="37"/>
-      <c r="B99" s="50" t="s">
-        <v>99</v>
+      <c r="A99" s="17"/>
+      <c r="B99" s="46" t="s">
+        <v>52</v>
       </c>
       <c r="C99" s="14"/>
       <c r="D99" s="14"/>
       <c r="E99" s="15">
+        <f t="shared" ref="E99" si="27">D99-C99</f>
+        <v>0</v>
+      </c>
+      <c r="F99" s="16" t="e">
+        <f t="shared" ref="F99" si="28">(E99/C99)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="100" spans="1:34" ht="27.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="38" t="s">
+        <v>162</v>
+      </c>
+      <c r="B100" s="53"/>
+      <c r="C100" s="21"/>
+      <c r="D100" s="21"/>
+      <c r="E100" s="30"/>
+      <c r="F100" s="31"/>
+    </row>
+    <row r="101" spans="1:34" ht="161.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="85" t="s">
+        <v>167</v>
+      </c>
+      <c r="B101" s="86"/>
+      <c r="C101" s="86"/>
+      <c r="D101" s="86"/>
+      <c r="E101" s="86"/>
+      <c r="F101" s="87"/>
+    </row>
+    <row r="102" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="38"/>
+      <c r="B102" s="53"/>
+      <c r="C102" s="21"/>
+      <c r="D102" s="21"/>
+      <c r="E102" s="30"/>
+      <c r="F102" s="31"/>
+    </row>
+    <row r="103" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B103" s="63"/>
+      <c r="C103" s="63"/>
+      <c r="D103" s="63"/>
+      <c r="E103" s="63"/>
+      <c r="F103" s="63"/>
+    </row>
+    <row r="104" spans="1:34" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="71" t="s">
+        <v>107</v>
+      </c>
+      <c r="B104" s="72"/>
+      <c r="C104" s="67"/>
+      <c r="D104" s="67"/>
+      <c r="E104" s="67"/>
+      <c r="F104" s="67"/>
+    </row>
+    <row r="105" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="75"/>
+      <c r="B105" s="76" t="s">
+        <v>5</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D105" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E105" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F105" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="73" t="s">
+        <v>72</v>
+      </c>
+      <c r="B106" s="74" t="s">
+        <v>3</v>
+      </c>
+      <c r="C106" s="10"/>
+      <c r="D106" s="10"/>
+      <c r="E106" s="15">
+        <f t="shared" ref="E106:E107" si="29">D106-C106</f>
+        <v>0</v>
+      </c>
+      <c r="F106" s="16" t="e">
+        <f t="shared" ref="F106:F107" si="30">(E106/C106)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="107" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="17"/>
+      <c r="B107" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="C107" s="14"/>
+      <c r="D107" s="14"/>
+      <c r="E107" s="15">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="F107" s="16" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="108" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="34"/>
+      <c r="B108" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="C108" s="14"/>
+      <c r="D108" s="14"/>
+      <c r="E108" s="15">
+        <f t="shared" ref="E108:E118" si="31">D108-C108</f>
+        <v>0</v>
+      </c>
+      <c r="F108" s="16" t="e">
+        <f t="shared" ref="F108:F118" si="32">(E108/C108)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="109" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="34"/>
+      <c r="B109" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="C109" s="14"/>
+      <c r="D109" s="14"/>
+      <c r="E109" s="15">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="F99" s="16" t="e">
+      <c r="F109" s="16" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="100" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="37"/>
-      <c r="B100" s="50" t="s">
+    <row r="110" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="34"/>
+      <c r="B110" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="C110" s="14"/>
+      <c r="D110" s="14"/>
+      <c r="E110" s="15">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="F110" s="16" t="e">
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="111" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="34"/>
+      <c r="B111" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="C111" s="14"/>
+      <c r="D111" s="14"/>
+      <c r="E111" s="15">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="F111" s="16" t="e">
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="112" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="34"/>
+      <c r="B112" s="46" t="s">
         <v>100</v>
-      </c>
-      <c r="C100" s="14"/>
-      <c r="D100" s="14"/>
-      <c r="E100" s="15">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="F100" s="16" t="e">
-        <f t="shared" si="32"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="101" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="37"/>
-      <c r="B101" s="50" t="s">
-        <v>101</v>
-      </c>
-      <c r="C101" s="14"/>
-      <c r="D101" s="14"/>
-      <c r="E101" s="15">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="F101" s="16" t="e">
-        <f t="shared" si="32"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="102" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="37"/>
-      <c r="B102" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="C102" s="14"/>
-      <c r="D102" s="14"/>
-      <c r="E102" s="15">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="F102" s="16" t="e">
-        <f t="shared" si="32"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="103" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="37"/>
-      <c r="B103" s="50" t="s">
-        <v>103</v>
-      </c>
-      <c r="C103" s="14"/>
-      <c r="D103" s="14"/>
-      <c r="E103" s="15">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="F103" s="16" t="e">
-        <f t="shared" si="32"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="104" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="37"/>
-      <c r="B104" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="C104" s="14"/>
-      <c r="D104" s="14"/>
-      <c r="E104" s="15">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="F104" s="16" t="e">
-        <f t="shared" si="32"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="105" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="37"/>
-      <c r="B105" s="50" t="s">
-        <v>105</v>
-      </c>
-      <c r="C105" s="14"/>
-      <c r="D105" s="14"/>
-      <c r="E105" s="15">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="F105" s="16" t="e">
-        <f t="shared" si="32"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="106" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="37"/>
-      <c r="B106" s="50" t="s">
-        <v>106</v>
-      </c>
-      <c r="C106" s="14"/>
-      <c r="D106" s="14"/>
-      <c r="E106" s="15">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="F106" s="16" t="e">
-        <f t="shared" si="32"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="107" spans="1:34" s="25" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="40" t="s">
-        <v>162</v>
-      </c>
-      <c r="B107" s="58"/>
-    </row>
-    <row r="108" spans="1:34" s="3" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="68" t="s">
-        <v>0</v>
-      </c>
-      <c r="B108" s="68"/>
-      <c r="C108" s="68"/>
-      <c r="D108" s="68"/>
-      <c r="E108" s="68"/>
-      <c r="F108" s="68"/>
-      <c r="G108" s="2"/>
-      <c r="H108" s="2"/>
-      <c r="I108" s="2"/>
-      <c r="J108" s="2"/>
-      <c r="K108" s="2"/>
-      <c r="L108" s="2"/>
-      <c r="M108" s="2"/>
-      <c r="N108" s="2"/>
-      <c r="O108" s="2"/>
-      <c r="P108" s="2"/>
-      <c r="Q108" s="2"/>
-      <c r="R108" s="2"/>
-      <c r="S108" s="2"/>
-      <c r="T108" s="2"/>
-      <c r="U108" s="2"/>
-      <c r="V108" s="2"/>
-      <c r="W108" s="2"/>
-      <c r="X108" s="2"/>
-      <c r="Y108" s="2"/>
-      <c r="Z108" s="2"/>
-      <c r="AA108" s="2"/>
-      <c r="AB108" s="2"/>
-      <c r="AC108" s="2"/>
-      <c r="AD108" s="2"/>
-      <c r="AE108" s="2"/>
-      <c r="AF108" s="2"/>
-      <c r="AG108" s="2"/>
-      <c r="AH108" s="2"/>
-    </row>
-    <row r="109" spans="1:34" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="69" t="s">
-        <v>116</v>
-      </c>
-      <c r="B109" s="70"/>
-      <c r="C109" s="70"/>
-      <c r="D109" s="70"/>
-      <c r="E109" s="70"/>
-      <c r="F109" s="70"/>
-    </row>
-    <row r="110" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="26"/>
-      <c r="B110" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="C110" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D110" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E110" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F110" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="111" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B111" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C111" s="10"/>
-      <c r="D111" s="10"/>
-      <c r="E111" s="15">
-        <f t="shared" ref="E111:E112" si="33">D111-C111</f>
-        <v>0</v>
-      </c>
-      <c r="F111" s="16" t="e">
-        <f t="shared" ref="F111:F112" si="34">(E111/C111)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="112" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="18"/>
-      <c r="B112" s="50" t="s">
-        <v>108</v>
       </c>
       <c r="C112" s="14"/>
       <c r="D112" s="14"/>
       <c r="E112" s="15">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="F112" s="16" t="e">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="113" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="37"/>
-      <c r="B113" s="50" t="s">
-        <v>109</v>
+      <c r="A113" s="34"/>
+      <c r="B113" s="46" t="s">
+        <v>101</v>
       </c>
       <c r="C113" s="14"/>
       <c r="D113" s="14"/>
       <c r="E113" s="15">
-        <f t="shared" ref="E113:E119" si="35">D113-C113</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="F113" s="16" t="e">
-        <f t="shared" ref="F113:F119" si="36">(E113/C113)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="114" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="37"/>
-      <c r="B114" s="50" t="s">
-        <v>110</v>
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="114" spans="1:34" s="24" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="34"/>
+      <c r="B114" s="46" t="s">
+        <v>102</v>
       </c>
       <c r="C114" s="14"/>
       <c r="D114" s="14"/>
       <c r="E114" s="15">
-        <f t="shared" si="35"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="F114" s="16" t="e">
-        <f t="shared" si="36"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="115" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="37"/>
-      <c r="B115" s="50" t="s">
-        <v>111</v>
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="115" spans="1:34" s="3" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="34"/>
+      <c r="B115" s="46" t="s">
+        <v>103</v>
       </c>
       <c r="C115" s="14"/>
       <c r="D115" s="14"/>
       <c r="E115" s="15">
-        <f t="shared" si="35"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="F115" s="16" t="e">
-        <f t="shared" si="36"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="116" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="37"/>
-      <c r="B116" s="50" t="s">
-        <v>112</v>
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G115" s="2"/>
+      <c r="H115" s="2"/>
+      <c r="I115" s="2"/>
+      <c r="J115" s="2"/>
+      <c r="K115" s="2"/>
+      <c r="L115" s="2"/>
+      <c r="M115" s="2"/>
+      <c r="N115" s="2"/>
+      <c r="O115" s="2"/>
+      <c r="P115" s="2"/>
+      <c r="Q115" s="2"/>
+      <c r="R115" s="2"/>
+      <c r="S115" s="2"/>
+      <c r="T115" s="2"/>
+      <c r="U115" s="2"/>
+      <c r="V115" s="2"/>
+      <c r="W115" s="2"/>
+      <c r="X115" s="2"/>
+      <c r="Y115" s="2"/>
+      <c r="Z115" s="2"/>
+      <c r="AA115" s="2"/>
+      <c r="AB115" s="2"/>
+      <c r="AC115" s="2"/>
+      <c r="AD115" s="2"/>
+      <c r="AE115" s="2"/>
+      <c r="AF115" s="2"/>
+      <c r="AG115" s="2"/>
+      <c r="AH115" s="2"/>
+    </row>
+    <row r="116" spans="1:34" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="34"/>
+      <c r="B116" s="46" t="s">
+        <v>104</v>
       </c>
       <c r="C116" s="14"/>
       <c r="D116" s="14"/>
       <c r="E116" s="15">
-        <f t="shared" si="35"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="F116" s="16" t="e">
-        <f t="shared" si="36"/>
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="117" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="37"/>
-      <c r="B117" s="50" t="s">
-        <v>113</v>
+      <c r="A117" s="34"/>
+      <c r="B117" s="46" t="s">
+        <v>105</v>
       </c>
       <c r="C117" s="14"/>
       <c r="D117" s="14"/>
       <c r="E117" s="15">
-        <f t="shared" si="35"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="F117" s="16" t="e">
-        <f t="shared" si="36"/>
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="118" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="37"/>
-      <c r="B118" s="50" t="s">
-        <v>114</v>
+      <c r="A118" s="34"/>
+      <c r="B118" s="46" t="s">
+        <v>106</v>
       </c>
       <c r="C118" s="14"/>
       <c r="D118" s="14"/>
       <c r="E118" s="15">
-        <f t="shared" si="35"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="F118" s="16" t="e">
-        <f t="shared" si="36"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="119" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="37"/>
-      <c r="B119" s="50" t="s">
-        <v>115</v>
-      </c>
-      <c r="C119" s="14"/>
-      <c r="D119" s="14"/>
-      <c r="E119" s="15">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="F119" s="16" t="e">
-        <f t="shared" si="36"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="120" spans="1:34" s="41" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="40" t="s">
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="119" spans="1:34" ht="27.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="36" t="s">
         <v>162</v>
       </c>
-      <c r="B120" s="59"/>
-    </row>
-    <row r="121" spans="1:34" s="3" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="68" t="s">
-        <v>0</v>
-      </c>
-      <c r="B121" s="68"/>
-      <c r="C121" s="68"/>
-      <c r="D121" s="68"/>
-      <c r="E121" s="68"/>
-      <c r="F121" s="68"/>
-      <c r="G121" s="2"/>
-      <c r="H121" s="2"/>
-      <c r="I121" s="2"/>
-      <c r="J121" s="2"/>
-      <c r="K121" s="2"/>
-      <c r="L121" s="2"/>
-      <c r="M121" s="2"/>
-      <c r="N121" s="2"/>
-      <c r="O121" s="2"/>
-      <c r="P121" s="2"/>
-      <c r="Q121" s="2"/>
-      <c r="R121" s="2"/>
-      <c r="S121" s="2"/>
-      <c r="T121" s="2"/>
-      <c r="U121" s="2"/>
-      <c r="V121" s="2"/>
-      <c r="W121" s="2"/>
-      <c r="X121" s="2"/>
-      <c r="Y121" s="2"/>
-      <c r="Z121" s="2"/>
-      <c r="AA121" s="2"/>
-      <c r="AB121" s="2"/>
-      <c r="AC121" s="2"/>
-      <c r="AD121" s="2"/>
-      <c r="AE121" s="2"/>
-      <c r="AF121" s="2"/>
-      <c r="AG121" s="2"/>
-      <c r="AH121" s="2"/>
-    </row>
-    <row r="122" spans="1:34" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="69" t="s">
-        <v>117</v>
-      </c>
-      <c r="B122" s="70"/>
-      <c r="C122" s="70"/>
-      <c r="D122" s="70"/>
-      <c r="E122" s="70"/>
-      <c r="F122" s="70"/>
-    </row>
-    <row r="123" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="26"/>
-      <c r="B123" s="46" t="s">
+      <c r="B119" s="54"/>
+      <c r="C119" s="24"/>
+      <c r="D119" s="24"/>
+      <c r="E119" s="24"/>
+      <c r="F119" s="24"/>
+    </row>
+    <row r="120" spans="1:34" ht="133.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="85" t="s">
+        <v>168</v>
+      </c>
+      <c r="B120" s="86"/>
+      <c r="C120" s="86"/>
+      <c r="D120" s="86"/>
+      <c r="E120" s="86"/>
+      <c r="F120" s="87"/>
+    </row>
+    <row r="121" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="36"/>
+      <c r="B121" s="54"/>
+      <c r="C121" s="24"/>
+      <c r="D121" s="24"/>
+      <c r="E121" s="24"/>
+      <c r="F121" s="24"/>
+    </row>
+    <row r="122" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B122" s="63"/>
+      <c r="C122" s="63"/>
+      <c r="D122" s="63"/>
+      <c r="E122" s="63"/>
+      <c r="F122" s="63"/>
+    </row>
+    <row r="123" spans="1:34" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="71" t="s">
+        <v>116</v>
+      </c>
+      <c r="B123" s="72"/>
+      <c r="C123" s="67"/>
+      <c r="D123" s="67"/>
+      <c r="E123" s="67"/>
+      <c r="F123" s="67"/>
+    </row>
+    <row r="124" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="75"/>
+      <c r="B124" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="C123" s="7" t="s">
+      <c r="C124" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D123" s="7" t="s">
+      <c r="D124" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E123" s="7" t="s">
+      <c r="E124" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F123" s="7" t="s">
+      <c r="F124" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="8" t="s">
+    <row r="125" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="73" t="s">
         <v>72</v>
       </c>
-      <c r="B124" s="17" t="s">
+      <c r="B125" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="C124" s="10"/>
-      <c r="D124" s="10"/>
-      <c r="E124" s="15">
-        <f t="shared" ref="E124:E125" si="37">D124-C124</f>
-        <v>0</v>
-      </c>
-      <c r="F124" s="16" t="e">
-        <f t="shared" ref="F124:F125" si="38">(E124/C124)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="125" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="18"/>
-      <c r="B125" s="50" t="s">
-        <v>118</v>
-      </c>
-      <c r="C125" s="14"/>
-      <c r="D125" s="14"/>
+      <c r="C125" s="10"/>
+      <c r="D125" s="10"/>
       <c r="E125" s="15">
-        <f t="shared" si="37"/>
+        <f t="shared" ref="E125:E126" si="33">D125-C125</f>
         <v>0</v>
       </c>
       <c r="F125" s="16" t="e">
-        <f t="shared" si="38"/>
+        <f t="shared" ref="F125:F126" si="34">(E125/C125)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="126" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="37"/>
-      <c r="B126" s="50" t="s">
-        <v>119</v>
+      <c r="A126" s="17"/>
+      <c r="B126" s="46" t="s">
+        <v>108</v>
       </c>
       <c r="C126" s="14"/>
       <c r="D126" s="14"/>
       <c r="E126" s="15">
-        <f t="shared" ref="E126:E131" si="39">D126-C126</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="F126" s="16" t="e">
-        <f t="shared" ref="F126:F131" si="40">(E126/C126)</f>
+        <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="127" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="37"/>
-      <c r="B127" s="50" t="s">
-        <v>120</v>
+      <c r="A127" s="34"/>
+      <c r="B127" s="46" t="s">
+        <v>109</v>
       </c>
       <c r="C127" s="14"/>
       <c r="D127" s="14"/>
       <c r="E127" s="15">
-        <f t="shared" si="39"/>
+        <f t="shared" ref="E127:E133" si="35">D127-C127</f>
         <v>0</v>
       </c>
       <c r="F127" s="16" t="e">
-        <f t="shared" si="40"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="128" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="37"/>
-      <c r="B128" s="50" t="s">
-        <v>121</v>
+        <f t="shared" ref="F127:F133" si="36">(E127/C127)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="128" spans="1:34" s="37" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="34"/>
+      <c r="B128" s="46" t="s">
+        <v>110</v>
       </c>
       <c r="C128" s="14"/>
       <c r="D128" s="14"/>
       <c r="E128" s="15">
-        <f t="shared" si="39"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="F128" s="16" t="e">
-        <f t="shared" si="40"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="129" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="37"/>
-      <c r="B129" s="50" t="s">
-        <v>122</v>
+        <f t="shared" si="36"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="129" spans="1:34" s="3" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="34"/>
+      <c r="B129" s="46" t="s">
+        <v>111</v>
       </c>
       <c r="C129" s="14"/>
       <c r="D129" s="14"/>
       <c r="E129" s="15">
-        <f t="shared" si="39"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="F129" s="16" t="e">
-        <f t="shared" si="40"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="130" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="37"/>
-      <c r="B130" s="50" t="s">
-        <v>123</v>
+        <f t="shared" si="36"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G129" s="2"/>
+      <c r="H129" s="2"/>
+      <c r="I129" s="2"/>
+      <c r="J129" s="2"/>
+      <c r="K129" s="2"/>
+      <c r="L129" s="2"/>
+      <c r="M129" s="2"/>
+      <c r="N129" s="2"/>
+      <c r="O129" s="2"/>
+      <c r="P129" s="2"/>
+      <c r="Q129" s="2"/>
+      <c r="R129" s="2"/>
+      <c r="S129" s="2"/>
+      <c r="T129" s="2"/>
+      <c r="U129" s="2"/>
+      <c r="V129" s="2"/>
+      <c r="W129" s="2"/>
+      <c r="X129" s="2"/>
+      <c r="Y129" s="2"/>
+      <c r="Z129" s="2"/>
+      <c r="AA129" s="2"/>
+      <c r="AB129" s="2"/>
+      <c r="AC129" s="2"/>
+      <c r="AD129" s="2"/>
+      <c r="AE129" s="2"/>
+      <c r="AF129" s="2"/>
+      <c r="AG129" s="2"/>
+      <c r="AH129" s="2"/>
+    </row>
+    <row r="130" spans="1:34" s="3" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="34"/>
+      <c r="B130" s="46" t="s">
+        <v>112</v>
       </c>
       <c r="C130" s="14"/>
       <c r="D130" s="14"/>
       <c r="E130" s="15">
-        <f t="shared" si="39"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="F130" s="16" t="e">
-        <f t="shared" si="40"/>
-        <v>#DIV/0!</v>
-      </c>
+        <f t="shared" si="36"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G130" s="2"/>
+      <c r="H130" s="2"/>
+      <c r="I130" s="2"/>
+      <c r="J130" s="2"/>
+      <c r="K130" s="2"/>
+      <c r="L130" s="2"/>
+      <c r="M130" s="2"/>
+      <c r="N130" s="2"/>
+      <c r="O130" s="2"/>
+      <c r="P130" s="2"/>
+      <c r="Q130" s="2"/>
+      <c r="R130" s="2"/>
+      <c r="S130" s="2"/>
+      <c r="T130" s="2"/>
+      <c r="U130" s="2"/>
+      <c r="V130" s="2"/>
+      <c r="W130" s="2"/>
+      <c r="X130" s="2"/>
+      <c r="Y130" s="2"/>
+      <c r="Z130" s="2"/>
+      <c r="AA130" s="2"/>
+      <c r="AB130" s="2"/>
+      <c r="AC130" s="2"/>
+      <c r="AD130" s="2"/>
+      <c r="AE130" s="2"/>
+      <c r="AF130" s="2"/>
+      <c r="AG130" s="2"/>
+      <c r="AH130" s="2"/>
     </row>
     <row r="131" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="37"/>
-      <c r="B131" s="50" t="s">
-        <v>124</v>
+      <c r="A131" s="34"/>
+      <c r="B131" s="46" t="s">
+        <v>113</v>
       </c>
       <c r="C131" s="14"/>
       <c r="D131" s="14"/>
       <c r="E131" s="15">
-        <f t="shared" si="39"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="F131" s="16" t="e">
-        <f t="shared" si="40"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="132" spans="1:34" s="25" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="40" t="s">
+        <f t="shared" si="36"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="132" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="34"/>
+      <c r="B132" s="46" t="s">
+        <v>114</v>
+      </c>
+      <c r="C132" s="14"/>
+      <c r="D132" s="14"/>
+      <c r="E132" s="15">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="F132" s="16" t="e">
+        <f t="shared" si="36"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="133" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="34"/>
+      <c r="B133" s="46" t="s">
+        <v>115</v>
+      </c>
+      <c r="C133" s="14"/>
+      <c r="D133" s="14"/>
+      <c r="E133" s="15">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="F133" s="16" t="e">
+        <f t="shared" si="36"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="134" spans="1:34" ht="27.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="36" t="s">
         <v>162</v>
       </c>
-      <c r="B132" s="58"/>
-    </row>
-    <row r="133" spans="1:34" s="3" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="68" t="s">
-        <v>0</v>
-      </c>
-      <c r="B133" s="68"/>
-      <c r="C133" s="68"/>
-      <c r="D133" s="68"/>
-      <c r="E133" s="68"/>
-      <c r="F133" s="68"/>
-      <c r="G133" s="2"/>
-      <c r="H133" s="2"/>
-      <c r="I133" s="2"/>
-      <c r="J133" s="2"/>
-      <c r="K133" s="2"/>
-      <c r="L133" s="2"/>
-      <c r="M133" s="2"/>
-      <c r="N133" s="2"/>
-      <c r="O133" s="2"/>
-      <c r="P133" s="2"/>
-      <c r="Q133" s="2"/>
-      <c r="R133" s="2"/>
-      <c r="S133" s="2"/>
-      <c r="T133" s="2"/>
-      <c r="U133" s="2"/>
-      <c r="V133" s="2"/>
-      <c r="W133" s="2"/>
-      <c r="X133" s="2"/>
-      <c r="Y133" s="2"/>
-      <c r="Z133" s="2"/>
-      <c r="AA133" s="2"/>
-      <c r="AB133" s="2"/>
-      <c r="AC133" s="2"/>
-      <c r="AD133" s="2"/>
-      <c r="AE133" s="2"/>
-      <c r="AF133" s="2"/>
-      <c r="AG133" s="2"/>
-      <c r="AH133" s="2"/>
-    </row>
-    <row r="134" spans="1:34" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="70" t="s">
-        <v>86</v>
-      </c>
-      <c r="B134" s="70"/>
-      <c r="C134" s="70"/>
-      <c r="D134" s="70"/>
-      <c r="E134" s="70"/>
-      <c r="F134" s="70"/>
-    </row>
-    <row r="135" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="26"/>
-      <c r="B135" s="46" t="s">
+      <c r="B134" s="55"/>
+      <c r="C134" s="37"/>
+      <c r="D134" s="37"/>
+      <c r="E134" s="37"/>
+      <c r="F134" s="37"/>
+    </row>
+    <row r="135" spans="1:34" ht="147" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="85" t="s">
+        <v>169</v>
+      </c>
+      <c r="B135" s="86"/>
+      <c r="C135" s="86"/>
+      <c r="D135" s="86"/>
+      <c r="E135" s="86"/>
+      <c r="F135" s="87"/>
+    </row>
+    <row r="136" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="36"/>
+      <c r="B136" s="55"/>
+      <c r="C136" s="37"/>
+      <c r="D136" s="37"/>
+      <c r="E136" s="37"/>
+      <c r="F136" s="37"/>
+    </row>
+    <row r="137" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B137" s="63"/>
+      <c r="C137" s="63"/>
+      <c r="D137" s="63"/>
+      <c r="E137" s="63"/>
+      <c r="F137" s="63"/>
+    </row>
+    <row r="138" spans="1:34" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="71" t="s">
+        <v>117</v>
+      </c>
+      <c r="B138" s="72"/>
+      <c r="C138" s="67"/>
+      <c r="D138" s="67"/>
+      <c r="E138" s="67"/>
+      <c r="F138" s="67"/>
+    </row>
+    <row r="139" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="75"/>
+      <c r="B139" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="C135" s="7" t="s">
+      <c r="C139" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D135" s="7" t="s">
+      <c r="D139" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E135" s="7" t="s">
+      <c r="E139" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F135" s="7" t="s">
+      <c r="F139" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="8" t="s">
+    <row r="140" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="73" t="s">
         <v>72</v>
       </c>
-      <c r="B136" s="17" t="s">
+      <c r="B140" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="C136" s="10"/>
-      <c r="D136" s="10"/>
-      <c r="E136" s="15">
-        <f t="shared" ref="E136" si="41">D136-C136</f>
-        <v>0</v>
-      </c>
-      <c r="F136" s="16" t="e">
-        <f t="shared" ref="F136" si="42">(E136/C136)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="137" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="14"/>
-      <c r="B137" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="C137" s="14"/>
-      <c r="D137" s="14"/>
-      <c r="E137" s="11">
-        <f>D137-C137</f>
-        <v>0</v>
-      </c>
-      <c r="F137" s="12" t="e">
-        <f>(E137/C137)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="138" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="37"/>
-      <c r="B138" s="50" t="s">
-        <v>54</v>
-      </c>
-      <c r="C138" s="14"/>
-      <c r="D138" s="14"/>
-      <c r="E138" s="11">
-        <f t="shared" ref="E138:E158" si="43">D138-C138</f>
-        <v>0</v>
-      </c>
-      <c r="F138" s="12" t="e">
-        <f t="shared" ref="F138:F158" si="44">(E138/C138)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="139" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="37"/>
-      <c r="B139" s="50" t="s">
-        <v>55</v>
-      </c>
-      <c r="C139" s="14"/>
-      <c r="D139" s="14"/>
-      <c r="E139" s="11">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="F139" s="12" t="e">
-        <f t="shared" si="44"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="140" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="37"/>
-      <c r="B140" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="C140" s="14"/>
-      <c r="D140" s="14"/>
-      <c r="E140" s="11">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="F140" s="12" t="e">
-        <f t="shared" si="44"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="141" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="37"/>
-      <c r="B141" s="50" t="s">
-        <v>57</v>
+      <c r="C140" s="10"/>
+      <c r="D140" s="10"/>
+      <c r="E140" s="15">
+        <f t="shared" ref="E140:E141" si="37">D140-C140</f>
+        <v>0</v>
+      </c>
+      <c r="F140" s="16" t="e">
+        <f t="shared" ref="F140:F141" si="38">(E140/C140)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="141" spans="1:34" s="24" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="17"/>
+      <c r="B141" s="46" t="s">
+        <v>118</v>
       </c>
       <c r="C141" s="14"/>
       <c r="D141" s="14"/>
-      <c r="E141" s="11">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="F141" s="12" t="e">
-        <f t="shared" si="44"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="142" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="37"/>
-      <c r="B142" s="50" t="s">
-        <v>58</v>
+      <c r="E141" s="15">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="F141" s="16" t="e">
+        <f t="shared" si="38"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="142" spans="1:34" s="3" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="34"/>
+      <c r="B142" s="46" t="s">
+        <v>119</v>
       </c>
       <c r="C142" s="14"/>
       <c r="D142" s="14"/>
-      <c r="E142" s="11">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="F142" s="12" t="e">
-        <f t="shared" si="44"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="143" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="37"/>
-      <c r="B143" s="50" t="s">
-        <v>59</v>
+      <c r="E142" s="15">
+        <f t="shared" ref="E142:E147" si="39">D142-C142</f>
+        <v>0</v>
+      </c>
+      <c r="F142" s="16" t="e">
+        <f t="shared" ref="F142:F147" si="40">(E142/C142)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G142" s="2"/>
+      <c r="H142" s="2"/>
+      <c r="I142" s="2"/>
+      <c r="J142" s="2"/>
+      <c r="K142" s="2"/>
+      <c r="L142" s="2"/>
+      <c r="M142" s="2"/>
+      <c r="N142" s="2"/>
+      <c r="O142" s="2"/>
+      <c r="P142" s="2"/>
+      <c r="Q142" s="2"/>
+      <c r="R142" s="2"/>
+      <c r="S142" s="2"/>
+      <c r="T142" s="2"/>
+      <c r="U142" s="2"/>
+      <c r="V142" s="2"/>
+      <c r="W142" s="2"/>
+      <c r="X142" s="2"/>
+      <c r="Y142" s="2"/>
+      <c r="Z142" s="2"/>
+      <c r="AA142" s="2"/>
+      <c r="AB142" s="2"/>
+      <c r="AC142" s="2"/>
+      <c r="AD142" s="2"/>
+      <c r="AE142" s="2"/>
+      <c r="AF142" s="2"/>
+      <c r="AG142" s="2"/>
+      <c r="AH142" s="2"/>
+    </row>
+    <row r="143" spans="1:34" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="34"/>
+      <c r="B143" s="46" t="s">
+        <v>120</v>
       </c>
       <c r="C143" s="14"/>
       <c r="D143" s="14"/>
-      <c r="E143" s="11">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="F143" s="12" t="e">
-        <f t="shared" si="44"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="144" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="37"/>
-      <c r="B144" s="50" t="s">
-        <v>60</v>
+      <c r="E143" s="15">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="F143" s="16" t="e">
+        <f t="shared" si="40"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="144" spans="1:34" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="34"/>
+      <c r="B144" s="46" t="s">
+        <v>121</v>
       </c>
       <c r="C144" s="14"/>
       <c r="D144" s="14"/>
-      <c r="E144" s="11">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="F144" s="12" t="e">
-        <f t="shared" si="44"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="37"/>
-      <c r="B145" s="50" t="s">
-        <v>61</v>
+      <c r="E144" s="15">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="F144" s="16" t="e">
+        <f t="shared" si="40"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="34"/>
+      <c r="B145" s="46" t="s">
+        <v>122</v>
       </c>
       <c r="C145" s="14"/>
       <c r="D145" s="14"/>
-      <c r="E145" s="11">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="F145" s="12" t="e">
-        <f t="shared" si="44"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="37"/>
-      <c r="B146" s="50" t="s">
-        <v>62</v>
+      <c r="E145" s="15">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="F145" s="16" t="e">
+        <f t="shared" si="40"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="34"/>
+      <c r="B146" s="46" t="s">
+        <v>123</v>
       </c>
       <c r="C146" s="14"/>
       <c r="D146" s="14"/>
-      <c r="E146" s="11">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="F146" s="12" t="e">
-        <f t="shared" si="44"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="37"/>
-      <c r="B147" s="50" t="s">
-        <v>63</v>
+      <c r="E146" s="15">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="F146" s="16" t="e">
+        <f t="shared" si="40"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="34"/>
+      <c r="B147" s="46" t="s">
+        <v>124</v>
       </c>
       <c r="C147" s="14"/>
       <c r="D147" s="14"/>
-      <c r="E147" s="11">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="F147" s="12" t="e">
-        <f t="shared" si="44"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="37"/>
-      <c r="B148" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="C148" s="14"/>
-      <c r="D148" s="14"/>
-      <c r="E148" s="11">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="F148" s="12" t="e">
-        <f t="shared" si="44"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="37"/>
-      <c r="B149" s="50" t="s">
-        <v>65</v>
-      </c>
-      <c r="C149" s="14"/>
-      <c r="D149" s="14"/>
-      <c r="E149" s="11">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="F149" s="12" t="e">
-        <f t="shared" si="44"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="37"/>
-      <c r="B150" s="50" t="s">
-        <v>66</v>
-      </c>
-      <c r="C150" s="14"/>
-      <c r="D150" s="14"/>
-      <c r="E150" s="11">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="F150" s="12" t="e">
-        <f t="shared" si="44"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="E147" s="15">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="F147" s="16" t="e">
+        <f t="shared" si="40"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="27.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="36" t="s">
+        <v>162</v>
+      </c>
+      <c r="B148" s="54"/>
+      <c r="C148" s="24"/>
+      <c r="D148" s="24"/>
+      <c r="E148" s="24"/>
+      <c r="F148" s="24"/>
+    </row>
+    <row r="149" spans="1:6" ht="143.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="85" t="s">
+        <v>170</v>
+      </c>
+      <c r="B149" s="86"/>
+      <c r="C149" s="86"/>
+      <c r="D149" s="86"/>
+      <c r="E149" s="86"/>
+      <c r="F149" s="87"/>
+    </row>
+    <row r="150" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="36"/>
+      <c r="B150" s="54"/>
+      <c r="C150" s="24"/>
+      <c r="D150" s="24"/>
+      <c r="E150" s="24"/>
+      <c r="F150" s="24"/>
     </row>
     <row r="151" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="37"/>
-      <c r="B151" s="50" t="s">
-        <v>67</v>
-      </c>
-      <c r="C151" s="14"/>
-      <c r="D151" s="14"/>
-      <c r="E151" s="11">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="F151" s="12" t="e">
-        <f t="shared" si="44"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="37"/>
-      <c r="B152" s="50" t="s">
-        <v>68</v>
-      </c>
-      <c r="C152" s="14"/>
-      <c r="D152" s="14"/>
-      <c r="E152" s="11">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="F152" s="12" t="e">
-        <f t="shared" si="44"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="A151" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B151" s="63"/>
+      <c r="C151" s="63"/>
+      <c r="D151" s="63"/>
+      <c r="E151" s="63"/>
+      <c r="F151" s="63"/>
+    </row>
+    <row r="152" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="72" t="s">
+        <v>86</v>
+      </c>
+      <c r="B152" s="72"/>
+      <c r="C152" s="67"/>
+      <c r="D152" s="67"/>
+      <c r="E152" s="67"/>
+      <c r="F152" s="67"/>
     </row>
     <row r="153" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="37"/>
-      <c r="B153" s="50" t="s">
-        <v>69</v>
-      </c>
-      <c r="C153" s="14"/>
-      <c r="D153" s="14"/>
-      <c r="E153" s="11">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="F153" s="12" t="e">
-        <f t="shared" si="44"/>
-        <v>#DIV/0!</v>
+      <c r="A153" s="75"/>
+      <c r="B153" s="76" t="s">
+        <v>5</v>
+      </c>
+      <c r="C153" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D153" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E153" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F153" s="7" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="37"/>
-      <c r="B154" s="50" t="s">
-        <v>7</v>
-      </c>
-      <c r="C154" s="14"/>
-      <c r="D154" s="14"/>
-      <c r="E154" s="11">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="F154" s="12" t="e">
-        <f t="shared" si="44"/>
+      <c r="A154" s="73" t="s">
+        <v>72</v>
+      </c>
+      <c r="B154" s="74" t="s">
+        <v>3</v>
+      </c>
+      <c r="C154" s="10"/>
+      <c r="D154" s="10"/>
+      <c r="E154" s="15">
+        <f t="shared" ref="E154" si="41">D154-C154</f>
+        <v>0</v>
+      </c>
+      <c r="F154" s="16" t="e">
+        <f t="shared" ref="F154" si="42">(E154/C154)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="155" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="37"/>
-      <c r="B155" s="50" t="s">
-        <v>70</v>
+      <c r="A155" s="14"/>
+      <c r="B155" s="46" t="s">
+        <v>53</v>
       </c>
       <c r="C155" s="14"/>
       <c r="D155" s="14"/>
       <c r="E155" s="11">
-        <f t="shared" si="43"/>
+        <f>D155-C155</f>
         <v>0</v>
       </c>
       <c r="F155" s="12" t="e">
-        <f t="shared" si="44"/>
+        <f>(E155/C155)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="156" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="37"/>
-      <c r="B156" s="50" t="s">
-        <v>8</v>
+      <c r="A156" s="34"/>
+      <c r="B156" s="46" t="s">
+        <v>54</v>
       </c>
       <c r="C156" s="14"/>
       <c r="D156" s="14"/>
       <c r="E156" s="11">
-        <f t="shared" si="43"/>
+        <f t="shared" ref="E156:E176" si="43">D156-C156</f>
         <v>0</v>
       </c>
       <c r="F156" s="12" t="e">
-        <f t="shared" si="44"/>
+        <f t="shared" ref="F156:F176" si="44">(E156/C156)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="157" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="37"/>
-      <c r="B157" s="50" t="s">
-        <v>71</v>
+      <c r="A157" s="34"/>
+      <c r="B157" s="46" t="s">
+        <v>55</v>
       </c>
       <c r="C157" s="14"/>
       <c r="D157" s="14"/>
@@ -4568,9 +4698,9 @@
       </c>
     </row>
     <row r="158" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="37"/>
-      <c r="B158" s="50" t="s">
-        <v>9</v>
+      <c r="A158" s="34"/>
+      <c r="B158" s="46" t="s">
+        <v>56</v>
       </c>
       <c r="C158" s="14"/>
       <c r="D158" s="14"/>
@@ -4583,1000 +4713,994 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="159" spans="1:6" s="25" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="40" t="s">
-        <v>162</v>
-      </c>
-      <c r="B159" s="57"/>
-      <c r="C159" s="22"/>
-      <c r="D159" s="22"/>
-      <c r="E159" s="23"/>
-      <c r="F159" s="24"/>
+    <row r="159" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="34"/>
+      <c r="B159" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="C159" s="14"/>
+      <c r="D159" s="14"/>
+      <c r="E159" s="11">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="F159" s="12" t="e">
+        <f t="shared" si="44"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="160" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="68" t="s">
-        <v>0</v>
-      </c>
-      <c r="B160" s="68"/>
-      <c r="C160" s="68"/>
-      <c r="D160" s="68"/>
-      <c r="E160" s="68"/>
-      <c r="F160" s="68"/>
-    </row>
-    <row r="161" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="69" t="s">
-        <v>140</v>
-      </c>
-      <c r="B161" s="70"/>
-      <c r="C161" s="70"/>
-      <c r="D161" s="70"/>
-      <c r="E161" s="70"/>
-      <c r="F161" s="70"/>
+      <c r="A160" s="34"/>
+      <c r="B160" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="C160" s="14"/>
+      <c r="D160" s="14"/>
+      <c r="E160" s="11">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="F160" s="12" t="e">
+        <f t="shared" si="44"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="34"/>
+      <c r="B161" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="C161" s="14"/>
+      <c r="D161" s="14"/>
+      <c r="E161" s="11">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="F161" s="12" t="e">
+        <f t="shared" si="44"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="162" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="26"/>
+      <c r="A162" s="34"/>
       <c r="B162" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="C162" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D162" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E162" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F162" s="7" t="s">
-        <v>2</v>
+        <v>60</v>
+      </c>
+      <c r="C162" s="14"/>
+      <c r="D162" s="14"/>
+      <c r="E162" s="11">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="F162" s="12" t="e">
+        <f t="shared" si="44"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="163" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B163" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C163" s="10"/>
-      <c r="D163" s="10"/>
-      <c r="E163" s="15">
-        <f t="shared" ref="E163" si="45">D163-C163</f>
-        <v>0</v>
-      </c>
-      <c r="F163" s="16" t="e">
-        <f t="shared" ref="F163" si="46">(E163/C163)</f>
+      <c r="A163" s="34"/>
+      <c r="B163" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="C163" s="14"/>
+      <c r="D163" s="14"/>
+      <c r="E163" s="11">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="F163" s="12" t="e">
+        <f t="shared" si="44"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="164" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="37"/>
-      <c r="B164" s="50" t="s">
-        <v>125</v>
+      <c r="A164" s="34"/>
+      <c r="B164" s="46" t="s">
+        <v>62</v>
       </c>
       <c r="C164" s="14"/>
       <c r="D164" s="14"/>
-      <c r="E164" s="15">
-        <f t="shared" ref="E164" si="47">D164-C164</f>
-        <v>0</v>
-      </c>
-      <c r="F164" s="16" t="e">
-        <f t="shared" ref="F164" si="48">(E164/C164)</f>
+      <c r="E164" s="11">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="F164" s="12" t="e">
+        <f t="shared" si="44"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="165" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="37"/>
-      <c r="B165" s="50" t="s">
-        <v>126</v>
+      <c r="A165" s="34"/>
+      <c r="B165" s="46" t="s">
+        <v>63</v>
       </c>
       <c r="C165" s="14"/>
       <c r="D165" s="14"/>
-      <c r="E165" s="15">
-        <f t="shared" ref="E165:E184" si="49">D165-C165</f>
-        <v>0</v>
-      </c>
-      <c r="F165" s="16" t="e">
-        <f t="shared" ref="F165:F184" si="50">(E165/C165)</f>
+      <c r="E165" s="11">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="F165" s="12" t="e">
+        <f t="shared" si="44"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="166" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="37"/>
-      <c r="B166" s="50" t="s">
-        <v>127</v>
+      <c r="A166" s="34"/>
+      <c r="B166" s="46" t="s">
+        <v>64</v>
       </c>
       <c r="C166" s="14"/>
       <c r="D166" s="14"/>
-      <c r="E166" s="15">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="F166" s="16" t="e">
-        <f t="shared" si="50"/>
+      <c r="E166" s="11">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="F166" s="12" t="e">
+        <f t="shared" si="44"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="167" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="37"/>
-      <c r="B167" s="50" t="s">
-        <v>118</v>
+      <c r="A167" s="34"/>
+      <c r="B167" s="46" t="s">
+        <v>65</v>
       </c>
       <c r="C167" s="14"/>
       <c r="D167" s="14"/>
-      <c r="E167" s="15">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="F167" s="16" t="e">
-        <f t="shared" si="50"/>
+      <c r="E167" s="11">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="F167" s="12" t="e">
+        <f t="shared" si="44"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="168" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="37"/>
-      <c r="B168" s="50" t="s">
-        <v>128</v>
+      <c r="A168" s="34"/>
+      <c r="B168" s="46" t="s">
+        <v>66</v>
       </c>
       <c r="C168" s="14"/>
       <c r="D168" s="14"/>
-      <c r="E168" s="15">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="F168" s="16" t="e">
-        <f t="shared" si="50"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="37"/>
-      <c r="B169" s="50" t="s">
-        <v>129</v>
+      <c r="E168" s="11">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="F168" s="12" t="e">
+        <f t="shared" si="44"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" s="24" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="34"/>
+      <c r="B169" s="46" t="s">
+        <v>67</v>
       </c>
       <c r="C169" s="14"/>
       <c r="D169" s="14"/>
-      <c r="E169" s="15">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="F169" s="16" t="e">
-        <f t="shared" si="50"/>
+      <c r="E169" s="11">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="F169" s="12" t="e">
+        <f t="shared" si="44"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="170" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="37"/>
-      <c r="B170" s="50" t="s">
-        <v>130</v>
+      <c r="A170" s="34"/>
+      <c r="B170" s="46" t="s">
+        <v>68</v>
       </c>
       <c r="C170" s="14"/>
       <c r="D170" s="14"/>
-      <c r="E170" s="15">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="F170" s="16" t="e">
-        <f t="shared" si="50"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="37"/>
-      <c r="B171" s="50" t="s">
-        <v>131</v>
+      <c r="E170" s="11">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="F170" s="12" t="e">
+        <f t="shared" si="44"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="34"/>
+      <c r="B171" s="46" t="s">
+        <v>69</v>
       </c>
       <c r="C171" s="14"/>
       <c r="D171" s="14"/>
-      <c r="E171" s="15">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="F171" s="16" t="e">
-        <f t="shared" si="50"/>
+      <c r="E171" s="11">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="F171" s="12" t="e">
+        <f t="shared" si="44"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="172" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="37"/>
-      <c r="B172" s="50" t="s">
-        <v>132</v>
+      <c r="A172" s="34"/>
+      <c r="B172" s="46" t="s">
+        <v>7</v>
       </c>
       <c r="C172" s="14"/>
       <c r="D172" s="14"/>
-      <c r="E172" s="15">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="F172" s="16" t="e">
-        <f t="shared" si="50"/>
+      <c r="E172" s="11">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="F172" s="12" t="e">
+        <f t="shared" si="44"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="173" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="37"/>
-      <c r="B173" s="50" t="s">
-        <v>133</v>
+      <c r="A173" s="34"/>
+      <c r="B173" s="46" t="s">
+        <v>70</v>
       </c>
       <c r="C173" s="14"/>
       <c r="D173" s="14"/>
-      <c r="E173" s="15">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="F173" s="16" t="e">
-        <f t="shared" si="50"/>
+      <c r="E173" s="11">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="F173" s="12" t="e">
+        <f t="shared" si="44"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="174" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="37"/>
-      <c r="B174" s="50" t="s">
-        <v>134</v>
+      <c r="A174" s="34"/>
+      <c r="B174" s="46" t="s">
+        <v>8</v>
       </c>
       <c r="C174" s="14"/>
       <c r="D174" s="14"/>
-      <c r="E174" s="15">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="F174" s="16" t="e">
-        <f t="shared" si="50"/>
+      <c r="E174" s="11">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="F174" s="12" t="e">
+        <f t="shared" si="44"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="175" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="37"/>
-      <c r="B175" s="50" t="s">
-        <v>119</v>
+      <c r="A175" s="34"/>
+      <c r="B175" s="46" t="s">
+        <v>71</v>
       </c>
       <c r="C175" s="14"/>
       <c r="D175" s="14"/>
-      <c r="E175" s="15">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="F175" s="16" t="e">
-        <f t="shared" si="50"/>
+      <c r="E175" s="11">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="F175" s="12" t="e">
+        <f t="shared" si="44"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="176" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="37"/>
-      <c r="B176" s="50" t="s">
-        <v>120</v>
+      <c r="A176" s="34"/>
+      <c r="B176" s="46" t="s">
+        <v>9</v>
       </c>
       <c r="C176" s="14"/>
       <c r="D176" s="14"/>
-      <c r="E176" s="15">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="F176" s="16" t="e">
-        <f t="shared" si="50"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="37"/>
-      <c r="B177" s="50" t="s">
-        <v>121</v>
-      </c>
-      <c r="C177" s="14"/>
-      <c r="D177" s="14"/>
-      <c r="E177" s="15">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="F177" s="16" t="e">
-        <f t="shared" si="50"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="37"/>
-      <c r="B178" s="50" t="s">
-        <v>122</v>
-      </c>
-      <c r="C178" s="14"/>
-      <c r="D178" s="14"/>
-      <c r="E178" s="15">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="F178" s="16" t="e">
-        <f t="shared" si="50"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="E176" s="11">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="F176" s="12" t="e">
+        <f t="shared" si="44"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" ht="27.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="36" t="s">
+        <v>162</v>
+      </c>
+      <c r="B177" s="53"/>
+      <c r="C177" s="21"/>
+      <c r="D177" s="21"/>
+      <c r="E177" s="22"/>
+      <c r="F177" s="23"/>
+    </row>
+    <row r="178" spans="1:6" ht="141" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="B178" s="84"/>
+      <c r="C178" s="84"/>
+      <c r="D178" s="84"/>
+      <c r="E178" s="84"/>
+      <c r="F178" s="84"/>
     </row>
     <row r="179" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="37"/>
-      <c r="B179" s="50" t="s">
-        <v>123</v>
-      </c>
-      <c r="C179" s="14"/>
-      <c r="D179" s="14"/>
-      <c r="E179" s="15">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="F179" s="16" t="e">
-        <f t="shared" si="50"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="A179" s="36"/>
+      <c r="B179" s="53"/>
+      <c r="C179" s="21"/>
+      <c r="D179" s="21"/>
+      <c r="E179" s="22"/>
+      <c r="F179" s="23"/>
     </row>
     <row r="180" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="37"/>
-      <c r="B180" s="50" t="s">
-        <v>135</v>
-      </c>
-      <c r="C180" s="14"/>
-      <c r="D180" s="14"/>
-      <c r="E180" s="15">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="F180" s="16" t="e">
-        <f t="shared" si="50"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="37"/>
-      <c r="B181" s="50" t="s">
-        <v>136</v>
-      </c>
-      <c r="C181" s="14"/>
-      <c r="D181" s="14"/>
-      <c r="E181" s="15">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="F181" s="16" t="e">
-        <f t="shared" si="50"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="A180" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B180" s="63"/>
+      <c r="C180" s="63"/>
+      <c r="D180" s="63"/>
+      <c r="E180" s="63"/>
+      <c r="F180" s="63"/>
+    </row>
+    <row r="181" spans="1:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="71" t="s">
+        <v>140</v>
+      </c>
+      <c r="B181" s="72"/>
+      <c r="C181" s="67"/>
+      <c r="D181" s="67"/>
+      <c r="E181" s="67"/>
+      <c r="F181" s="67"/>
     </row>
     <row r="182" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="37"/>
-      <c r="B182" s="50" t="s">
-        <v>137</v>
-      </c>
-      <c r="C182" s="14"/>
-      <c r="D182" s="14"/>
-      <c r="E182" s="15">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="F182" s="16" t="e">
-        <f t="shared" si="50"/>
-        <v>#DIV/0!</v>
+      <c r="A182" s="75"/>
+      <c r="B182" s="76" t="s">
+        <v>5</v>
+      </c>
+      <c r="C182" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D182" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E182" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F182" s="7" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="37"/>
-      <c r="B183" s="50" t="s">
-        <v>138</v>
-      </c>
-      <c r="C183" s="14"/>
-      <c r="D183" s="14"/>
+      <c r="A183" s="73" t="s">
+        <v>72</v>
+      </c>
+      <c r="B183" s="74" t="s">
+        <v>3</v>
+      </c>
+      <c r="C183" s="10"/>
+      <c r="D183" s="10"/>
       <c r="E183" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" ref="E183" si="45">D183-C183</f>
         <v>0</v>
       </c>
       <c r="F183" s="16" t="e">
-        <f t="shared" si="50"/>
+        <f t="shared" ref="F183" si="46">(E183/C183)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="184" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="37"/>
-      <c r="B184" s="50" t="s">
-        <v>139</v>
+      <c r="A184" s="34"/>
+      <c r="B184" s="46" t="s">
+        <v>125</v>
       </c>
       <c r="C184" s="14"/>
       <c r="D184" s="14"/>
       <c r="E184" s="15">
+        <f t="shared" ref="E184" si="47">D184-C184</f>
+        <v>0</v>
+      </c>
+      <c r="F184" s="16" t="e">
+        <f t="shared" ref="F184" si="48">(E184/C184)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="34"/>
+      <c r="B185" s="46" t="s">
+        <v>126</v>
+      </c>
+      <c r="C185" s="14"/>
+      <c r="D185" s="14"/>
+      <c r="E185" s="15">
+        <f t="shared" ref="E185:E204" si="49">D185-C185</f>
+        <v>0</v>
+      </c>
+      <c r="F185" s="16" t="e">
+        <f t="shared" ref="F185:F204" si="50">(E185/C185)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="34"/>
+      <c r="B186" s="46" t="s">
+        <v>127</v>
+      </c>
+      <c r="C186" s="14"/>
+      <c r="D186" s="14"/>
+      <c r="E186" s="15">
         <f t="shared" si="49"/>
         <v>0</v>
       </c>
-      <c r="F184" s="16" t="e">
+      <c r="F186" s="16" t="e">
         <f t="shared" si="50"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="185" spans="1:6" s="25" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A185" s="40" t="s">
-        <v>162</v>
-      </c>
-      <c r="B185" s="58"/>
-    </row>
-    <row r="186" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="68" t="s">
-        <v>0</v>
-      </c>
-      <c r="B186" s="68"/>
-      <c r="C186" s="68"/>
-      <c r="D186" s="68"/>
-      <c r="E186" s="68"/>
-      <c r="F186" s="68"/>
-    </row>
-    <row r="187" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="69" t="s">
-        <v>141</v>
-      </c>
-      <c r="B187" s="70"/>
-      <c r="C187" s="70"/>
-      <c r="D187" s="70"/>
-      <c r="E187" s="70"/>
-      <c r="F187" s="70"/>
+    <row r="187" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="34"/>
+      <c r="B187" s="46" t="s">
+        <v>118</v>
+      </c>
+      <c r="C187" s="14"/>
+      <c r="D187" s="14"/>
+      <c r="E187" s="15">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="F187" s="16" t="e">
+        <f t="shared" si="50"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="188" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="26"/>
+      <c r="A188" s="34"/>
       <c r="B188" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="C188" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D188" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E188" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F188" s="7" t="s">
-        <v>2</v>
+        <v>128</v>
+      </c>
+      <c r="C188" s="14"/>
+      <c r="D188" s="14"/>
+      <c r="E188" s="15">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="F188" s="16" t="e">
+        <f t="shared" si="50"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="189" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B189" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C189" s="10"/>
-      <c r="D189" s="10"/>
+      <c r="A189" s="34"/>
+      <c r="B189" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="C189" s="14"/>
+      <c r="D189" s="14"/>
       <c r="E189" s="15">
-        <f t="shared" ref="E189" si="51">D189-C189</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="F189" s="16" t="e">
-        <f t="shared" ref="F189" si="52">(E189/C189)</f>
+        <f t="shared" si="50"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="190" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="37"/>
-      <c r="B190" s="50" t="s">
-        <v>136</v>
+      <c r="A190" s="34"/>
+      <c r="B190" s="46" t="s">
+        <v>130</v>
       </c>
       <c r="C190" s="14"/>
       <c r="D190" s="14"/>
       <c r="E190" s="15">
-        <f t="shared" ref="E190" si="53">D190-C190</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="F190" s="16" t="e">
-        <f t="shared" ref="F190" si="54">(E190/C190)</f>
+        <f t="shared" si="50"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="191" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="37"/>
-      <c r="B191" s="50" t="s">
-        <v>126</v>
+      <c r="A191" s="34"/>
+      <c r="B191" s="46" t="s">
+        <v>131</v>
       </c>
       <c r="C191" s="14"/>
       <c r="D191" s="14"/>
       <c r="E191" s="15">
-        <f t="shared" ref="E191:E192" si="55">D191-C191</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="F191" s="16" t="e">
-        <f t="shared" ref="F191:F192" si="56">(E191/C191)</f>
+        <f t="shared" si="50"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="192" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="37"/>
-      <c r="B192" s="50" t="s">
-        <v>130</v>
+      <c r="A192" s="34"/>
+      <c r="B192" s="46" t="s">
+        <v>132</v>
       </c>
       <c r="C192" s="14"/>
       <c r="D192" s="14"/>
       <c r="E192" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="F192" s="16" t="e">
-        <f t="shared" si="56"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" s="1" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A193" s="38" t="s">
-        <v>162</v>
-      </c>
-      <c r="B193" s="60"/>
-    </row>
-    <row r="194" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="68" t="s">
-        <v>0</v>
-      </c>
-      <c r="B194" s="68"/>
-      <c r="C194" s="68"/>
-      <c r="D194" s="68"/>
-      <c r="E194" s="68"/>
-      <c r="F194" s="68"/>
-    </row>
-    <row r="195" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="69" t="s">
-        <v>142</v>
-      </c>
-      <c r="B195" s="70"/>
-      <c r="C195" s="70"/>
-      <c r="D195" s="70"/>
-      <c r="E195" s="70"/>
-      <c r="F195" s="70"/>
-    </row>
-    <row r="196" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="26"/>
+        <f t="shared" si="50"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="193" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="34"/>
+      <c r="B193" s="46" t="s">
+        <v>133</v>
+      </c>
+      <c r="C193" s="14"/>
+      <c r="D193" s="14"/>
+      <c r="E193" s="15">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="F193" s="16" t="e">
+        <f t="shared" si="50"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="194" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="34"/>
+      <c r="B194" s="46" t="s">
+        <v>134</v>
+      </c>
+      <c r="C194" s="14"/>
+      <c r="D194" s="14"/>
+      <c r="E194" s="15">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="F194" s="16" t="e">
+        <f t="shared" si="50"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="195" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="34"/>
+      <c r="B195" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="C195" s="14"/>
+      <c r="D195" s="14"/>
+      <c r="E195" s="15">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="F195" s="16" t="e">
+        <f t="shared" si="50"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="196" spans="1:34" s="24" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="34"/>
       <c r="B196" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="C196" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D196" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E196" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F196" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B197" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C197" s="10"/>
-      <c r="D197" s="10"/>
+        <v>120</v>
+      </c>
+      <c r="C196" s="14"/>
+      <c r="D196" s="14"/>
+      <c r="E196" s="15">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="F196" s="16" t="e">
+        <f t="shared" si="50"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="197" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="34"/>
+      <c r="B197" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="C197" s="14"/>
+      <c r="D197" s="14"/>
       <c r="E197" s="15">
-        <f t="shared" ref="E197:E198" si="57">D197-C197</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="F197" s="16" t="e">
-        <f t="shared" ref="F197:F198" si="58">(E197/C197)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="37"/>
-      <c r="B198" s="50" t="s">
-        <v>143</v>
-      </c>
-      <c r="C198" s="14"/>
-      <c r="D198" s="14"/>
+        <f t="shared" si="50"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="198" spans="1:34" s="3" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="91"/>
+      <c r="B198" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="C198" s="33"/>
+      <c r="D198" s="33"/>
       <c r="E198" s="15">
-        <f t="shared" si="57"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="F198" s="16" t="e">
-        <f t="shared" si="58"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="37"/>
-      <c r="B199" s="50" t="s">
-        <v>75</v>
+        <f t="shared" si="50"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G198" s="2"/>
+      <c r="H198" s="2"/>
+      <c r="I198" s="2"/>
+      <c r="J198" s="2"/>
+      <c r="K198" s="2"/>
+      <c r="L198" s="2"/>
+      <c r="M198" s="2"/>
+      <c r="N198" s="2"/>
+      <c r="O198" s="2"/>
+      <c r="P198" s="2"/>
+      <c r="Q198" s="2"/>
+      <c r="R198" s="2"/>
+      <c r="S198" s="2"/>
+      <c r="T198" s="2"/>
+      <c r="U198" s="2"/>
+      <c r="V198" s="2"/>
+      <c r="W198" s="2"/>
+      <c r="X198" s="2"/>
+      <c r="Y198" s="2"/>
+      <c r="Z198" s="2"/>
+      <c r="AA198" s="2"/>
+      <c r="AB198" s="2"/>
+      <c r="AC198" s="2"/>
+      <c r="AD198" s="2"/>
+      <c r="AE198" s="2"/>
+      <c r="AF198" s="2"/>
+      <c r="AG198" s="2"/>
+      <c r="AH198" s="2"/>
+    </row>
+    <row r="199" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="34"/>
+      <c r="B199" s="46" t="s">
+        <v>123</v>
       </c>
       <c r="C199" s="14"/>
       <c r="D199" s="14"/>
       <c r="E199" s="15">
-        <f t="shared" ref="E199:E233" si="59">D199-C199</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="F199" s="16" t="e">
-        <f t="shared" ref="F199:F233" si="60">(E199/C199)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="37"/>
-      <c r="B200" s="50" t="s">
-        <v>81</v>
+        <f t="shared" si="50"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="200" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="34"/>
+      <c r="B200" s="46" t="s">
+        <v>135</v>
       </c>
       <c r="C200" s="14"/>
       <c r="D200" s="14"/>
       <c r="E200" s="15">
-        <f t="shared" si="59"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="F200" s="16" t="e">
-        <f t="shared" si="60"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="37"/>
-      <c r="B201" s="50" t="s">
-        <v>76</v>
+        <f t="shared" si="50"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="201" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A201" s="34"/>
+      <c r="B201" s="46" t="s">
+        <v>136</v>
       </c>
       <c r="C201" s="14"/>
       <c r="D201" s="14"/>
       <c r="E201" s="15">
-        <f t="shared" si="59"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="F201" s="16" t="e">
-        <f t="shared" si="60"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="37"/>
-      <c r="B202" s="50" t="s">
-        <v>144</v>
+        <f t="shared" si="50"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="202" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="34"/>
+      <c r="B202" s="46" t="s">
+        <v>137</v>
       </c>
       <c r="C202" s="14"/>
       <c r="D202" s="14"/>
       <c r="E202" s="15">
-        <f t="shared" si="59"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="F202" s="16" t="e">
-        <f t="shared" si="60"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="37"/>
-      <c r="B203" s="50" t="s">
-        <v>145</v>
+        <f t="shared" si="50"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="203" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="34"/>
+      <c r="B203" s="46" t="s">
+        <v>138</v>
       </c>
       <c r="C203" s="14"/>
       <c r="D203" s="14"/>
       <c r="E203" s="15">
-        <f t="shared" si="59"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="F203" s="16" t="e">
-        <f t="shared" si="60"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="37"/>
-      <c r="B204" s="50" t="s">
-        <v>146</v>
+        <f t="shared" si="50"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="204" spans="1:34" s="1" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="34"/>
+      <c r="B204" s="46" t="s">
+        <v>139</v>
       </c>
       <c r="C204" s="14"/>
       <c r="D204" s="14"/>
       <c r="E204" s="15">
-        <f t="shared" si="59"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="F204" s="16" t="e">
-        <f t="shared" si="60"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="37"/>
-      <c r="B205" s="50" t="s">
-        <v>147</v>
-      </c>
-      <c r="C205" s="14"/>
-      <c r="D205" s="14"/>
-      <c r="E205" s="15">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="F205" s="16" t="e">
-        <f t="shared" si="60"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="37"/>
-      <c r="B206" s="50" t="s">
-        <v>148</v>
-      </c>
-      <c r="C206" s="14"/>
-      <c r="D206" s="14"/>
-      <c r="E206" s="15">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="F206" s="16" t="e">
-        <f t="shared" si="60"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="37"/>
-      <c r="B207" s="51" t="s">
-        <v>10</v>
-      </c>
-      <c r="C207" s="14"/>
-      <c r="D207" s="14"/>
-      <c r="E207" s="15">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="F207" s="16" t="e">
-        <f t="shared" si="60"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="37"/>
-      <c r="B208" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="C208" s="14"/>
-      <c r="D208" s="14"/>
-      <c r="E208" s="15">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="F208" s="16" t="e">
-        <f t="shared" si="60"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="37"/>
-      <c r="B209" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="C209" s="14"/>
-      <c r="D209" s="14"/>
-      <c r="E209" s="15">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="F209" s="16" t="e">
-        <f t="shared" si="60"/>
-        <v>#DIV/0!</v>
-      </c>
+        <f t="shared" si="50"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="205" spans="1:34" ht="27.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A205" s="36" t="s">
+        <v>162</v>
+      </c>
+      <c r="B205" s="54"/>
+      <c r="C205" s="24"/>
+      <c r="D205" s="24"/>
+      <c r="E205" s="24"/>
+      <c r="F205" s="24"/>
+    </row>
+    <row r="206" spans="1:34" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A206" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="B206" s="84"/>
+      <c r="C206" s="84"/>
+      <c r="D206" s="84"/>
+      <c r="E206" s="84"/>
+      <c r="F206" s="84"/>
+    </row>
+    <row r="207" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A207" s="36"/>
+      <c r="B207" s="54"/>
+      <c r="C207" s="24"/>
+      <c r="D207" s="24"/>
+      <c r="E207" s="24"/>
+      <c r="F207" s="24"/>
+    </row>
+    <row r="208" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A208" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B208" s="63"/>
+      <c r="C208" s="63"/>
+      <c r="D208" s="63"/>
+      <c r="E208" s="63"/>
+      <c r="F208" s="63"/>
+    </row>
+    <row r="209" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="71" t="s">
+        <v>141</v>
+      </c>
+      <c r="B209" s="72"/>
+      <c r="C209" s="67"/>
+      <c r="D209" s="67"/>
+      <c r="E209" s="67"/>
+      <c r="F209" s="67"/>
     </row>
     <row r="210" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="37"/>
-      <c r="B210" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="C210" s="14"/>
-      <c r="D210" s="14"/>
-      <c r="E210" s="15">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="F210" s="16" t="e">
-        <f t="shared" si="60"/>
-        <v>#DIV/0!</v>
+      <c r="A210" s="75"/>
+      <c r="B210" s="76" t="s">
+        <v>5</v>
+      </c>
+      <c r="C210" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D210" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E210" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F210" s="7" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="37"/>
-      <c r="B211" s="50" t="s">
-        <v>149</v>
-      </c>
-      <c r="C211" s="14"/>
-      <c r="D211" s="14"/>
+      <c r="A211" s="73" t="s">
+        <v>72</v>
+      </c>
+      <c r="B211" s="74" t="s">
+        <v>3</v>
+      </c>
+      <c r="C211" s="10"/>
+      <c r="D211" s="10"/>
       <c r="E211" s="15">
-        <f t="shared" si="59"/>
+        <f t="shared" ref="E211" si="51">D211-C211</f>
         <v>0</v>
       </c>
       <c r="F211" s="16" t="e">
-        <f t="shared" si="60"/>
+        <f t="shared" ref="F211" si="52">(E211/C211)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="212" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="37"/>
-      <c r="B212" s="50" t="s">
-        <v>28</v>
+      <c r="A212" s="34"/>
+      <c r="B212" s="46" t="s">
+        <v>136</v>
       </c>
       <c r="C212" s="14"/>
       <c r="D212" s="14"/>
       <c r="E212" s="15">
-        <f t="shared" si="59"/>
+        <f t="shared" ref="E212" si="53">D212-C212</f>
         <v>0</v>
       </c>
       <c r="F212" s="16" t="e">
-        <f t="shared" si="60"/>
+        <f t="shared" ref="F212" si="54">(E212/C212)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="213" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="37"/>
-      <c r="B213" s="50" t="s">
-        <v>82</v>
+      <c r="A213" s="34"/>
+      <c r="B213" s="46" t="s">
+        <v>126</v>
       </c>
       <c r="C213" s="14"/>
       <c r="D213" s="14"/>
       <c r="E213" s="15">
-        <f t="shared" si="59"/>
+        <f t="shared" ref="E213:E214" si="55">D213-C213</f>
         <v>0</v>
       </c>
       <c r="F213" s="16" t="e">
-        <f t="shared" si="60"/>
+        <f t="shared" ref="F213:F214" si="56">(E213/C213)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="214" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="37"/>
-      <c r="B214" s="50" t="s">
-        <v>32</v>
+      <c r="A214" s="34"/>
+      <c r="B214" s="46" t="s">
+        <v>130</v>
       </c>
       <c r="C214" s="14"/>
       <c r="D214" s="14"/>
       <c r="E214" s="15">
-        <f t="shared" si="59"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="F214" s="16" t="e">
-        <f t="shared" si="60"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="37"/>
-      <c r="B215" s="50" t="s">
-        <v>35</v>
-      </c>
-      <c r="C215" s="14"/>
-      <c r="D215" s="14"/>
-      <c r="E215" s="15">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="F215" s="16" t="e">
-        <f t="shared" si="60"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A216" s="37"/>
-      <c r="B216" s="50" t="s">
-        <v>150</v>
-      </c>
-      <c r="C216" s="14"/>
-      <c r="D216" s="14"/>
-      <c r="E216" s="15">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="F216" s="16" t="e">
-        <f t="shared" si="60"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A217" s="37"/>
-      <c r="B217" s="50" t="s">
-        <v>151</v>
-      </c>
-      <c r="C217" s="14"/>
-      <c r="D217" s="14"/>
-      <c r="E217" s="15">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="F217" s="16" t="e">
-        <f t="shared" si="60"/>
-        <v>#DIV/0!</v>
-      </c>
+        <f t="shared" si="56"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" ht="27.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A215" s="58" t="s">
+        <v>162</v>
+      </c>
+      <c r="B215" s="56"/>
+      <c r="C215" s="1"/>
+      <c r="D215" s="1"/>
+      <c r="E215" s="1"/>
+      <c r="F215" s="1"/>
+    </row>
+    <row r="216" spans="1:6" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A216" s="83" t="s">
+        <v>172</v>
+      </c>
+      <c r="B216" s="84"/>
+      <c r="C216" s="84"/>
+      <c r="D216" s="84"/>
+      <c r="E216" s="84"/>
+      <c r="F216" s="84"/>
+    </row>
+    <row r="217" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A217" s="58"/>
+      <c r="B217" s="56"/>
+      <c r="C217" s="1"/>
+      <c r="D217" s="1"/>
+      <c r="E217" s="1"/>
+      <c r="F217" s="1"/>
     </row>
     <row r="218" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A218" s="37"/>
-      <c r="B218" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="C218" s="14"/>
-      <c r="D218" s="14"/>
-      <c r="E218" s="15">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="F218" s="16" t="e">
-        <f t="shared" si="60"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="37"/>
-      <c r="B219" s="50" t="s">
-        <v>152</v>
-      </c>
-      <c r="C219" s="14"/>
-      <c r="D219" s="14"/>
-      <c r="E219" s="15">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="F219" s="16" t="e">
-        <f t="shared" si="60"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="A218" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B218" s="63"/>
+      <c r="C218" s="63"/>
+      <c r="D218" s="63"/>
+      <c r="E218" s="63"/>
+      <c r="F218" s="63"/>
+    </row>
+    <row r="219" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="71" t="s">
+        <v>142</v>
+      </c>
+      <c r="B219" s="72"/>
+      <c r="C219" s="67"/>
+      <c r="D219" s="67"/>
+      <c r="E219" s="67"/>
+      <c r="F219" s="67"/>
     </row>
     <row r="220" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="37"/>
-      <c r="B220" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="C220" s="14"/>
-      <c r="D220" s="14"/>
-      <c r="E220" s="15">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="F220" s="16" t="e">
-        <f t="shared" si="60"/>
-        <v>#DIV/0!</v>
+      <c r="A220" s="75"/>
+      <c r="B220" s="76" t="s">
+        <v>5</v>
+      </c>
+      <c r="C220" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D220" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E220" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F220" s="7" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="37"/>
-      <c r="B221" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="C221" s="14"/>
-      <c r="D221" s="14"/>
+      <c r="A221" s="73" t="s">
+        <v>72</v>
+      </c>
+      <c r="B221" s="74" t="s">
+        <v>3</v>
+      </c>
+      <c r="C221" s="10"/>
+      <c r="D221" s="10"/>
       <c r="E221" s="15">
-        <f t="shared" si="59"/>
+        <f t="shared" ref="E221:E222" si="57">D221-C221</f>
         <v>0</v>
       </c>
       <c r="F221" s="16" t="e">
-        <f t="shared" si="60"/>
+        <f t="shared" ref="F221:F222" si="58">(E221/C221)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="222" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="37"/>
-      <c r="B222" s="50" t="s">
-        <v>50</v>
+      <c r="A222" s="34"/>
+      <c r="B222" s="46" t="s">
+        <v>143</v>
       </c>
       <c r="C222" s="14"/>
       <c r="D222" s="14"/>
       <c r="E222" s="15">
-        <f t="shared" si="59"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="F222" s="16" t="e">
-        <f t="shared" si="60"/>
+        <f t="shared" si="58"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="223" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="37"/>
-      <c r="B223" s="50" t="s">
-        <v>79</v>
+      <c r="A223" s="34"/>
+      <c r="B223" s="46" t="s">
+        <v>75</v>
       </c>
       <c r="C223" s="14"/>
       <c r="D223" s="14"/>
       <c r="E223" s="15">
-        <f t="shared" si="59"/>
+        <f t="shared" ref="E223:E257" si="59">D223-C223</f>
         <v>0</v>
       </c>
       <c r="F223" s="16" t="e">
-        <f t="shared" si="60"/>
+        <f t="shared" ref="F223:F257" si="60">(E223/C223)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="224" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="37"/>
-      <c r="B224" s="50" t="s">
-        <v>153</v>
+      <c r="A224" s="34"/>
+      <c r="B224" s="46" t="s">
+        <v>81</v>
       </c>
       <c r="C224" s="14"/>
       <c r="D224" s="14"/>
@@ -5590,9 +5714,9 @@
       </c>
     </row>
     <row r="225" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A225" s="37"/>
-      <c r="B225" s="50" t="s">
-        <v>102</v>
+      <c r="A225" s="34"/>
+      <c r="B225" s="46" t="s">
+        <v>76</v>
       </c>
       <c r="C225" s="14"/>
       <c r="D225" s="14"/>
@@ -5606,9 +5730,9 @@
       </c>
     </row>
     <row r="226" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A226" s="37"/>
-      <c r="B226" s="50" t="s">
-        <v>95</v>
+      <c r="A226" s="34"/>
+      <c r="B226" s="46" t="s">
+        <v>144</v>
       </c>
       <c r="C226" s="14"/>
       <c r="D226" s="14"/>
@@ -5622,9 +5746,9 @@
       </c>
     </row>
     <row r="227" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A227" s="37"/>
-      <c r="B227" s="50" t="s">
-        <v>106</v>
+      <c r="A227" s="34"/>
+      <c r="B227" s="46" t="s">
+        <v>145</v>
       </c>
       <c r="C227" s="14"/>
       <c r="D227" s="14"/>
@@ -5638,9 +5762,9 @@
       </c>
     </row>
     <row r="228" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A228" s="37"/>
-      <c r="B228" s="50" t="s">
-        <v>154</v>
+      <c r="A228" s="34"/>
+      <c r="B228" s="46" t="s">
+        <v>146</v>
       </c>
       <c r="C228" s="14"/>
       <c r="D228" s="14"/>
@@ -5654,9 +5778,9 @@
       </c>
     </row>
     <row r="229" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A229" s="37"/>
-      <c r="B229" s="50" t="s">
-        <v>155</v>
+      <c r="A229" s="34"/>
+      <c r="B229" s="46" t="s">
+        <v>147</v>
       </c>
       <c r="C229" s="14"/>
       <c r="D229" s="14"/>
@@ -5670,9 +5794,9 @@
       </c>
     </row>
     <row r="230" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A230" s="37"/>
-      <c r="B230" s="50" t="s">
-        <v>156</v>
+      <c r="A230" s="34"/>
+      <c r="B230" s="46" t="s">
+        <v>148</v>
       </c>
       <c r="C230" s="14"/>
       <c r="D230" s="14"/>
@@ -5686,9 +5810,9 @@
       </c>
     </row>
     <row r="231" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A231" s="37"/>
-      <c r="B231" s="50" t="s">
-        <v>157</v>
+      <c r="A231" s="34"/>
+      <c r="B231" s="47" t="s">
+        <v>10</v>
       </c>
       <c r="C231" s="14"/>
       <c r="D231" s="14"/>
@@ -5702,9 +5826,9 @@
       </c>
     </row>
     <row r="232" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A232" s="37"/>
-      <c r="B232" s="50" t="s">
-        <v>158</v>
+      <c r="A232" s="34"/>
+      <c r="B232" s="49" t="s">
+        <v>12</v>
       </c>
       <c r="C232" s="14"/>
       <c r="D232" s="14"/>
@@ -5718,9 +5842,9 @@
       </c>
     </row>
     <row r="233" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A233" s="37"/>
-      <c r="B233" s="50" t="s">
-        <v>159</v>
+      <c r="A233" s="34"/>
+      <c r="B233" s="49" t="s">
+        <v>11</v>
       </c>
       <c r="C233" s="14"/>
       <c r="D233" s="14"/>
@@ -5733,42 +5857,449 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="234" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A234" s="44" t="s">
+    <row r="234" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A234" s="34"/>
+      <c r="B234" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C234" s="14"/>
+      <c r="D234" s="14"/>
+      <c r="E234" s="15">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="F234" s="16" t="e">
+        <f t="shared" si="60"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A235" s="34"/>
+      <c r="B235" s="46" t="s">
+        <v>149</v>
+      </c>
+      <c r="C235" s="14"/>
+      <c r="D235" s="14"/>
+      <c r="E235" s="15">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="F235" s="16" t="e">
+        <f t="shared" si="60"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A236" s="34"/>
+      <c r="B236" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="C236" s="14"/>
+      <c r="D236" s="14"/>
+      <c r="E236" s="15">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="F236" s="16" t="e">
+        <f t="shared" si="60"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A237" s="34"/>
+      <c r="B237" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="C237" s="14"/>
+      <c r="D237" s="14"/>
+      <c r="E237" s="15">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="F237" s="16" t="e">
+        <f t="shared" si="60"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A238" s="34"/>
+      <c r="B238" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="C238" s="14"/>
+      <c r="D238" s="14"/>
+      <c r="E238" s="15">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="F238" s="16" t="e">
+        <f t="shared" si="60"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A239" s="34"/>
+      <c r="B239" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="C239" s="14"/>
+      <c r="D239" s="14"/>
+      <c r="E239" s="15">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="F239" s="16" t="e">
+        <f t="shared" si="60"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A240" s="34"/>
+      <c r="B240" s="46" t="s">
+        <v>150</v>
+      </c>
+      <c r="C240" s="14"/>
+      <c r="D240" s="14"/>
+      <c r="E240" s="15">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="F240" s="16" t="e">
+        <f t="shared" si="60"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A241" s="34"/>
+      <c r="B241" s="46" t="s">
+        <v>151</v>
+      </c>
+      <c r="C241" s="14"/>
+      <c r="D241" s="14"/>
+      <c r="E241" s="15">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="F241" s="16" t="e">
+        <f t="shared" si="60"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A242" s="34"/>
+      <c r="B242" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="C242" s="14"/>
+      <c r="D242" s="14"/>
+      <c r="E242" s="15">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="F242" s="16" t="e">
+        <f t="shared" si="60"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A243" s="34"/>
+      <c r="B243" s="46" t="s">
+        <v>152</v>
+      </c>
+      <c r="C243" s="14"/>
+      <c r="D243" s="14"/>
+      <c r="E243" s="15">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="F243" s="16" t="e">
+        <f t="shared" si="60"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A244" s="34"/>
+      <c r="B244" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C244" s="14"/>
+      <c r="D244" s="14"/>
+      <c r="E244" s="15">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="F244" s="16" t="e">
+        <f t="shared" si="60"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A245" s="34"/>
+      <c r="B245" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="C245" s="14"/>
+      <c r="D245" s="14"/>
+      <c r="E245" s="15">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="F245" s="16" t="e">
+        <f t="shared" si="60"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A246" s="34"/>
+      <c r="B246" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="C246" s="14"/>
+      <c r="D246" s="14"/>
+      <c r="E246" s="15">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="F246" s="16" t="e">
+        <f t="shared" si="60"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A247" s="34"/>
+      <c r="B247" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="C247" s="14"/>
+      <c r="D247" s="14"/>
+      <c r="E247" s="15">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="F247" s="16" t="e">
+        <f t="shared" si="60"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A248" s="34"/>
+      <c r="B248" s="46" t="s">
+        <v>153</v>
+      </c>
+      <c r="C248" s="14"/>
+      <c r="D248" s="14"/>
+      <c r="E248" s="15">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="F248" s="16" t="e">
+        <f t="shared" si="60"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A249" s="34"/>
+      <c r="B249" s="46" t="s">
+        <v>102</v>
+      </c>
+      <c r="C249" s="14"/>
+      <c r="D249" s="14"/>
+      <c r="E249" s="15">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="F249" s="16" t="e">
+        <f t="shared" si="60"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A250" s="34"/>
+      <c r="B250" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="C250" s="14"/>
+      <c r="D250" s="14"/>
+      <c r="E250" s="15">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="F250" s="16" t="e">
+        <f t="shared" si="60"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A251" s="34"/>
+      <c r="B251" s="46" t="s">
+        <v>106</v>
+      </c>
+      <c r="C251" s="14"/>
+      <c r="D251" s="14"/>
+      <c r="E251" s="15">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="F251" s="16" t="e">
+        <f t="shared" si="60"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A252" s="34"/>
+      <c r="B252" s="46" t="s">
+        <v>154</v>
+      </c>
+      <c r="C252" s="14"/>
+      <c r="D252" s="14"/>
+      <c r="E252" s="15">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="F252" s="16" t="e">
+        <f t="shared" si="60"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A253" s="34"/>
+      <c r="B253" s="46" t="s">
+        <v>155</v>
+      </c>
+      <c r="C253" s="14"/>
+      <c r="D253" s="14"/>
+      <c r="E253" s="15">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="F253" s="16" t="e">
+        <f t="shared" si="60"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A254" s="34"/>
+      <c r="B254" s="46" t="s">
+        <v>156</v>
+      </c>
+      <c r="C254" s="14"/>
+      <c r="D254" s="14"/>
+      <c r="E254" s="15">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="F254" s="16" t="e">
+        <f t="shared" si="60"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A255" s="34"/>
+      <c r="B255" s="46" t="s">
+        <v>157</v>
+      </c>
+      <c r="C255" s="14"/>
+      <c r="D255" s="14"/>
+      <c r="E255" s="15">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="F255" s="16" t="e">
+        <f t="shared" si="60"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A256" s="34"/>
+      <c r="B256" s="46" t="s">
+        <v>158</v>
+      </c>
+      <c r="C256" s="14"/>
+      <c r="D256" s="14"/>
+      <c r="E256" s="15">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="F256" s="16" t="e">
+        <f t="shared" si="60"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A257" s="34"/>
+      <c r="B257" s="46" t="s">
+        <v>159</v>
+      </c>
+      <c r="C257" s="14"/>
+      <c r="D257" s="14"/>
+      <c r="E257" s="15">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="F257" s="16" t="e">
+        <f t="shared" si="60"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" ht="27.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A258" s="40" t="s">
         <v>162</v>
       </c>
+    </row>
+    <row r="259" spans="1:6" ht="138" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A259" s="83" t="s">
+        <v>173</v>
+      </c>
+      <c r="B259" s="83"/>
+      <c r="C259" s="83"/>
+      <c r="D259" s="83"/>
+      <c r="E259" s="83"/>
+      <c r="F259" s="83"/>
     </row>
   </sheetData>
   <sortState ref="A132:B174">
     <sortCondition ref="B131"/>
   </sortState>
-  <mergeCells count="26">
-    <mergeCell ref="A109:F109"/>
-    <mergeCell ref="A134:F134"/>
-    <mergeCell ref="A187:F187"/>
-    <mergeCell ref="A194:F194"/>
-    <mergeCell ref="A195:F195"/>
-    <mergeCell ref="A121:F121"/>
-    <mergeCell ref="A122:F122"/>
-    <mergeCell ref="A160:F160"/>
-    <mergeCell ref="A161:F161"/>
-    <mergeCell ref="A186:F186"/>
+  <mergeCells count="39">
+    <mergeCell ref="A216:F216"/>
+    <mergeCell ref="A57:F57"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="A133:F133"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="A151:F151"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="A55:F55"/>
+    <mergeCell ref="A58:F58"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="A103:F103"/>
+    <mergeCell ref="A104:F104"/>
+    <mergeCell ref="A122:F122"/>
     <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="A50:F50"/>
-    <mergeCell ref="A72:F72"/>
-    <mergeCell ref="A73:F73"/>
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="A92:F92"/>
-    <mergeCell ref="A108:F108"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="A101:F101"/>
+    <mergeCell ref="A259:F259"/>
+    <mergeCell ref="A120:F120"/>
+    <mergeCell ref="A135:F135"/>
+    <mergeCell ref="A149:F149"/>
+    <mergeCell ref="A178:F178"/>
+    <mergeCell ref="A206:F206"/>
+    <mergeCell ref="A123:F123"/>
+    <mergeCell ref="A152:F152"/>
+    <mergeCell ref="A209:F209"/>
+    <mergeCell ref="A218:F218"/>
+    <mergeCell ref="A219:F219"/>
+    <mergeCell ref="A137:F137"/>
+    <mergeCell ref="A138:F138"/>
+    <mergeCell ref="A180:F180"/>
+    <mergeCell ref="A181:F181"/>
+    <mergeCell ref="A208:F208"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -5797,24 +6328,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
+      <c r="A1" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
     </row>
     <row r="2" spans="1:6" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="68" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="73"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="70"/>
     </row>
     <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>

--- a/public/base.xlsx
+++ b/public/base.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="176">
   <si>
     <t>کارگزاری آینده نگر خوارزمی به مدیریت دکتر ذوقی 09123011311 و 61914000-021 (داخلی 408 الی 411)</t>
   </si>
@@ -673,6 +673,9 @@
 https://t.me/TDI_MDI
 لینک بله⬅️
 ble.ir/join/HLzkvyNxQu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مقایسه قیمت پاییه پلی وینیل کلراید PVC(S) </t>
   </si>
 </sst>
 </file>
@@ -1174,12 +1177,46 @@
     <xf numFmtId="3" fontId="12" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="21" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="23" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1189,6 +1226,21 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="21" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="23" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="23" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1198,9 +1250,21 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="22" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="22" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="22" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1208,67 +1272,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="14" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="21" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="23" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="21" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="23" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="23" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="22" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="22" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="22" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2147,8 +2150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH259"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A191" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A198" sqref="A198:XFD198"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2182,31 +2185,31 @@
       </c>
     </row>
     <row r="2" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
+      <c r="A2" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
     </row>
     <row r="3" spans="1:34" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="77" t="s">
-        <v>74</v>
-      </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="62"/>
+      <c r="A3" s="71" t="s">
+        <v>175</v>
+      </c>
+      <c r="B3" s="72"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="74"/>
     </row>
     <row r="4" spans="1:34" s="57" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="79"/>
-      <c r="B4" s="76" t="s">
+      <c r="A4" s="63"/>
+      <c r="B4" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="76" t="s">
+      <c r="C4" s="62" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="42" t="s">
@@ -2248,10 +2251,10 @@
       <c r="AH4" s="56"/>
     </row>
     <row r="5" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="59" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="74" t="s">
+      <c r="B5" s="60" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="10"/>
@@ -2340,14 +2343,14 @@
       <c r="F10" s="23"/>
     </row>
     <row r="11" spans="1:34" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="85" t="s">
+      <c r="A11" s="76" t="s">
         <v>163</v>
       </c>
-      <c r="B11" s="89"/>
-      <c r="C11" s="89"/>
-      <c r="D11" s="89"/>
-      <c r="E11" s="89"/>
-      <c r="F11" s="90"/>
+      <c r="B11" s="86"/>
+      <c r="C11" s="86"/>
+      <c r="D11" s="86"/>
+      <c r="E11" s="86"/>
+      <c r="F11" s="87"/>
     </row>
     <row r="12" spans="1:34" s="24" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="38"/>
@@ -2358,24 +2361,24 @@
       <c r="F12" s="23"/>
     </row>
     <row r="13" spans="1:34" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="60"/>
-      <c r="C13" s="60"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="60"/>
+      <c r="A13" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="70"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
     </row>
     <row r="14" spans="1:34" s="57" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="77" t="s">
+      <c r="A14" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="B14" s="78"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="62"/>
+      <c r="B14" s="72"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="74"/>
       <c r="G14" s="56"/>
       <c r="H14" s="56"/>
       <c r="I14" s="56"/>
@@ -2406,11 +2409,11 @@
       <c r="AH14" s="56"/>
     </row>
     <row r="15" spans="1:34" s="3" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="79"/>
-      <c r="B15" s="76" t="s">
+      <c r="A15" s="63"/>
+      <c r="B15" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="76" t="s">
+      <c r="C15" s="62" t="s">
         <v>4</v>
       </c>
       <c r="D15" s="42" t="s">
@@ -2452,10 +2455,10 @@
       <c r="AH15" s="2"/>
     </row>
     <row r="16" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="73" t="s">
+      <c r="A16" s="59" t="s">
         <v>72</v>
       </c>
-      <c r="B16" s="74" t="s">
+      <c r="B16" s="60" t="s">
         <v>3</v>
       </c>
       <c r="C16" s="10"/>
@@ -2576,14 +2579,14 @@
       <c r="F23" s="23"/>
     </row>
     <row r="24" spans="1:34" s="26" customFormat="1" ht="135.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="85" t="s">
+      <c r="A24" s="76" t="s">
         <v>164</v>
       </c>
-      <c r="B24" s="89"/>
-      <c r="C24" s="89"/>
-      <c r="D24" s="89"/>
-      <c r="E24" s="89"/>
-      <c r="F24" s="90"/>
+      <c r="B24" s="86"/>
+      <c r="C24" s="86"/>
+      <c r="D24" s="86"/>
+      <c r="E24" s="86"/>
+      <c r="F24" s="87"/>
       <c r="G24" s="25"/>
       <c r="H24" s="25"/>
       <c r="I24" s="25"/>
@@ -2622,28 +2625,28 @@
       <c r="F25" s="23"/>
     </row>
     <row r="26" spans="1:34" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="60"/>
-      <c r="C26" s="60"/>
-      <c r="D26" s="60"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="60"/>
+      <c r="A26" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="70"/>
+      <c r="C26" s="70"/>
+      <c r="D26" s="70"/>
+      <c r="E26" s="70"/>
+      <c r="F26" s="70"/>
     </row>
     <row r="27" spans="1:34" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="77" t="s">
+      <c r="A27" s="71" t="s">
         <v>160</v>
       </c>
-      <c r="B27" s="78"/>
-      <c r="C27" s="61"/>
-      <c r="D27" s="61"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="62"/>
+      <c r="B27" s="72"/>
+      <c r="C27" s="73"/>
+      <c r="D27" s="73"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="74"/>
     </row>
     <row r="28" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="82"/>
-      <c r="B28" s="76" t="s">
+      <c r="A28" s="65"/>
+      <c r="B28" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C28" s="6" t="s">
@@ -2660,10 +2663,10 @@
       </c>
     </row>
     <row r="29" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="73" t="s">
+      <c r="A29" s="59" t="s">
         <v>72</v>
       </c>
-      <c r="B29" s="74" t="s">
+      <c r="B29" s="60" t="s">
         <v>3</v>
       </c>
       <c r="C29" s="10"/>
@@ -2720,7 +2723,7 @@
       <c r="F32" s="29"/>
     </row>
     <row r="33" spans="1:34" ht="153.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="83" t="s">
+      <c r="A33" s="67" t="s">
         <v>165</v>
       </c>
       <c r="B33" s="88"/>
@@ -2729,7 +2732,7 @@
       <c r="E33" s="88"/>
       <c r="F33" s="88"/>
     </row>
-    <row r="34" spans="1:34" s="80" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:34" s="64" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="38"/>
       <c r="B34" s="52"/>
       <c r="C34" s="21"/>
@@ -2766,28 +2769,28 @@
       <c r="AH34" s="24"/>
     </row>
     <row r="35" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="B35" s="60"/>
-      <c r="C35" s="60"/>
-      <c r="D35" s="60"/>
-      <c r="E35" s="60"/>
-      <c r="F35" s="60"/>
+      <c r="A35" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="70"/>
+      <c r="C35" s="70"/>
+      <c r="D35" s="70"/>
+      <c r="E35" s="70"/>
+      <c r="F35" s="70"/>
     </row>
     <row r="36" spans="1:34" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="77" t="s">
+      <c r="A36" s="71" t="s">
         <v>161</v>
       </c>
-      <c r="B36" s="78"/>
-      <c r="C36" s="61"/>
-      <c r="D36" s="61"/>
-      <c r="E36" s="61"/>
-      <c r="F36" s="62"/>
+      <c r="B36" s="72"/>
+      <c r="C36" s="73"/>
+      <c r="D36" s="73"/>
+      <c r="E36" s="73"/>
+      <c r="F36" s="74"/>
     </row>
     <row r="37" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="82"/>
-      <c r="B37" s="76" t="s">
+      <c r="A37" s="65"/>
+      <c r="B37" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C37" s="6" t="s">
@@ -2804,10 +2807,10 @@
       </c>
     </row>
     <row r="38" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="73" t="s">
+      <c r="A38" s="59" t="s">
         <v>72</v>
       </c>
-      <c r="B38" s="74" t="s">
+      <c r="B38" s="60" t="s">
         <v>3</v>
       </c>
       <c r="C38" s="10"/>
@@ -3072,14 +3075,14 @@
       <c r="F54" s="31"/>
     </row>
     <row r="55" spans="1:6" s="1" customFormat="1" ht="149.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="85" t="s">
+      <c r="A55" s="76" t="s">
         <v>166</v>
       </c>
-      <c r="B55" s="86"/>
-      <c r="C55" s="86"/>
-      <c r="D55" s="86"/>
-      <c r="E55" s="86"/>
-      <c r="F55" s="87"/>
+      <c r="B55" s="77"/>
+      <c r="C55" s="77"/>
+      <c r="D55" s="77"/>
+      <c r="E55" s="77"/>
+      <c r="F55" s="78"/>
     </row>
     <row r="56" spans="1:6" s="1" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="38"/>
@@ -3090,28 +3093,28 @@
       <c r="F56" s="31"/>
     </row>
     <row r="57" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="B57" s="60"/>
-      <c r="C57" s="60"/>
-      <c r="D57" s="60"/>
-      <c r="E57" s="60"/>
-      <c r="F57" s="60"/>
+      <c r="A57" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57" s="70"/>
+      <c r="C57" s="70"/>
+      <c r="D57" s="70"/>
+      <c r="E57" s="70"/>
+      <c r="F57" s="70"/>
     </row>
     <row r="58" spans="1:6" s="1" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="71" t="s">
+      <c r="A58" s="79" t="s">
         <v>93</v>
       </c>
-      <c r="B58" s="81"/>
-      <c r="C58" s="63"/>
-      <c r="D58" s="63"/>
-      <c r="E58" s="63"/>
-      <c r="F58" s="63"/>
+      <c r="B58" s="80"/>
+      <c r="C58" s="75"/>
+      <c r="D58" s="75"/>
+      <c r="E58" s="75"/>
+      <c r="F58" s="75"/>
     </row>
     <row r="59" spans="1:6" s="1" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="75"/>
-      <c r="B59" s="76" t="s">
+      <c r="A59" s="61"/>
+      <c r="B59" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C59" s="6" t="s">
@@ -3128,10 +3131,10 @@
       </c>
     </row>
     <row r="60" spans="1:6" s="1" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="73" t="s">
+      <c r="A60" s="59" t="s">
         <v>72</v>
       </c>
-      <c r="B60" s="74" t="s">
+      <c r="B60" s="60" t="s">
         <v>3</v>
       </c>
       <c r="C60" s="10"/>
@@ -3444,14 +3447,14 @@
       <c r="F79" s="31"/>
     </row>
     <row r="80" spans="1:6" s="1" customFormat="1" ht="152.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="85" t="s">
+      <c r="A80" s="76" t="s">
         <v>174</v>
       </c>
-      <c r="B80" s="86"/>
-      <c r="C80" s="86"/>
-      <c r="D80" s="86"/>
-      <c r="E80" s="86"/>
-      <c r="F80" s="87"/>
+      <c r="B80" s="77"/>
+      <c r="C80" s="77"/>
+      <c r="D80" s="77"/>
+      <c r="E80" s="77"/>
+      <c r="F80" s="78"/>
     </row>
     <row r="81" spans="1:6" s="1" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="38"/>
@@ -3462,28 +3465,28 @@
       <c r="F81" s="31"/>
     </row>
     <row r="82" spans="1:6" s="1" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="B82" s="65"/>
-      <c r="C82" s="65"/>
-      <c r="D82" s="65"/>
-      <c r="E82" s="65"/>
-      <c r="F82" s="66"/>
+      <c r="A82" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B82" s="82"/>
+      <c r="C82" s="82"/>
+      <c r="D82" s="82"/>
+      <c r="E82" s="82"/>
+      <c r="F82" s="83"/>
     </row>
     <row r="83" spans="1:6" s="1" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="71" t="s">
+      <c r="A83" s="79" t="s">
         <v>94</v>
       </c>
-      <c r="B83" s="72"/>
-      <c r="C83" s="67"/>
-      <c r="D83" s="67"/>
-      <c r="E83" s="67"/>
-      <c r="F83" s="67"/>
+      <c r="B83" s="84"/>
+      <c r="C83" s="85"/>
+      <c r="D83" s="85"/>
+      <c r="E83" s="85"/>
+      <c r="F83" s="85"/>
     </row>
     <row r="84" spans="1:6" s="1" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="75"/>
-      <c r="B84" s="76" t="s">
+      <c r="A84" s="61"/>
+      <c r="B84" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C84" s="6" t="s">
@@ -3500,10 +3503,10 @@
       </c>
     </row>
     <row r="85" spans="1:6" s="1" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="73" t="s">
+      <c r="A85" s="59" t="s">
         <v>72</v>
       </c>
-      <c r="B85" s="74" t="s">
+      <c r="B85" s="60" t="s">
         <v>3</v>
       </c>
       <c r="C85" s="10"/>
@@ -3780,14 +3783,14 @@
       <c r="F100" s="31"/>
     </row>
     <row r="101" spans="1:34" ht="161.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="85" t="s">
+      <c r="A101" s="76" t="s">
         <v>167</v>
       </c>
-      <c r="B101" s="86"/>
-      <c r="C101" s="86"/>
-      <c r="D101" s="86"/>
-      <c r="E101" s="86"/>
-      <c r="F101" s="87"/>
+      <c r="B101" s="77"/>
+      <c r="C101" s="77"/>
+      <c r="D101" s="77"/>
+      <c r="E101" s="77"/>
+      <c r="F101" s="78"/>
     </row>
     <row r="102" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="38"/>
@@ -3798,28 +3801,28 @@
       <c r="F102" s="31"/>
     </row>
     <row r="103" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="B103" s="63"/>
-      <c r="C103" s="63"/>
-      <c r="D103" s="63"/>
-      <c r="E103" s="63"/>
-      <c r="F103" s="63"/>
+      <c r="A103" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B103" s="75"/>
+      <c r="C103" s="75"/>
+      <c r="D103" s="75"/>
+      <c r="E103" s="75"/>
+      <c r="F103" s="75"/>
     </row>
     <row r="104" spans="1:34" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="71" t="s">
+      <c r="A104" s="79" t="s">
         <v>107</v>
       </c>
-      <c r="B104" s="72"/>
-      <c r="C104" s="67"/>
-      <c r="D104" s="67"/>
-      <c r="E104" s="67"/>
-      <c r="F104" s="67"/>
+      <c r="B104" s="84"/>
+      <c r="C104" s="85"/>
+      <c r="D104" s="85"/>
+      <c r="E104" s="85"/>
+      <c r="F104" s="85"/>
     </row>
     <row r="105" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="75"/>
-      <c r="B105" s="76" t="s">
+      <c r="A105" s="61"/>
+      <c r="B105" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C105" s="6" t="s">
@@ -3836,10 +3839,10 @@
       </c>
     </row>
     <row r="106" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="73" t="s">
+      <c r="A106" s="59" t="s">
         <v>72</v>
       </c>
-      <c r="B106" s="74" t="s">
+      <c r="B106" s="60" t="s">
         <v>3</v>
       </c>
       <c r="C106" s="10"/>
@@ -4084,14 +4087,14 @@
       <c r="F119" s="24"/>
     </row>
     <row r="120" spans="1:34" ht="133.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="85" t="s">
+      <c r="A120" s="76" t="s">
         <v>168</v>
       </c>
-      <c r="B120" s="86"/>
-      <c r="C120" s="86"/>
-      <c r="D120" s="86"/>
-      <c r="E120" s="86"/>
-      <c r="F120" s="87"/>
+      <c r="B120" s="77"/>
+      <c r="C120" s="77"/>
+      <c r="D120" s="77"/>
+      <c r="E120" s="77"/>
+      <c r="F120" s="78"/>
     </row>
     <row r="121" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="36"/>
@@ -4102,28 +4105,28 @@
       <c r="F121" s="24"/>
     </row>
     <row r="122" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="B122" s="63"/>
-      <c r="C122" s="63"/>
-      <c r="D122" s="63"/>
-      <c r="E122" s="63"/>
-      <c r="F122" s="63"/>
+      <c r="A122" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B122" s="75"/>
+      <c r="C122" s="75"/>
+      <c r="D122" s="75"/>
+      <c r="E122" s="75"/>
+      <c r="F122" s="75"/>
     </row>
     <row r="123" spans="1:34" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="71" t="s">
+      <c r="A123" s="79" t="s">
         <v>116</v>
       </c>
-      <c r="B123" s="72"/>
-      <c r="C123" s="67"/>
-      <c r="D123" s="67"/>
-      <c r="E123" s="67"/>
-      <c r="F123" s="67"/>
+      <c r="B123" s="84"/>
+      <c r="C123" s="85"/>
+      <c r="D123" s="85"/>
+      <c r="E123" s="85"/>
+      <c r="F123" s="85"/>
     </row>
     <row r="124" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="75"/>
-      <c r="B124" s="76" t="s">
+      <c r="A124" s="61"/>
+      <c r="B124" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C124" s="6" t="s">
@@ -4140,10 +4143,10 @@
       </c>
     </row>
     <row r="125" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="73" t="s">
+      <c r="A125" s="59" t="s">
         <v>72</v>
       </c>
-      <c r="B125" s="74" t="s">
+      <c r="B125" s="60" t="s">
         <v>3</v>
       </c>
       <c r="C125" s="10"/>
@@ -4352,14 +4355,14 @@
       <c r="F134" s="37"/>
     </row>
     <row r="135" spans="1:34" ht="147" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="85" t="s">
+      <c r="A135" s="76" t="s">
         <v>169</v>
       </c>
-      <c r="B135" s="86"/>
-      <c r="C135" s="86"/>
-      <c r="D135" s="86"/>
-      <c r="E135" s="86"/>
-      <c r="F135" s="87"/>
+      <c r="B135" s="77"/>
+      <c r="C135" s="77"/>
+      <c r="D135" s="77"/>
+      <c r="E135" s="77"/>
+      <c r="F135" s="78"/>
     </row>
     <row r="136" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="36"/>
@@ -4370,28 +4373,28 @@
       <c r="F136" s="37"/>
     </row>
     <row r="137" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="B137" s="63"/>
-      <c r="C137" s="63"/>
-      <c r="D137" s="63"/>
-      <c r="E137" s="63"/>
-      <c r="F137" s="63"/>
+      <c r="A137" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B137" s="75"/>
+      <c r="C137" s="75"/>
+      <c r="D137" s="75"/>
+      <c r="E137" s="75"/>
+      <c r="F137" s="75"/>
     </row>
     <row r="138" spans="1:34" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="71" t="s">
+      <c r="A138" s="79" t="s">
         <v>117</v>
       </c>
-      <c r="B138" s="72"/>
-      <c r="C138" s="67"/>
-      <c r="D138" s="67"/>
-      <c r="E138" s="67"/>
-      <c r="F138" s="67"/>
+      <c r="B138" s="84"/>
+      <c r="C138" s="85"/>
+      <c r="D138" s="85"/>
+      <c r="E138" s="85"/>
+      <c r="F138" s="85"/>
     </row>
     <row r="139" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="75"/>
-      <c r="B139" s="76" t="s">
+      <c r="A139" s="61"/>
+      <c r="B139" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C139" s="6" t="s">
@@ -4408,10 +4411,10 @@
       </c>
     </row>
     <row r="140" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="73" t="s">
+      <c r="A140" s="59" t="s">
         <v>72</v>
       </c>
-      <c r="B140" s="74" t="s">
+      <c r="B140" s="60" t="s">
         <v>3</v>
       </c>
       <c r="C140" s="10"/>
@@ -4576,14 +4579,14 @@
       <c r="F148" s="24"/>
     </row>
     <row r="149" spans="1:6" ht="143.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="85" t="s">
+      <c r="A149" s="76" t="s">
         <v>170</v>
       </c>
-      <c r="B149" s="86"/>
-      <c r="C149" s="86"/>
-      <c r="D149" s="86"/>
-      <c r="E149" s="86"/>
-      <c r="F149" s="87"/>
+      <c r="B149" s="77"/>
+      <c r="C149" s="77"/>
+      <c r="D149" s="77"/>
+      <c r="E149" s="77"/>
+      <c r="F149" s="78"/>
     </row>
     <row r="150" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="36"/>
@@ -4594,28 +4597,28 @@
       <c r="F150" s="24"/>
     </row>
     <row r="151" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="B151" s="63"/>
-      <c r="C151" s="63"/>
-      <c r="D151" s="63"/>
-      <c r="E151" s="63"/>
-      <c r="F151" s="63"/>
+      <c r="A151" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B151" s="75"/>
+      <c r="C151" s="75"/>
+      <c r="D151" s="75"/>
+      <c r="E151" s="75"/>
+      <c r="F151" s="75"/>
     </row>
     <row r="152" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="72" t="s">
+      <c r="A152" s="84" t="s">
         <v>86</v>
       </c>
-      <c r="B152" s="72"/>
-      <c r="C152" s="67"/>
-      <c r="D152" s="67"/>
-      <c r="E152" s="67"/>
-      <c r="F152" s="67"/>
+      <c r="B152" s="84"/>
+      <c r="C152" s="85"/>
+      <c r="D152" s="85"/>
+      <c r="E152" s="85"/>
+      <c r="F152" s="85"/>
     </row>
     <row r="153" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="75"/>
-      <c r="B153" s="76" t="s">
+      <c r="A153" s="61"/>
+      <c r="B153" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C153" s="6" t="s">
@@ -4632,10 +4635,10 @@
       </c>
     </row>
     <row r="154" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="73" t="s">
+      <c r="A154" s="59" t="s">
         <v>72</v>
       </c>
-      <c r="B154" s="74" t="s">
+      <c r="B154" s="60" t="s">
         <v>3</v>
       </c>
       <c r="C154" s="10"/>
@@ -5012,14 +5015,14 @@
       <c r="F177" s="23"/>
     </row>
     <row r="178" spans="1:6" ht="141" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="83" t="s">
+      <c r="A178" s="67" t="s">
         <v>171</v>
       </c>
-      <c r="B178" s="84"/>
-      <c r="C178" s="84"/>
-      <c r="D178" s="84"/>
-      <c r="E178" s="84"/>
-      <c r="F178" s="84"/>
+      <c r="B178" s="68"/>
+      <c r="C178" s="68"/>
+      <c r="D178" s="68"/>
+      <c r="E178" s="68"/>
+      <c r="F178" s="68"/>
     </row>
     <row r="179" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="36"/>
@@ -5030,28 +5033,28 @@
       <c r="F179" s="23"/>
     </row>
     <row r="180" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="B180" s="63"/>
-      <c r="C180" s="63"/>
-      <c r="D180" s="63"/>
-      <c r="E180" s="63"/>
-      <c r="F180" s="63"/>
+      <c r="A180" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B180" s="75"/>
+      <c r="C180" s="75"/>
+      <c r="D180" s="75"/>
+      <c r="E180" s="75"/>
+      <c r="F180" s="75"/>
     </row>
     <row r="181" spans="1:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="71" t="s">
+      <c r="A181" s="79" t="s">
         <v>140</v>
       </c>
-      <c r="B181" s="72"/>
-      <c r="C181" s="67"/>
-      <c r="D181" s="67"/>
-      <c r="E181" s="67"/>
-      <c r="F181" s="67"/>
+      <c r="B181" s="84"/>
+      <c r="C181" s="85"/>
+      <c r="D181" s="85"/>
+      <c r="E181" s="85"/>
+      <c r="F181" s="85"/>
     </row>
     <row r="182" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="75"/>
-      <c r="B182" s="76" t="s">
+      <c r="A182" s="61"/>
+      <c r="B182" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C182" s="6" t="s">
@@ -5068,10 +5071,10 @@
       </c>
     </row>
     <row r="183" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="73" t="s">
+      <c r="A183" s="59" t="s">
         <v>72</v>
       </c>
-      <c r="B183" s="74" t="s">
+      <c r="B183" s="60" t="s">
         <v>3</v>
       </c>
       <c r="C183" s="10"/>
@@ -5310,7 +5313,7 @@
       </c>
     </row>
     <row r="198" spans="1:34" s="3" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="91"/>
+      <c r="A198" s="66"/>
       <c r="B198" s="46" t="s">
         <v>122</v>
       </c>
@@ -5460,14 +5463,14 @@
       <c r="F205" s="24"/>
     </row>
     <row r="206" spans="1:34" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="83" t="s">
+      <c r="A206" s="67" t="s">
         <v>171</v>
       </c>
-      <c r="B206" s="84"/>
-      <c r="C206" s="84"/>
-      <c r="D206" s="84"/>
-      <c r="E206" s="84"/>
-      <c r="F206" s="84"/>
+      <c r="B206" s="68"/>
+      <c r="C206" s="68"/>
+      <c r="D206" s="68"/>
+      <c r="E206" s="68"/>
+      <c r="F206" s="68"/>
     </row>
     <row r="207" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="36"/>
@@ -5478,28 +5481,28 @@
       <c r="F207" s="24"/>
     </row>
     <row r="208" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="B208" s="63"/>
-      <c r="C208" s="63"/>
-      <c r="D208" s="63"/>
-      <c r="E208" s="63"/>
-      <c r="F208" s="63"/>
+      <c r="A208" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B208" s="75"/>
+      <c r="C208" s="75"/>
+      <c r="D208" s="75"/>
+      <c r="E208" s="75"/>
+      <c r="F208" s="75"/>
     </row>
     <row r="209" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="71" t="s">
+      <c r="A209" s="79" t="s">
         <v>141</v>
       </c>
-      <c r="B209" s="72"/>
-      <c r="C209" s="67"/>
-      <c r="D209" s="67"/>
-      <c r="E209" s="67"/>
-      <c r="F209" s="67"/>
+      <c r="B209" s="84"/>
+      <c r="C209" s="85"/>
+      <c r="D209" s="85"/>
+      <c r="E209" s="85"/>
+      <c r="F209" s="85"/>
     </row>
     <row r="210" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="75"/>
-      <c r="B210" s="76" t="s">
+      <c r="A210" s="61"/>
+      <c r="B210" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C210" s="6" t="s">
@@ -5516,10 +5519,10 @@
       </c>
     </row>
     <row r="211" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="73" t="s">
+      <c r="A211" s="59" t="s">
         <v>72</v>
       </c>
-      <c r="B211" s="74" t="s">
+      <c r="B211" s="60" t="s">
         <v>3</v>
       </c>
       <c r="C211" s="10"/>
@@ -5592,14 +5595,14 @@
       <c r="F215" s="1"/>
     </row>
     <row r="216" spans="1:6" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A216" s="83" t="s">
+      <c r="A216" s="67" t="s">
         <v>172</v>
       </c>
-      <c r="B216" s="84"/>
-      <c r="C216" s="84"/>
-      <c r="D216" s="84"/>
-      <c r="E216" s="84"/>
-      <c r="F216" s="84"/>
+      <c r="B216" s="68"/>
+      <c r="C216" s="68"/>
+      <c r="D216" s="68"/>
+      <c r="E216" s="68"/>
+      <c r="F216" s="68"/>
     </row>
     <row r="217" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="58"/>
@@ -5610,28 +5613,28 @@
       <c r="F217" s="1"/>
     </row>
     <row r="218" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A218" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="B218" s="63"/>
-      <c r="C218" s="63"/>
-      <c r="D218" s="63"/>
-      <c r="E218" s="63"/>
-      <c r="F218" s="63"/>
+      <c r="A218" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B218" s="75"/>
+      <c r="C218" s="75"/>
+      <c r="D218" s="75"/>
+      <c r="E218" s="75"/>
+      <c r="F218" s="75"/>
     </row>
     <row r="219" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="71" t="s">
+      <c r="A219" s="79" t="s">
         <v>142</v>
       </c>
-      <c r="B219" s="72"/>
-      <c r="C219" s="67"/>
-      <c r="D219" s="67"/>
-      <c r="E219" s="67"/>
-      <c r="F219" s="67"/>
+      <c r="B219" s="84"/>
+      <c r="C219" s="85"/>
+      <c r="D219" s="85"/>
+      <c r="E219" s="85"/>
+      <c r="F219" s="85"/>
     </row>
     <row r="220" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="75"/>
-      <c r="B220" s="76" t="s">
+      <c r="A220" s="61"/>
+      <c r="B220" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C220" s="6" t="s">
@@ -5648,10 +5651,10 @@
       </c>
     </row>
     <row r="221" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="73" t="s">
+      <c r="A221" s="59" t="s">
         <v>72</v>
       </c>
-      <c r="B221" s="74" t="s">
+      <c r="B221" s="60" t="s">
         <v>3</v>
       </c>
       <c r="C221" s="10"/>
@@ -6247,20 +6250,43 @@
       </c>
     </row>
     <row r="259" spans="1:6" ht="138" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A259" s="83" t="s">
+      <c r="A259" s="67" t="s">
         <v>173</v>
       </c>
-      <c r="B259" s="83"/>
-      <c r="C259" s="83"/>
-      <c r="D259" s="83"/>
-      <c r="E259" s="83"/>
-      <c r="F259" s="83"/>
+      <c r="B259" s="67"/>
+      <c r="C259" s="67"/>
+      <c r="D259" s="67"/>
+      <c r="E259" s="67"/>
+      <c r="F259" s="67"/>
     </row>
   </sheetData>
   <sortState ref="A132:B174">
     <sortCondition ref="B131"/>
   </sortState>
   <mergeCells count="39">
+    <mergeCell ref="A259:F259"/>
+    <mergeCell ref="A120:F120"/>
+    <mergeCell ref="A135:F135"/>
+    <mergeCell ref="A149:F149"/>
+    <mergeCell ref="A178:F178"/>
+    <mergeCell ref="A206:F206"/>
+    <mergeCell ref="A123:F123"/>
+    <mergeCell ref="A152:F152"/>
+    <mergeCell ref="A209:F209"/>
+    <mergeCell ref="A218:F218"/>
+    <mergeCell ref="A219:F219"/>
+    <mergeCell ref="A137:F137"/>
+    <mergeCell ref="A138:F138"/>
+    <mergeCell ref="A180:F180"/>
+    <mergeCell ref="A181:F181"/>
+    <mergeCell ref="A208:F208"/>
+    <mergeCell ref="A104:F104"/>
+    <mergeCell ref="A122:F122"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="A101:F101"/>
     <mergeCell ref="A216:F216"/>
     <mergeCell ref="A57:F57"/>
     <mergeCell ref="A2:F2"/>
@@ -6277,29 +6303,6 @@
     <mergeCell ref="A82:F82"/>
     <mergeCell ref="A83:F83"/>
     <mergeCell ref="A103:F103"/>
-    <mergeCell ref="A104:F104"/>
-    <mergeCell ref="A122:F122"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A80:F80"/>
-    <mergeCell ref="A101:F101"/>
-    <mergeCell ref="A259:F259"/>
-    <mergeCell ref="A120:F120"/>
-    <mergeCell ref="A135:F135"/>
-    <mergeCell ref="A149:F149"/>
-    <mergeCell ref="A178:F178"/>
-    <mergeCell ref="A206:F206"/>
-    <mergeCell ref="A123:F123"/>
-    <mergeCell ref="A152:F152"/>
-    <mergeCell ref="A209:F209"/>
-    <mergeCell ref="A218:F218"/>
-    <mergeCell ref="A219:F219"/>
-    <mergeCell ref="A137:F137"/>
-    <mergeCell ref="A138:F138"/>
-    <mergeCell ref="A180:F180"/>
-    <mergeCell ref="A181:F181"/>
-    <mergeCell ref="A208:F208"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -6328,24 +6331,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
+      <c r="A1" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
     </row>
     <row r="2" spans="1:6" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="89" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="70"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="91"/>
     </row>
     <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>

--- a/public/base.xlsx
+++ b/public/base.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="175">
   <si>
     <t>کارگزاری آینده نگر خوارزمی به مدیریت دکتر ذوقی 09123011311 و 61914000-021 (داخلی 408 الی 411)</t>
   </si>
@@ -673,9 +673,6 @@
 https://t.me/TDI_MDI
 لینک بله⬅️
 ble.ir/join/HLzkvyNxQu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">مقایسه قیمت پاییه پلی وینیل کلراید PVC(S) </t>
   </si>
 </sst>
 </file>
@@ -1202,9 +1199,39 @@
     <xf numFmtId="3" fontId="21" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="21" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="23" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="23" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="3" fontId="23" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="22" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="22" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="22" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1223,21 +1250,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="21" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="23" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="23" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1248,21 +1260,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="22" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="22" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="22" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2150,7 +2147,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH259"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:F3"/>
     </sheetView>
   </sheetViews>
@@ -2185,24 +2182,24 @@
       </c>
     </row>
     <row r="2" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
+      <c r="A2" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
     </row>
     <row r="3" spans="1:34" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="71" t="s">
-        <v>175</v>
-      </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="74"/>
+      <c r="A3" s="81" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="82"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="84"/>
     </row>
     <row r="4" spans="1:34" s="57" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="63"/>
@@ -2343,14 +2340,14 @@
       <c r="F10" s="23"/>
     </row>
     <row r="11" spans="1:34" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="76" t="s">
+      <c r="A11" s="68" t="s">
         <v>163</v>
       </c>
-      <c r="B11" s="86"/>
-      <c r="C11" s="86"/>
-      <c r="D11" s="86"/>
-      <c r="E11" s="86"/>
-      <c r="F11" s="87"/>
+      <c r="B11" s="76"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="77"/>
     </row>
     <row r="12" spans="1:34" s="24" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="38"/>
@@ -2361,24 +2358,24 @@
       <c r="F12" s="23"/>
     </row>
     <row r="13" spans="1:34" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="69" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="70"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
+      <c r="A13" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="80"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="80"/>
     </row>
     <row r="14" spans="1:34" s="57" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="71" t="s">
+      <c r="A14" s="81" t="s">
         <v>87</v>
       </c>
-      <c r="B14" s="72"/>
-      <c r="C14" s="73"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="74"/>
+      <c r="B14" s="82"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="84"/>
       <c r="G14" s="56"/>
       <c r="H14" s="56"/>
       <c r="I14" s="56"/>
@@ -2579,14 +2576,14 @@
       <c r="F23" s="23"/>
     </row>
     <row r="24" spans="1:34" s="26" customFormat="1" ht="135.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="76" t="s">
+      <c r="A24" s="68" t="s">
         <v>164</v>
       </c>
-      <c r="B24" s="86"/>
-      <c r="C24" s="86"/>
-      <c r="D24" s="86"/>
-      <c r="E24" s="86"/>
-      <c r="F24" s="87"/>
+      <c r="B24" s="76"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="77"/>
       <c r="G24" s="25"/>
       <c r="H24" s="25"/>
       <c r="I24" s="25"/>
@@ -2625,24 +2622,24 @@
       <c r="F25" s="23"/>
     </row>
     <row r="26" spans="1:34" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="69" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="70"/>
-      <c r="C26" s="70"/>
-      <c r="D26" s="70"/>
-      <c r="E26" s="70"/>
-      <c r="F26" s="70"/>
+      <c r="A26" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="80"/>
+      <c r="C26" s="80"/>
+      <c r="D26" s="80"/>
+      <c r="E26" s="80"/>
+      <c r="F26" s="80"/>
     </row>
     <row r="27" spans="1:34" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="71" t="s">
+      <c r="A27" s="81" t="s">
         <v>160</v>
       </c>
-      <c r="B27" s="72"/>
-      <c r="C27" s="73"/>
-      <c r="D27" s="73"/>
-      <c r="E27" s="73"/>
-      <c r="F27" s="74"/>
+      <c r="B27" s="82"/>
+      <c r="C27" s="83"/>
+      <c r="D27" s="83"/>
+      <c r="E27" s="83"/>
+      <c r="F27" s="84"/>
     </row>
     <row r="28" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="65"/>
@@ -2726,11 +2723,11 @@
       <c r="A33" s="67" t="s">
         <v>165</v>
       </c>
-      <c r="B33" s="88"/>
-      <c r="C33" s="88"/>
-      <c r="D33" s="88"/>
-      <c r="E33" s="88"/>
-      <c r="F33" s="88"/>
+      <c r="B33" s="78"/>
+      <c r="C33" s="78"/>
+      <c r="D33" s="78"/>
+      <c r="E33" s="78"/>
+      <c r="F33" s="78"/>
     </row>
     <row r="34" spans="1:34" s="64" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="38"/>
@@ -2769,24 +2766,24 @@
       <c r="AH34" s="24"/>
     </row>
     <row r="35" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="69" t="s">
-        <v>0</v>
-      </c>
-      <c r="B35" s="70"/>
-      <c r="C35" s="70"/>
-      <c r="D35" s="70"/>
-      <c r="E35" s="70"/>
-      <c r="F35" s="70"/>
+      <c r="A35" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="80"/>
+      <c r="C35" s="80"/>
+      <c r="D35" s="80"/>
+      <c r="E35" s="80"/>
+      <c r="F35" s="80"/>
     </row>
     <row r="36" spans="1:34" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="71" t="s">
+      <c r="A36" s="81" t="s">
         <v>161</v>
       </c>
-      <c r="B36" s="72"/>
-      <c r="C36" s="73"/>
-      <c r="D36" s="73"/>
-      <c r="E36" s="73"/>
-      <c r="F36" s="74"/>
+      <c r="B36" s="82"/>
+      <c r="C36" s="83"/>
+      <c r="D36" s="83"/>
+      <c r="E36" s="83"/>
+      <c r="F36" s="84"/>
     </row>
     <row r="37" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="65"/>
@@ -3075,14 +3072,14 @@
       <c r="F54" s="31"/>
     </row>
     <row r="55" spans="1:6" s="1" customFormat="1" ht="149.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="76" t="s">
+      <c r="A55" s="68" t="s">
         <v>166</v>
       </c>
-      <c r="B55" s="77"/>
-      <c r="C55" s="77"/>
-      <c r="D55" s="77"/>
-      <c r="E55" s="77"/>
-      <c r="F55" s="78"/>
+      <c r="B55" s="69"/>
+      <c r="C55" s="69"/>
+      <c r="D55" s="69"/>
+      <c r="E55" s="69"/>
+      <c r="F55" s="70"/>
     </row>
     <row r="56" spans="1:6" s="1" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="38"/>
@@ -3093,20 +3090,20 @@
       <c r="F56" s="31"/>
     </row>
     <row r="57" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="69" t="s">
-        <v>0</v>
-      </c>
-      <c r="B57" s="70"/>
-      <c r="C57" s="70"/>
-      <c r="D57" s="70"/>
-      <c r="E57" s="70"/>
-      <c r="F57" s="70"/>
+      <c r="A57" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57" s="80"/>
+      <c r="C57" s="80"/>
+      <c r="D57" s="80"/>
+      <c r="E57" s="80"/>
+      <c r="F57" s="80"/>
     </row>
     <row r="58" spans="1:6" s="1" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="79" t="s">
+      <c r="A58" s="72" t="s">
         <v>93</v>
       </c>
-      <c r="B58" s="80"/>
+      <c r="B58" s="85"/>
       <c r="C58" s="75"/>
       <c r="D58" s="75"/>
       <c r="E58" s="75"/>
@@ -3447,14 +3444,14 @@
       <c r="F79" s="31"/>
     </row>
     <row r="80" spans="1:6" s="1" customFormat="1" ht="152.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="76" t="s">
+      <c r="A80" s="68" t="s">
         <v>174</v>
       </c>
-      <c r="B80" s="77"/>
-      <c r="C80" s="77"/>
-      <c r="D80" s="77"/>
-      <c r="E80" s="77"/>
-      <c r="F80" s="78"/>
+      <c r="B80" s="69"/>
+      <c r="C80" s="69"/>
+      <c r="D80" s="69"/>
+      <c r="E80" s="69"/>
+      <c r="F80" s="70"/>
     </row>
     <row r="81" spans="1:6" s="1" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="38"/>
@@ -3465,24 +3462,24 @@
       <c r="F81" s="31"/>
     </row>
     <row r="82" spans="1:6" s="1" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B82" s="82"/>
-      <c r="C82" s="82"/>
-      <c r="D82" s="82"/>
-      <c r="E82" s="82"/>
-      <c r="F82" s="83"/>
+      <c r="A82" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="B82" s="87"/>
+      <c r="C82" s="87"/>
+      <c r="D82" s="87"/>
+      <c r="E82" s="87"/>
+      <c r="F82" s="88"/>
     </row>
     <row r="83" spans="1:6" s="1" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="79" t="s">
+      <c r="A83" s="72" t="s">
         <v>94</v>
       </c>
-      <c r="B83" s="84"/>
-      <c r="C83" s="85"/>
-      <c r="D83" s="85"/>
-      <c r="E83" s="85"/>
-      <c r="F83" s="85"/>
+      <c r="B83" s="73"/>
+      <c r="C83" s="74"/>
+      <c r="D83" s="74"/>
+      <c r="E83" s="74"/>
+      <c r="F83" s="74"/>
     </row>
     <row r="84" spans="1:6" s="1" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="61"/>
@@ -3783,14 +3780,14 @@
       <c r="F100" s="31"/>
     </row>
     <row r="101" spans="1:34" ht="161.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="76" t="s">
+      <c r="A101" s="68" t="s">
         <v>167</v>
       </c>
-      <c r="B101" s="77"/>
-      <c r="C101" s="77"/>
-      <c r="D101" s="77"/>
-      <c r="E101" s="77"/>
-      <c r="F101" s="78"/>
+      <c r="B101" s="69"/>
+      <c r="C101" s="69"/>
+      <c r="D101" s="69"/>
+      <c r="E101" s="69"/>
+      <c r="F101" s="70"/>
     </row>
     <row r="102" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="38"/>
@@ -3811,14 +3808,14 @@
       <c r="F103" s="75"/>
     </row>
     <row r="104" spans="1:34" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="79" t="s">
+      <c r="A104" s="72" t="s">
         <v>107</v>
       </c>
-      <c r="B104" s="84"/>
-      <c r="C104" s="85"/>
-      <c r="D104" s="85"/>
-      <c r="E104" s="85"/>
-      <c r="F104" s="85"/>
+      <c r="B104" s="73"/>
+      <c r="C104" s="74"/>
+      <c r="D104" s="74"/>
+      <c r="E104" s="74"/>
+      <c r="F104" s="74"/>
     </row>
     <row r="105" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="61"/>
@@ -4087,14 +4084,14 @@
       <c r="F119" s="24"/>
     </row>
     <row r="120" spans="1:34" ht="133.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="76" t="s">
+      <c r="A120" s="68" t="s">
         <v>168</v>
       </c>
-      <c r="B120" s="77"/>
-      <c r="C120" s="77"/>
-      <c r="D120" s="77"/>
-      <c r="E120" s="77"/>
-      <c r="F120" s="78"/>
+      <c r="B120" s="69"/>
+      <c r="C120" s="69"/>
+      <c r="D120" s="69"/>
+      <c r="E120" s="69"/>
+      <c r="F120" s="70"/>
     </row>
     <row r="121" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="36"/>
@@ -4115,14 +4112,14 @@
       <c r="F122" s="75"/>
     </row>
     <row r="123" spans="1:34" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="79" t="s">
+      <c r="A123" s="72" t="s">
         <v>116</v>
       </c>
-      <c r="B123" s="84"/>
-      <c r="C123" s="85"/>
-      <c r="D123" s="85"/>
-      <c r="E123" s="85"/>
-      <c r="F123" s="85"/>
+      <c r="B123" s="73"/>
+      <c r="C123" s="74"/>
+      <c r="D123" s="74"/>
+      <c r="E123" s="74"/>
+      <c r="F123" s="74"/>
     </row>
     <row r="124" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="61"/>
@@ -4355,14 +4352,14 @@
       <c r="F134" s="37"/>
     </row>
     <row r="135" spans="1:34" ht="147" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="76" t="s">
+      <c r="A135" s="68" t="s">
         <v>169</v>
       </c>
-      <c r="B135" s="77"/>
-      <c r="C135" s="77"/>
-      <c r="D135" s="77"/>
-      <c r="E135" s="77"/>
-      <c r="F135" s="78"/>
+      <c r="B135" s="69"/>
+      <c r="C135" s="69"/>
+      <c r="D135" s="69"/>
+      <c r="E135" s="69"/>
+      <c r="F135" s="70"/>
     </row>
     <row r="136" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="36"/>
@@ -4383,14 +4380,14 @@
       <c r="F137" s="75"/>
     </row>
     <row r="138" spans="1:34" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="79" t="s">
+      <c r="A138" s="72" t="s">
         <v>117</v>
       </c>
-      <c r="B138" s="84"/>
-      <c r="C138" s="85"/>
-      <c r="D138" s="85"/>
-      <c r="E138" s="85"/>
-      <c r="F138" s="85"/>
+      <c r="B138" s="73"/>
+      <c r="C138" s="74"/>
+      <c r="D138" s="74"/>
+      <c r="E138" s="74"/>
+      <c r="F138" s="74"/>
     </row>
     <row r="139" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="61"/>
@@ -4579,14 +4576,14 @@
       <c r="F148" s="24"/>
     </row>
     <row r="149" spans="1:6" ht="143.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="76" t="s">
+      <c r="A149" s="68" t="s">
         <v>170</v>
       </c>
-      <c r="B149" s="77"/>
-      <c r="C149" s="77"/>
-      <c r="D149" s="77"/>
-      <c r="E149" s="77"/>
-      <c r="F149" s="78"/>
+      <c r="B149" s="69"/>
+      <c r="C149" s="69"/>
+      <c r="D149" s="69"/>
+      <c r="E149" s="69"/>
+      <c r="F149" s="70"/>
     </row>
     <row r="150" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="36"/>
@@ -4607,14 +4604,14 @@
       <c r="F151" s="75"/>
     </row>
     <row r="152" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="84" t="s">
+      <c r="A152" s="73" t="s">
         <v>86</v>
       </c>
-      <c r="B152" s="84"/>
-      <c r="C152" s="85"/>
-      <c r="D152" s="85"/>
-      <c r="E152" s="85"/>
-      <c r="F152" s="85"/>
+      <c r="B152" s="73"/>
+      <c r="C152" s="74"/>
+      <c r="D152" s="74"/>
+      <c r="E152" s="74"/>
+      <c r="F152" s="74"/>
     </row>
     <row r="153" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="61"/>
@@ -5018,11 +5015,11 @@
       <c r="A178" s="67" t="s">
         <v>171</v>
       </c>
-      <c r="B178" s="68"/>
-      <c r="C178" s="68"/>
-      <c r="D178" s="68"/>
-      <c r="E178" s="68"/>
-      <c r="F178" s="68"/>
+      <c r="B178" s="71"/>
+      <c r="C178" s="71"/>
+      <c r="D178" s="71"/>
+      <c r="E178" s="71"/>
+      <c r="F178" s="71"/>
     </row>
     <row r="179" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="36"/>
@@ -5043,14 +5040,14 @@
       <c r="F180" s="75"/>
     </row>
     <row r="181" spans="1:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="79" t="s">
+      <c r="A181" s="72" t="s">
         <v>140</v>
       </c>
-      <c r="B181" s="84"/>
-      <c r="C181" s="85"/>
-      <c r="D181" s="85"/>
-      <c r="E181" s="85"/>
-      <c r="F181" s="85"/>
+      <c r="B181" s="73"/>
+      <c r="C181" s="74"/>
+      <c r="D181" s="74"/>
+      <c r="E181" s="74"/>
+      <c r="F181" s="74"/>
     </row>
     <row r="182" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="61"/>
@@ -5466,11 +5463,11 @@
       <c r="A206" s="67" t="s">
         <v>171</v>
       </c>
-      <c r="B206" s="68"/>
-      <c r="C206" s="68"/>
-      <c r="D206" s="68"/>
-      <c r="E206" s="68"/>
-      <c r="F206" s="68"/>
+      <c r="B206" s="71"/>
+      <c r="C206" s="71"/>
+      <c r="D206" s="71"/>
+      <c r="E206" s="71"/>
+      <c r="F206" s="71"/>
     </row>
     <row r="207" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="36"/>
@@ -5491,14 +5488,14 @@
       <c r="F208" s="75"/>
     </row>
     <row r="209" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="79" t="s">
+      <c r="A209" s="72" t="s">
         <v>141</v>
       </c>
-      <c r="B209" s="84"/>
-      <c r="C209" s="85"/>
-      <c r="D209" s="85"/>
-      <c r="E209" s="85"/>
-      <c r="F209" s="85"/>
+      <c r="B209" s="73"/>
+      <c r="C209" s="74"/>
+      <c r="D209" s="74"/>
+      <c r="E209" s="74"/>
+      <c r="F209" s="74"/>
     </row>
     <row r="210" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="61"/>
@@ -5598,11 +5595,11 @@
       <c r="A216" s="67" t="s">
         <v>172</v>
       </c>
-      <c r="B216" s="68"/>
-      <c r="C216" s="68"/>
-      <c r="D216" s="68"/>
-      <c r="E216" s="68"/>
-      <c r="F216" s="68"/>
+      <c r="B216" s="71"/>
+      <c r="C216" s="71"/>
+      <c r="D216" s="71"/>
+      <c r="E216" s="71"/>
+      <c r="F216" s="71"/>
     </row>
     <row r="217" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="58"/>
@@ -5623,14 +5620,14 @@
       <c r="F218" s="75"/>
     </row>
     <row r="219" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="79" t="s">
+      <c r="A219" s="72" t="s">
         <v>142</v>
       </c>
-      <c r="B219" s="84"/>
-      <c r="C219" s="85"/>
-      <c r="D219" s="85"/>
-      <c r="E219" s="85"/>
-      <c r="F219" s="85"/>
+      <c r="B219" s="73"/>
+      <c r="C219" s="74"/>
+      <c r="D219" s="74"/>
+      <c r="E219" s="74"/>
+      <c r="F219" s="74"/>
     </row>
     <row r="220" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="61"/>
@@ -6264,6 +6261,29 @@
     <sortCondition ref="B131"/>
   </sortState>
   <mergeCells count="39">
+    <mergeCell ref="A216:F216"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="A151:F151"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="A55:F55"/>
+    <mergeCell ref="A58:F58"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="A103:F103"/>
+    <mergeCell ref="A104:F104"/>
+    <mergeCell ref="A122:F122"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="A101:F101"/>
     <mergeCell ref="A259:F259"/>
     <mergeCell ref="A120:F120"/>
     <mergeCell ref="A135:F135"/>
@@ -6280,29 +6300,6 @@
     <mergeCell ref="A180:F180"/>
     <mergeCell ref="A181:F181"/>
     <mergeCell ref="A208:F208"/>
-    <mergeCell ref="A104:F104"/>
-    <mergeCell ref="A122:F122"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A80:F80"/>
-    <mergeCell ref="A101:F101"/>
-    <mergeCell ref="A216:F216"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="A151:F151"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="A55:F55"/>
-    <mergeCell ref="A58:F58"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="A83:F83"/>
-    <mergeCell ref="A103:F103"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -6334,11 +6331,11 @@
       <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
     </row>
     <row r="2" spans="1:6" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A2" s="89" t="s">

--- a/public/base.xlsx
+++ b/public/base.xlsx
@@ -679,7 +679,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -838,6 +838,14 @@
       <color theme="1"/>
       <name val="B Nazanin"/>
       <charset val="178"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
@@ -1024,7 +1032,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -1180,9 +1188,6 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1190,9 +1195,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1271,6 +1273,11 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="15" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1738,7 +1745,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>312440</xdr:colOff>
       <xdr:row>171</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
+      <xdr:rowOff>304799</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2147,8 +2154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH259"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:F3"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A262" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A220" sqref="A220:XFD220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2182,31 +2189,31 @@
       </c>
     </row>
     <row r="2" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
+      <c r="A2" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
     </row>
     <row r="3" spans="1:34" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="79" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="84"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="82"/>
     </row>
     <row r="4" spans="1:34" s="57" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="63"/>
-      <c r="B4" s="62" t="s">
+      <c r="A4" s="62"/>
+      <c r="B4" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="62" t="s">
+      <c r="C4" s="61" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="42" t="s">
@@ -2340,14 +2347,14 @@
       <c r="F10" s="23"/>
     </row>
     <row r="11" spans="1:34" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="68" t="s">
+      <c r="A11" s="66" t="s">
         <v>163</v>
       </c>
-      <c r="B11" s="76"/>
-      <c r="C11" s="76"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="76"/>
-      <c r="F11" s="77"/>
+      <c r="B11" s="74"/>
+      <c r="C11" s="74"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="75"/>
     </row>
     <row r="12" spans="1:34" s="24" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="38"/>
@@ -2358,24 +2365,24 @@
       <c r="F12" s="23"/>
     </row>
     <row r="13" spans="1:34" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="80"/>
-      <c r="C13" s="80"/>
-      <c r="D13" s="80"/>
-      <c r="E13" s="80"/>
-      <c r="F13" s="80"/>
+      <c r="A13" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="78"/>
+      <c r="C13" s="78"/>
+      <c r="D13" s="78"/>
+      <c r="E13" s="78"/>
+      <c r="F13" s="78"/>
     </row>
     <row r="14" spans="1:34" s="57" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="81" t="s">
+      <c r="A14" s="79" t="s">
         <v>87</v>
       </c>
-      <c r="B14" s="82"/>
-      <c r="C14" s="83"/>
-      <c r="D14" s="83"/>
-      <c r="E14" s="83"/>
-      <c r="F14" s="84"/>
+      <c r="B14" s="80"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="82"/>
       <c r="G14" s="56"/>
       <c r="H14" s="56"/>
       <c r="I14" s="56"/>
@@ -2406,11 +2413,11 @@
       <c r="AH14" s="56"/>
     </row>
     <row r="15" spans="1:34" s="3" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="63"/>
-      <c r="B15" s="62" t="s">
+      <c r="A15" s="62"/>
+      <c r="B15" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="62" t="s">
+      <c r="C15" s="61" t="s">
         <v>4</v>
       </c>
       <c r="D15" s="42" t="s">
@@ -2576,14 +2583,14 @@
       <c r="F23" s="23"/>
     </row>
     <row r="24" spans="1:34" s="26" customFormat="1" ht="135.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="68" t="s">
+      <c r="A24" s="66" t="s">
         <v>164</v>
       </c>
-      <c r="B24" s="76"/>
-      <c r="C24" s="76"/>
-      <c r="D24" s="76"/>
-      <c r="E24" s="76"/>
-      <c r="F24" s="77"/>
+      <c r="B24" s="74"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="74"/>
+      <c r="E24" s="74"/>
+      <c r="F24" s="75"/>
       <c r="G24" s="25"/>
       <c r="H24" s="25"/>
       <c r="I24" s="25"/>
@@ -2622,42 +2629,70 @@
       <c r="F25" s="23"/>
     </row>
     <row r="26" spans="1:34" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="80"/>
-      <c r="C26" s="80"/>
-      <c r="D26" s="80"/>
-      <c r="E26" s="80"/>
-      <c r="F26" s="80"/>
+      <c r="A26" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="78"/>
+      <c r="C26" s="78"/>
+      <c r="D26" s="78"/>
+      <c r="E26" s="78"/>
+      <c r="F26" s="78"/>
     </row>
     <row r="27" spans="1:34" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="81" t="s">
+      <c r="A27" s="79" t="s">
         <v>160</v>
       </c>
-      <c r="B27" s="82"/>
-      <c r="C27" s="83"/>
-      <c r="D27" s="83"/>
-      <c r="E27" s="83"/>
-      <c r="F27" s="84"/>
-    </row>
-    <row r="28" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="65"/>
-      <c r="B28" s="62" t="s">
+      <c r="B27" s="80"/>
+      <c r="C27" s="81"/>
+      <c r="D27" s="81"/>
+      <c r="E27" s="81"/>
+      <c r="F27" s="82"/>
+    </row>
+    <row r="28" spans="1:34" s="92" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="90"/>
+      <c r="B28" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="F28" s="42" t="s">
         <v>2</v>
       </c>
+      <c r="G28" s="91"/>
+      <c r="H28" s="91"/>
+      <c r="I28" s="91"/>
+      <c r="J28" s="91"/>
+      <c r="K28" s="91"/>
+      <c r="L28" s="91"/>
+      <c r="M28" s="91"/>
+      <c r="N28" s="91"/>
+      <c r="O28" s="91"/>
+      <c r="P28" s="91"/>
+      <c r="Q28" s="91"/>
+      <c r="R28" s="91"/>
+      <c r="S28" s="91"/>
+      <c r="T28" s="91"/>
+      <c r="U28" s="91"/>
+      <c r="V28" s="91"/>
+      <c r="W28" s="91"/>
+      <c r="X28" s="91"/>
+      <c r="Y28" s="91"/>
+      <c r="Z28" s="91"/>
+      <c r="AA28" s="91"/>
+      <c r="AB28" s="91"/>
+      <c r="AC28" s="91"/>
+      <c r="AD28" s="91"/>
+      <c r="AE28" s="91"/>
+      <c r="AF28" s="91"/>
+      <c r="AG28" s="91"/>
+      <c r="AH28" s="91"/>
     </row>
     <row r="29" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="59" t="s">
@@ -2720,16 +2755,16 @@
       <c r="F32" s="29"/>
     </row>
     <row r="33" spans="1:34" ht="153.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="67" t="s">
+      <c r="A33" s="65" t="s">
         <v>165</v>
       </c>
-      <c r="B33" s="78"/>
-      <c r="C33" s="78"/>
-      <c r="D33" s="78"/>
-      <c r="E33" s="78"/>
-      <c r="F33" s="78"/>
-    </row>
-    <row r="34" spans="1:34" s="64" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="76"/>
+      <c r="C33" s="76"/>
+      <c r="D33" s="76"/>
+      <c r="E33" s="76"/>
+      <c r="F33" s="76"/>
+    </row>
+    <row r="34" spans="1:34" s="63" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="38"/>
       <c r="B34" s="52"/>
       <c r="C34" s="21"/>
@@ -2766,42 +2801,70 @@
       <c r="AH34" s="24"/>
     </row>
     <row r="35" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B35" s="80"/>
-      <c r="C35" s="80"/>
-      <c r="D35" s="80"/>
-      <c r="E35" s="80"/>
-      <c r="F35" s="80"/>
+      <c r="A35" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="78"/>
+      <c r="C35" s="78"/>
+      <c r="D35" s="78"/>
+      <c r="E35" s="78"/>
+      <c r="F35" s="78"/>
     </row>
     <row r="36" spans="1:34" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="81" t="s">
+      <c r="A36" s="79" t="s">
         <v>161</v>
       </c>
-      <c r="B36" s="82"/>
-      <c r="C36" s="83"/>
-      <c r="D36" s="83"/>
-      <c r="E36" s="83"/>
-      <c r="F36" s="84"/>
-    </row>
-    <row r="37" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="65"/>
-      <c r="B37" s="62" t="s">
+      <c r="B36" s="80"/>
+      <c r="C36" s="81"/>
+      <c r="D36" s="81"/>
+      <c r="E36" s="81"/>
+      <c r="F36" s="82"/>
+    </row>
+    <row r="37" spans="1:34" s="92" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="90"/>
+      <c r="B37" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="E37" s="7" t="s">
+      <c r="E37" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="F37" s="42" t="s">
         <v>2</v>
       </c>
+      <c r="G37" s="91"/>
+      <c r="H37" s="91"/>
+      <c r="I37" s="91"/>
+      <c r="J37" s="91"/>
+      <c r="K37" s="91"/>
+      <c r="L37" s="91"/>
+      <c r="M37" s="91"/>
+      <c r="N37" s="91"/>
+      <c r="O37" s="91"/>
+      <c r="P37" s="91"/>
+      <c r="Q37" s="91"/>
+      <c r="R37" s="91"/>
+      <c r="S37" s="91"/>
+      <c r="T37" s="91"/>
+      <c r="U37" s="91"/>
+      <c r="V37" s="91"/>
+      <c r="W37" s="91"/>
+      <c r="X37" s="91"/>
+      <c r="Y37" s="91"/>
+      <c r="Z37" s="91"/>
+      <c r="AA37" s="91"/>
+      <c r="AB37" s="91"/>
+      <c r="AC37" s="91"/>
+      <c r="AD37" s="91"/>
+      <c r="AE37" s="91"/>
+      <c r="AF37" s="91"/>
+      <c r="AG37" s="91"/>
+      <c r="AH37" s="91"/>
     </row>
     <row r="38" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="59" t="s">
@@ -3072,14 +3135,14 @@
       <c r="F54" s="31"/>
     </row>
     <row r="55" spans="1:6" s="1" customFormat="1" ht="149.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="68" t="s">
+      <c r="A55" s="66" t="s">
         <v>166</v>
       </c>
-      <c r="B55" s="69"/>
-      <c r="C55" s="69"/>
-      <c r="D55" s="69"/>
-      <c r="E55" s="69"/>
-      <c r="F55" s="70"/>
+      <c r="B55" s="67"/>
+      <c r="C55" s="67"/>
+      <c r="D55" s="67"/>
+      <c r="E55" s="67"/>
+      <c r="F55" s="68"/>
     </row>
     <row r="56" spans="1:6" s="1" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="38"/>
@@ -3090,40 +3153,40 @@
       <c r="F56" s="31"/>
     </row>
     <row r="57" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B57" s="80"/>
-      <c r="C57" s="80"/>
-      <c r="D57" s="80"/>
-      <c r="E57" s="80"/>
-      <c r="F57" s="80"/>
+      <c r="A57" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57" s="78"/>
+      <c r="C57" s="78"/>
+      <c r="D57" s="78"/>
+      <c r="E57" s="78"/>
+      <c r="F57" s="78"/>
     </row>
     <row r="58" spans="1:6" s="1" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="72" t="s">
+      <c r="A58" s="70" t="s">
         <v>93</v>
       </c>
-      <c r="B58" s="85"/>
-      <c r="C58" s="75"/>
-      <c r="D58" s="75"/>
-      <c r="E58" s="75"/>
-      <c r="F58" s="75"/>
-    </row>
-    <row r="59" spans="1:6" s="1" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="61"/>
-      <c r="B59" s="62" t="s">
+      <c r="B58" s="83"/>
+      <c r="C58" s="73"/>
+      <c r="D58" s="73"/>
+      <c r="E58" s="73"/>
+      <c r="F58" s="73"/>
+    </row>
+    <row r="59" spans="1:6" s="56" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="90"/>
+      <c r="B59" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="C59" s="6" t="s">
+      <c r="C59" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="D59" s="7" t="s">
+      <c r="D59" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="E59" s="7" t="s">
+      <c r="E59" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="F59" s="7" t="s">
+      <c r="F59" s="42" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3444,14 +3507,14 @@
       <c r="F79" s="31"/>
     </row>
     <row r="80" spans="1:6" s="1" customFormat="1" ht="152.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="68" t="s">
+      <c r="A80" s="66" t="s">
         <v>174</v>
       </c>
-      <c r="B80" s="69"/>
-      <c r="C80" s="69"/>
-      <c r="D80" s="69"/>
-      <c r="E80" s="69"/>
-      <c r="F80" s="70"/>
+      <c r="B80" s="67"/>
+      <c r="C80" s="67"/>
+      <c r="D80" s="67"/>
+      <c r="E80" s="67"/>
+      <c r="F80" s="68"/>
     </row>
     <row r="81" spans="1:6" s="1" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="38"/>
@@ -3462,40 +3525,40 @@
       <c r="F81" s="31"/>
     </row>
     <row r="82" spans="1:6" s="1" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="86" t="s">
-        <v>0</v>
-      </c>
-      <c r="B82" s="87"/>
-      <c r="C82" s="87"/>
-      <c r="D82" s="87"/>
-      <c r="E82" s="87"/>
-      <c r="F82" s="88"/>
+      <c r="A82" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B82" s="85"/>
+      <c r="C82" s="85"/>
+      <c r="D82" s="85"/>
+      <c r="E82" s="85"/>
+      <c r="F82" s="86"/>
     </row>
     <row r="83" spans="1:6" s="1" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="72" t="s">
+      <c r="A83" s="70" t="s">
         <v>94</v>
       </c>
-      <c r="B83" s="73"/>
-      <c r="C83" s="74"/>
-      <c r="D83" s="74"/>
-      <c r="E83" s="74"/>
-      <c r="F83" s="74"/>
-    </row>
-    <row r="84" spans="1:6" s="1" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="61"/>
-      <c r="B84" s="62" t="s">
+      <c r="B83" s="71"/>
+      <c r="C83" s="72"/>
+      <c r="D83" s="72"/>
+      <c r="E83" s="72"/>
+      <c r="F83" s="72"/>
+    </row>
+    <row r="84" spans="1:6" s="56" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="90"/>
+      <c r="B84" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="C84" s="6" t="s">
+      <c r="C84" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="D84" s="7" t="s">
+      <c r="D84" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="E84" s="7" t="s">
+      <c r="E84" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="F84" s="7" t="s">
+      <c r="F84" s="42" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3780,14 +3843,14 @@
       <c r="F100" s="31"/>
     </row>
     <row r="101" spans="1:34" ht="161.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="68" t="s">
+      <c r="A101" s="66" t="s">
         <v>167</v>
       </c>
-      <c r="B101" s="69"/>
-      <c r="C101" s="69"/>
-      <c r="D101" s="69"/>
-      <c r="E101" s="69"/>
-      <c r="F101" s="70"/>
+      <c r="B101" s="67"/>
+      <c r="C101" s="67"/>
+      <c r="D101" s="67"/>
+      <c r="E101" s="67"/>
+      <c r="F101" s="68"/>
     </row>
     <row r="102" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="38"/>
@@ -3798,42 +3861,70 @@
       <c r="F102" s="31"/>
     </row>
     <row r="103" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B103" s="75"/>
-      <c r="C103" s="75"/>
-      <c r="D103" s="75"/>
-      <c r="E103" s="75"/>
-      <c r="F103" s="75"/>
+      <c r="A103" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B103" s="73"/>
+      <c r="C103" s="73"/>
+      <c r="D103" s="73"/>
+      <c r="E103" s="73"/>
+      <c r="F103" s="73"/>
     </row>
     <row r="104" spans="1:34" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="72" t="s">
+      <c r="A104" s="70" t="s">
         <v>107</v>
       </c>
-      <c r="B104" s="73"/>
-      <c r="C104" s="74"/>
-      <c r="D104" s="74"/>
-      <c r="E104" s="74"/>
-      <c r="F104" s="74"/>
-    </row>
-    <row r="105" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="61"/>
-      <c r="B105" s="62" t="s">
+      <c r="B104" s="71"/>
+      <c r="C104" s="72"/>
+      <c r="D104" s="72"/>
+      <c r="E104" s="72"/>
+      <c r="F104" s="72"/>
+    </row>
+    <row r="105" spans="1:34" s="57" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="90"/>
+      <c r="B105" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="C105" s="6" t="s">
+      <c r="C105" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="D105" s="7" t="s">
+      <c r="D105" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="E105" s="7" t="s">
+      <c r="E105" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="F105" s="7" t="s">
+      <c r="F105" s="42" t="s">
         <v>2</v>
       </c>
+      <c r="G105" s="56"/>
+      <c r="H105" s="56"/>
+      <c r="I105" s="56"/>
+      <c r="J105" s="56"/>
+      <c r="K105" s="56"/>
+      <c r="L105" s="56"/>
+      <c r="M105" s="56"/>
+      <c r="N105" s="56"/>
+      <c r="O105" s="56"/>
+      <c r="P105" s="56"/>
+      <c r="Q105" s="56"/>
+      <c r="R105" s="56"/>
+      <c r="S105" s="56"/>
+      <c r="T105" s="56"/>
+      <c r="U105" s="56"/>
+      <c r="V105" s="56"/>
+      <c r="W105" s="56"/>
+      <c r="X105" s="56"/>
+      <c r="Y105" s="56"/>
+      <c r="Z105" s="56"/>
+      <c r="AA105" s="56"/>
+      <c r="AB105" s="56"/>
+      <c r="AC105" s="56"/>
+      <c r="AD105" s="56"/>
+      <c r="AE105" s="56"/>
+      <c r="AF105" s="56"/>
+      <c r="AG105" s="56"/>
+      <c r="AH105" s="56"/>
     </row>
     <row r="106" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="59" t="s">
@@ -4084,14 +4175,14 @@
       <c r="F119" s="24"/>
     </row>
     <row r="120" spans="1:34" ht="133.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="68" t="s">
+      <c r="A120" s="66" t="s">
         <v>168</v>
       </c>
-      <c r="B120" s="69"/>
-      <c r="C120" s="69"/>
-      <c r="D120" s="69"/>
-      <c r="E120" s="69"/>
-      <c r="F120" s="70"/>
+      <c r="B120" s="67"/>
+      <c r="C120" s="67"/>
+      <c r="D120" s="67"/>
+      <c r="E120" s="67"/>
+      <c r="F120" s="68"/>
     </row>
     <row r="121" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="36"/>
@@ -4102,42 +4193,70 @@
       <c r="F121" s="24"/>
     </row>
     <row r="122" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B122" s="75"/>
-      <c r="C122" s="75"/>
-      <c r="D122" s="75"/>
-      <c r="E122" s="75"/>
-      <c r="F122" s="75"/>
+      <c r="A122" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B122" s="73"/>
+      <c r="C122" s="73"/>
+      <c r="D122" s="73"/>
+      <c r="E122" s="73"/>
+      <c r="F122" s="73"/>
     </row>
     <row r="123" spans="1:34" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="72" t="s">
+      <c r="A123" s="70" t="s">
         <v>116</v>
       </c>
-      <c r="B123" s="73"/>
-      <c r="C123" s="74"/>
-      <c r="D123" s="74"/>
-      <c r="E123" s="74"/>
-      <c r="F123" s="74"/>
-    </row>
-    <row r="124" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="61"/>
-      <c r="B124" s="62" t="s">
+      <c r="B123" s="71"/>
+      <c r="C123" s="72"/>
+      <c r="D123" s="72"/>
+      <c r="E123" s="72"/>
+      <c r="F123" s="72"/>
+    </row>
+    <row r="124" spans="1:34" s="57" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="90"/>
+      <c r="B124" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="C124" s="6" t="s">
+      <c r="C124" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="D124" s="7" t="s">
+      <c r="D124" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="E124" s="7" t="s">
+      <c r="E124" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="F124" s="7" t="s">
+      <c r="F124" s="42" t="s">
         <v>2</v>
       </c>
+      <c r="G124" s="56"/>
+      <c r="H124" s="56"/>
+      <c r="I124" s="56"/>
+      <c r="J124" s="56"/>
+      <c r="K124" s="56"/>
+      <c r="L124" s="56"/>
+      <c r="M124" s="56"/>
+      <c r="N124" s="56"/>
+      <c r="O124" s="56"/>
+      <c r="P124" s="56"/>
+      <c r="Q124" s="56"/>
+      <c r="R124" s="56"/>
+      <c r="S124" s="56"/>
+      <c r="T124" s="56"/>
+      <c r="U124" s="56"/>
+      <c r="V124" s="56"/>
+      <c r="W124" s="56"/>
+      <c r="X124" s="56"/>
+      <c r="Y124" s="56"/>
+      <c r="Z124" s="56"/>
+      <c r="AA124" s="56"/>
+      <c r="AB124" s="56"/>
+      <c r="AC124" s="56"/>
+      <c r="AD124" s="56"/>
+      <c r="AE124" s="56"/>
+      <c r="AF124" s="56"/>
+      <c r="AG124" s="56"/>
+      <c r="AH124" s="56"/>
     </row>
     <row r="125" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="59" t="s">
@@ -4352,14 +4471,14 @@
       <c r="F134" s="37"/>
     </row>
     <row r="135" spans="1:34" ht="147" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="68" t="s">
+      <c r="A135" s="66" t="s">
         <v>169</v>
       </c>
-      <c r="B135" s="69"/>
-      <c r="C135" s="69"/>
-      <c r="D135" s="69"/>
-      <c r="E135" s="69"/>
-      <c r="F135" s="70"/>
+      <c r="B135" s="67"/>
+      <c r="C135" s="67"/>
+      <c r="D135" s="67"/>
+      <c r="E135" s="67"/>
+      <c r="F135" s="68"/>
     </row>
     <row r="136" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="36"/>
@@ -4370,42 +4489,70 @@
       <c r="F136" s="37"/>
     </row>
     <row r="137" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B137" s="75"/>
-      <c r="C137" s="75"/>
-      <c r="D137" s="75"/>
-      <c r="E137" s="75"/>
-      <c r="F137" s="75"/>
+      <c r="A137" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B137" s="73"/>
+      <c r="C137" s="73"/>
+      <c r="D137" s="73"/>
+      <c r="E137" s="73"/>
+      <c r="F137" s="73"/>
     </row>
     <row r="138" spans="1:34" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="72" t="s">
+      <c r="A138" s="70" t="s">
         <v>117</v>
       </c>
-      <c r="B138" s="73"/>
-      <c r="C138" s="74"/>
-      <c r="D138" s="74"/>
-      <c r="E138" s="74"/>
-      <c r="F138" s="74"/>
-    </row>
-    <row r="139" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="61"/>
-      <c r="B139" s="62" t="s">
+      <c r="B138" s="71"/>
+      <c r="C138" s="72"/>
+      <c r="D138" s="72"/>
+      <c r="E138" s="72"/>
+      <c r="F138" s="72"/>
+    </row>
+    <row r="139" spans="1:34" s="57" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="90"/>
+      <c r="B139" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="C139" s="6" t="s">
+      <c r="C139" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="D139" s="7" t="s">
+      <c r="D139" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="E139" s="7" t="s">
+      <c r="E139" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="F139" s="7" t="s">
+      <c r="F139" s="42" t="s">
         <v>2</v>
       </c>
+      <c r="G139" s="56"/>
+      <c r="H139" s="56"/>
+      <c r="I139" s="56"/>
+      <c r="J139" s="56"/>
+      <c r="K139" s="56"/>
+      <c r="L139" s="56"/>
+      <c r="M139" s="56"/>
+      <c r="N139" s="56"/>
+      <c r="O139" s="56"/>
+      <c r="P139" s="56"/>
+      <c r="Q139" s="56"/>
+      <c r="R139" s="56"/>
+      <c r="S139" s="56"/>
+      <c r="T139" s="56"/>
+      <c r="U139" s="56"/>
+      <c r="V139" s="56"/>
+      <c r="W139" s="56"/>
+      <c r="X139" s="56"/>
+      <c r="Y139" s="56"/>
+      <c r="Z139" s="56"/>
+      <c r="AA139" s="56"/>
+      <c r="AB139" s="56"/>
+      <c r="AC139" s="56"/>
+      <c r="AD139" s="56"/>
+      <c r="AE139" s="56"/>
+      <c r="AF139" s="56"/>
+      <c r="AG139" s="56"/>
+      <c r="AH139" s="56"/>
     </row>
     <row r="140" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="59" t="s">
@@ -4517,7 +4664,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="145" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:34" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="34"/>
       <c r="B145" s="46" t="s">
         <v>122</v>
@@ -4533,7 +4680,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="146" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="34"/>
       <c r="B146" s="46" t="s">
         <v>123</v>
@@ -4549,7 +4696,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="147" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:34" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="34"/>
       <c r="B147" s="46" t="s">
         <v>124</v>
@@ -4565,7 +4712,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="148" spans="1:6" ht="27.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:34" ht="27.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="36" t="s">
         <v>162</v>
       </c>
@@ -4575,17 +4722,17 @@
       <c r="E148" s="24"/>
       <c r="F148" s="24"/>
     </row>
-    <row r="149" spans="1:6" ht="143.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="68" t="s">
+    <row r="149" spans="1:34" ht="143.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="66" t="s">
         <v>170</v>
       </c>
-      <c r="B149" s="69"/>
-      <c r="C149" s="69"/>
-      <c r="D149" s="69"/>
-      <c r="E149" s="69"/>
-      <c r="F149" s="70"/>
-    </row>
-    <row r="150" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B149" s="67"/>
+      <c r="C149" s="67"/>
+      <c r="D149" s="67"/>
+      <c r="E149" s="67"/>
+      <c r="F149" s="68"/>
+    </row>
+    <row r="150" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="36"/>
       <c r="B150" s="54"/>
       <c r="C150" s="24"/>
@@ -4593,45 +4740,73 @@
       <c r="E150" s="24"/>
       <c r="F150" s="24"/>
     </row>
-    <row r="151" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B151" s="75"/>
-      <c r="C151" s="75"/>
-      <c r="D151" s="75"/>
-      <c r="E151" s="75"/>
-      <c r="F151" s="75"/>
-    </row>
-    <row r="152" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="73" t="s">
+    <row r="151" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B151" s="73"/>
+      <c r="C151" s="73"/>
+      <c r="D151" s="73"/>
+      <c r="E151" s="73"/>
+      <c r="F151" s="73"/>
+    </row>
+    <row r="152" spans="1:34" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="71" t="s">
         <v>86</v>
       </c>
-      <c r="B152" s="73"/>
-      <c r="C152" s="74"/>
-      <c r="D152" s="74"/>
-      <c r="E152" s="74"/>
-      <c r="F152" s="74"/>
-    </row>
-    <row r="153" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="61"/>
-      <c r="B153" s="62" t="s">
+      <c r="B152" s="71"/>
+      <c r="C152" s="72"/>
+      <c r="D152" s="72"/>
+      <c r="E152" s="72"/>
+      <c r="F152" s="72"/>
+    </row>
+    <row r="153" spans="1:34" s="57" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="90"/>
+      <c r="B153" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="C153" s="6" t="s">
+      <c r="C153" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="D153" s="7" t="s">
+      <c r="D153" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="E153" s="7" t="s">
+      <c r="E153" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="F153" s="7" t="s">
+      <c r="F153" s="42" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="154" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G153" s="56"/>
+      <c r="H153" s="56"/>
+      <c r="I153" s="56"/>
+      <c r="J153" s="56"/>
+      <c r="K153" s="56"/>
+      <c r="L153" s="56"/>
+      <c r="M153" s="56"/>
+      <c r="N153" s="56"/>
+      <c r="O153" s="56"/>
+      <c r="P153" s="56"/>
+      <c r="Q153" s="56"/>
+      <c r="R153" s="56"/>
+      <c r="S153" s="56"/>
+      <c r="T153" s="56"/>
+      <c r="U153" s="56"/>
+      <c r="V153" s="56"/>
+      <c r="W153" s="56"/>
+      <c r="X153" s="56"/>
+      <c r="Y153" s="56"/>
+      <c r="Z153" s="56"/>
+      <c r="AA153" s="56"/>
+      <c r="AB153" s="56"/>
+      <c r="AC153" s="56"/>
+      <c r="AD153" s="56"/>
+      <c r="AE153" s="56"/>
+      <c r="AF153" s="56"/>
+      <c r="AG153" s="56"/>
+      <c r="AH153" s="56"/>
+    </row>
+    <row r="154" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="59" t="s">
         <v>72</v>
       </c>
@@ -4649,7 +4824,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="155" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="14"/>
       <c r="B155" s="46" t="s">
         <v>53</v>
@@ -4665,7 +4840,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="156" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="34"/>
       <c r="B156" s="46" t="s">
         <v>54</v>
@@ -4681,7 +4856,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="157" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="34"/>
       <c r="B157" s="46" t="s">
         <v>55</v>
@@ -4697,7 +4872,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="158" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="34"/>
       <c r="B158" s="46" t="s">
         <v>56</v>
@@ -4713,7 +4888,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="159" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="34"/>
       <c r="B159" s="46" t="s">
         <v>57</v>
@@ -4729,7 +4904,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="160" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="34"/>
       <c r="B160" s="46" t="s">
         <v>58</v>
@@ -4905,7 +5080,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="171" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="34"/>
       <c r="B171" s="46" t="s">
         <v>69</v>
@@ -5001,7 +5176,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="177" spans="1:6" ht="27.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:34" ht="27.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="36" t="s">
         <v>162</v>
       </c>
@@ -5011,17 +5186,17 @@
       <c r="E177" s="22"/>
       <c r="F177" s="23"/>
     </row>
-    <row r="178" spans="1:6" ht="141" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="67" t="s">
+    <row r="178" spans="1:34" ht="141" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="65" t="s">
         <v>171</v>
       </c>
-      <c r="B178" s="71"/>
-      <c r="C178" s="71"/>
-      <c r="D178" s="71"/>
-      <c r="E178" s="71"/>
-      <c r="F178" s="71"/>
-    </row>
-    <row r="179" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B178" s="69"/>
+      <c r="C178" s="69"/>
+      <c r="D178" s="69"/>
+      <c r="E178" s="69"/>
+      <c r="F178" s="69"/>
+    </row>
+    <row r="179" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="36"/>
       <c r="B179" s="53"/>
       <c r="C179" s="21"/>
@@ -5029,45 +5204,73 @@
       <c r="E179" s="22"/>
       <c r="F179" s="23"/>
     </row>
-    <row r="180" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B180" s="75"/>
-      <c r="C180" s="75"/>
-      <c r="D180" s="75"/>
-      <c r="E180" s="75"/>
-      <c r="F180" s="75"/>
-    </row>
-    <row r="181" spans="1:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="72" t="s">
+    <row r="180" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B180" s="73"/>
+      <c r="C180" s="73"/>
+      <c r="D180" s="73"/>
+      <c r="E180" s="73"/>
+      <c r="F180" s="73"/>
+    </row>
+    <row r="181" spans="1:34" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="70" t="s">
         <v>140</v>
       </c>
-      <c r="B181" s="73"/>
-      <c r="C181" s="74"/>
-      <c r="D181" s="74"/>
-      <c r="E181" s="74"/>
-      <c r="F181" s="74"/>
-    </row>
-    <row r="182" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="61"/>
-      <c r="B182" s="62" t="s">
+      <c r="B181" s="71"/>
+      <c r="C181" s="72"/>
+      <c r="D181" s="72"/>
+      <c r="E181" s="72"/>
+      <c r="F181" s="72"/>
+    </row>
+    <row r="182" spans="1:34" s="57" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A182" s="90"/>
+      <c r="B182" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="C182" s="6" t="s">
+      <c r="C182" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="D182" s="7" t="s">
+      <c r="D182" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="E182" s="7" t="s">
+      <c r="E182" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="F182" s="7" t="s">
+      <c r="F182" s="42" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="183" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G182" s="56"/>
+      <c r="H182" s="56"/>
+      <c r="I182" s="56"/>
+      <c r="J182" s="56"/>
+      <c r="K182" s="56"/>
+      <c r="L182" s="56"/>
+      <c r="M182" s="56"/>
+      <c r="N182" s="56"/>
+      <c r="O182" s="56"/>
+      <c r="P182" s="56"/>
+      <c r="Q182" s="56"/>
+      <c r="R182" s="56"/>
+      <c r="S182" s="56"/>
+      <c r="T182" s="56"/>
+      <c r="U182" s="56"/>
+      <c r="V182" s="56"/>
+      <c r="W182" s="56"/>
+      <c r="X182" s="56"/>
+      <c r="Y182" s="56"/>
+      <c r="Z182" s="56"/>
+      <c r="AA182" s="56"/>
+      <c r="AB182" s="56"/>
+      <c r="AC182" s="56"/>
+      <c r="AD182" s="56"/>
+      <c r="AE182" s="56"/>
+      <c r="AF182" s="56"/>
+      <c r="AG182" s="56"/>
+      <c r="AH182" s="56"/>
+    </row>
+    <row r="183" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="59" t="s">
         <v>72</v>
       </c>
@@ -5085,7 +5288,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="184" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="34"/>
       <c r="B184" s="46" t="s">
         <v>125</v>
@@ -5101,7 +5304,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="185" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="34"/>
       <c r="B185" s="46" t="s">
         <v>126</v>
@@ -5117,7 +5320,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="186" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="34"/>
       <c r="B186" s="46" t="s">
         <v>127</v>
@@ -5133,7 +5336,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="187" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="34"/>
       <c r="B187" s="46" t="s">
         <v>118</v>
@@ -5149,7 +5352,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="188" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="34"/>
       <c r="B188" s="46" t="s">
         <v>128</v>
@@ -5165,7 +5368,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="189" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="34"/>
       <c r="B189" s="46" t="s">
         <v>129</v>
@@ -5181,7 +5384,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="190" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="34"/>
       <c r="B190" s="46" t="s">
         <v>130</v>
@@ -5197,7 +5400,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="191" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="34"/>
       <c r="B191" s="46" t="s">
         <v>131</v>
@@ -5213,7 +5416,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="192" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="34"/>
       <c r="B192" s="46" t="s">
         <v>132</v>
@@ -5310,7 +5513,7 @@
       </c>
     </row>
     <row r="198" spans="1:34" s="3" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="66"/>
+      <c r="A198" s="64"/>
       <c r="B198" s="46" t="s">
         <v>122</v>
       </c>
@@ -5460,14 +5663,14 @@
       <c r="F205" s="24"/>
     </row>
     <row r="206" spans="1:34" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="67" t="s">
+      <c r="A206" s="65" t="s">
         <v>171</v>
       </c>
-      <c r="B206" s="71"/>
-      <c r="C206" s="71"/>
-      <c r="D206" s="71"/>
-      <c r="E206" s="71"/>
-      <c r="F206" s="71"/>
+      <c r="B206" s="69"/>
+      <c r="C206" s="69"/>
+      <c r="D206" s="69"/>
+      <c r="E206" s="69"/>
+      <c r="F206" s="69"/>
     </row>
     <row r="207" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="36"/>
@@ -5478,44 +5681,72 @@
       <c r="F207" s="24"/>
     </row>
     <row r="208" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B208" s="75"/>
-      <c r="C208" s="75"/>
-      <c r="D208" s="75"/>
-      <c r="E208" s="75"/>
-      <c r="F208" s="75"/>
-    </row>
-    <row r="209" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="72" t="s">
+      <c r="A208" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B208" s="73"/>
+      <c r="C208" s="73"/>
+      <c r="D208" s="73"/>
+      <c r="E208" s="73"/>
+      <c r="F208" s="73"/>
+    </row>
+    <row r="209" spans="1:34" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="70" t="s">
         <v>141</v>
       </c>
-      <c r="B209" s="73"/>
-      <c r="C209" s="74"/>
-      <c r="D209" s="74"/>
-      <c r="E209" s="74"/>
-      <c r="F209" s="74"/>
-    </row>
-    <row r="210" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="61"/>
-      <c r="B210" s="62" t="s">
+      <c r="B209" s="71"/>
+      <c r="C209" s="72"/>
+      <c r="D209" s="72"/>
+      <c r="E209" s="72"/>
+      <c r="F209" s="72"/>
+    </row>
+    <row r="210" spans="1:34" s="57" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A210" s="90"/>
+      <c r="B210" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="C210" s="6" t="s">
+      <c r="C210" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="D210" s="7" t="s">
+      <c r="D210" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="E210" s="7" t="s">
+      <c r="E210" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="F210" s="7" t="s">
+      <c r="F210" s="42" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="211" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G210" s="56"/>
+      <c r="H210" s="56"/>
+      <c r="I210" s="56"/>
+      <c r="J210" s="56"/>
+      <c r="K210" s="56"/>
+      <c r="L210" s="56"/>
+      <c r="M210" s="56"/>
+      <c r="N210" s="56"/>
+      <c r="O210" s="56"/>
+      <c r="P210" s="56"/>
+      <c r="Q210" s="56"/>
+      <c r="R210" s="56"/>
+      <c r="S210" s="56"/>
+      <c r="T210" s="56"/>
+      <c r="U210" s="56"/>
+      <c r="V210" s="56"/>
+      <c r="W210" s="56"/>
+      <c r="X210" s="56"/>
+      <c r="Y210" s="56"/>
+      <c r="Z210" s="56"/>
+      <c r="AA210" s="56"/>
+      <c r="AB210" s="56"/>
+      <c r="AC210" s="56"/>
+      <c r="AD210" s="56"/>
+      <c r="AE210" s="56"/>
+      <c r="AF210" s="56"/>
+      <c r="AG210" s="56"/>
+      <c r="AH210" s="56"/>
+    </row>
+    <row r="211" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="59" t="s">
         <v>72</v>
       </c>
@@ -5533,7 +5764,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="212" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="34"/>
       <c r="B212" s="46" t="s">
         <v>136</v>
@@ -5549,7 +5780,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="213" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="34"/>
       <c r="B213" s="46" t="s">
         <v>126</v>
@@ -5565,7 +5796,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="214" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="34"/>
       <c r="B214" s="46" t="s">
         <v>130</v>
@@ -5581,7 +5812,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="215" spans="1:6" ht="27.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:34" ht="27.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="58" t="s">
         <v>162</v>
       </c>
@@ -5591,17 +5822,17 @@
       <c r="E215" s="1"/>
       <c r="F215" s="1"/>
     </row>
-    <row r="216" spans="1:6" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A216" s="67" t="s">
+    <row r="216" spans="1:34" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A216" s="65" t="s">
         <v>172</v>
       </c>
-      <c r="B216" s="71"/>
-      <c r="C216" s="71"/>
-      <c r="D216" s="71"/>
-      <c r="E216" s="71"/>
-      <c r="F216" s="71"/>
-    </row>
-    <row r="217" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B216" s="69"/>
+      <c r="C216" s="69"/>
+      <c r="D216" s="69"/>
+      <c r="E216" s="69"/>
+      <c r="F216" s="69"/>
+    </row>
+    <row r="217" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="58"/>
       <c r="B217" s="56"/>
       <c r="C217" s="1"/>
@@ -5609,45 +5840,73 @@
       <c r="E217" s="1"/>
       <c r="F217" s="1"/>
     </row>
-    <row r="218" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A218" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B218" s="75"/>
-      <c r="C218" s="75"/>
-      <c r="D218" s="75"/>
-      <c r="E218" s="75"/>
-      <c r="F218" s="75"/>
-    </row>
-    <row r="219" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="72" t="s">
+    <row r="218" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A218" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B218" s="73"/>
+      <c r="C218" s="73"/>
+      <c r="D218" s="73"/>
+      <c r="E218" s="73"/>
+      <c r="F218" s="73"/>
+    </row>
+    <row r="219" spans="1:34" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="70" t="s">
         <v>142</v>
       </c>
-      <c r="B219" s="73"/>
-      <c r="C219" s="74"/>
-      <c r="D219" s="74"/>
-      <c r="E219" s="74"/>
-      <c r="F219" s="74"/>
-    </row>
-    <row r="220" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="61"/>
-      <c r="B220" s="62" t="s">
+      <c r="B219" s="71"/>
+      <c r="C219" s="72"/>
+      <c r="D219" s="72"/>
+      <c r="E219" s="72"/>
+      <c r="F219" s="72"/>
+    </row>
+    <row r="220" spans="1:34" s="57" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A220" s="90"/>
+      <c r="B220" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="C220" s="6" t="s">
+      <c r="C220" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="D220" s="7" t="s">
+      <c r="D220" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="E220" s="7" t="s">
+      <c r="E220" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="F220" s="7" t="s">
+      <c r="F220" s="42" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="221" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G220" s="56"/>
+      <c r="H220" s="56"/>
+      <c r="I220" s="56"/>
+      <c r="J220" s="56"/>
+      <c r="K220" s="56"/>
+      <c r="L220" s="56"/>
+      <c r="M220" s="56"/>
+      <c r="N220" s="56"/>
+      <c r="O220" s="56"/>
+      <c r="P220" s="56"/>
+      <c r="Q220" s="56"/>
+      <c r="R220" s="56"/>
+      <c r="S220" s="56"/>
+      <c r="T220" s="56"/>
+      <c r="U220" s="56"/>
+      <c r="V220" s="56"/>
+      <c r="W220" s="56"/>
+      <c r="X220" s="56"/>
+      <c r="Y220" s="56"/>
+      <c r="Z220" s="56"/>
+      <c r="AA220" s="56"/>
+      <c r="AB220" s="56"/>
+      <c r="AC220" s="56"/>
+      <c r="AD220" s="56"/>
+      <c r="AE220" s="56"/>
+      <c r="AF220" s="56"/>
+      <c r="AG220" s="56"/>
+      <c r="AH220" s="56"/>
+    </row>
+    <row r="221" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="59" t="s">
         <v>72</v>
       </c>
@@ -5665,7 +5924,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="222" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="34"/>
       <c r="B222" s="46" t="s">
         <v>143</v>
@@ -5681,7 +5940,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="223" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="34"/>
       <c r="B223" s="46" t="s">
         <v>75</v>
@@ -5697,7 +5956,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="224" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="34"/>
       <c r="B224" s="46" t="s">
         <v>81</v>
@@ -6247,14 +6506,14 @@
       </c>
     </row>
     <row r="259" spans="1:6" ht="138" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A259" s="67" t="s">
+      <c r="A259" s="65" t="s">
         <v>173</v>
       </c>
-      <c r="B259" s="67"/>
-      <c r="C259" s="67"/>
-      <c r="D259" s="67"/>
-      <c r="E259" s="67"/>
-      <c r="F259" s="67"/>
+      <c r="B259" s="65"/>
+      <c r="C259" s="65"/>
+      <c r="D259" s="65"/>
+      <c r="E259" s="65"/>
+      <c r="F259" s="65"/>
     </row>
   </sheetData>
   <sortState ref="A132:B174">
@@ -6328,24 +6587,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
+      <c r="A1" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
     </row>
     <row r="2" spans="1:6" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="87" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="91"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="89"/>
     </row>
     <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
